--- a/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.163\D_Drive\tmp\RepositoryFSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E6EE15-ED34-431F-8971-4469CB87DF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A0D43-C5C1-46AE-8BBD-D81A049729BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="1119">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4840,18 +4840,6 @@
     <t>Il sistema restituisce un errore diverso da quello aspettato.</t>
   </si>
   <si>
-    <t>2023-03-28T11:56:28Z</t>
-  </si>
-  <si>
-    <t>Errore 400: Request content not conform to API specification: Validation error(s) :\nContent type 'multipart/form-data; boundary=--------------------------805086700372694304284971' is not allowed for body content. (code: 203)\n</t>
-  </si>
-  <si>
-    <t>2023-03-28T12:06:12Z</t>
-  </si>
-  <si>
-    <t>Errore 400: Request content not conform to API specification: Validation error(s) :\nContent type 'multipart/form-data; boundary=--------------------------724110723655359690743785' is not allowed for body content. (code: 203)\n</t>
-  </si>
-  <si>
     <t>2023-03-28T15:39:51Z</t>
   </si>
   <si>
@@ -5128,9 +5116,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.151b9dd94e95204e3af2cb6a73fbbbea9fd3d2ba7cf17d819f24c51fff52b41c.adeb89fc21^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>Il sistema restituisce 200 invece che 404</t>
-  </si>
-  <si>
     <t>2023-03-29T12:19:21Z</t>
   </si>
   <si>
@@ -5327,6 +5312,39 @@
   </si>
   <si>
     <t>Errore 400: Il campo identificativo rep deve essere valorizzato.</t>
+  </si>
+  <si>
+    <t>Mancato Invio a Fse. Gestione in backoffice</t>
+  </si>
+  <si>
+    <t>Errore generico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mancato Invio a Fse. </t>
+  </si>
+  <si>
+    <t>Errore Generico</t>
+  </si>
+  <si>
+    <t>Il sistema restituisce 200 invece che 404. Aperta ISSUE</t>
+  </si>
+  <si>
+    <t>Nessuno</t>
+  </si>
+  <si>
+    <t>Nessuna</t>
+  </si>
+  <si>
+    <t>2023-04-15T09:25:38Z</t>
+  </si>
+  <si>
+    <t>Errore 400: Request content not conform to API specification: Validation error(s) :\nbody.tipoDocumentoLivAlto: Value '' is not defined in the schema. (code: 1006)\nFrom: body.tipoDocumentoLivAlto.&lt;enum&gt;\n</t>
+  </si>
+  <si>
+    <t>2023-04-15T09:33:27Z</t>
+  </si>
+  <si>
+    <t>9cda3531cff73d74</t>
   </si>
 </sst>
 </file>
@@ -5697,7 +5715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5835,6 +5853,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8290,11 +8311,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I275" sqref="I275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8548,7 +8568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23">
         <v>194</v>
       </c>
@@ -8582,7 +8602,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23">
         <v>205</v>
       </c>
@@ -8616,7 +8636,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23">
         <v>210</v>
       </c>
@@ -8650,7 +8670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23">
         <v>221</v>
       </c>
@@ -8684,7 +8704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23">
         <v>11</v>
       </c>
@@ -8734,7 +8754,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23">
         <v>12</v>
       </c>
@@ -8784,7 +8804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23">
         <v>242</v>
       </c>
@@ -8818,7 +8838,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23">
         <v>253</v>
       </c>
@@ -8852,7 +8872,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>258</v>
       </c>
@@ -8886,7 +8906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23">
         <v>269</v>
       </c>
@@ -8920,7 +8940,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23">
         <v>274</v>
       </c>
@@ -8954,7 +8974,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23">
         <v>285</v>
       </c>
@@ -8988,7 +9008,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23">
         <v>290</v>
       </c>
@@ -9008,13 +9028,13 @@
         <v>45016</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="J22" s="28" t="s">
         <v>488</v>
@@ -9058,10 +9078,10 @@
         <v>45016</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="I23" s="27" t="s">
         <v>860</v>
@@ -9083,7 +9103,7 @@
         <v>488</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="Q23" s="28" t="s">
         <v>826</v>
@@ -9094,7 +9114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23">
         <v>306</v>
       </c>
@@ -9128,7 +9148,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="23">
         <v>317</v>
       </c>
@@ -9162,7 +9182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="23">
         <v>352</v>
       </c>
@@ -9196,7 +9216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="23">
         <v>353</v>
       </c>
@@ -9230,7 +9250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="23">
         <v>354</v>
       </c>
@@ -9264,7 +9284,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="23">
         <v>355</v>
       </c>
@@ -9298,7 +9318,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="23">
         <v>13</v>
       </c>
@@ -9336,7 +9356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="23">
         <v>14</v>
       </c>
@@ -9374,7 +9394,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23">
         <v>358</v>
       </c>
@@ -9410,7 +9430,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="23">
         <v>359</v>
       </c>
@@ -9446,7 +9466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="23">
         <v>360</v>
       </c>
@@ -9480,7 +9500,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="23">
         <v>361</v>
       </c>
@@ -9514,7 +9534,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="23">
         <v>362</v>
       </c>
@@ -9548,7 +9568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="23">
         <v>363</v>
       </c>
@@ -9602,10 +9622,10 @@
         <v>45016</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="I38" s="27" t="s">
         <v>860</v>
@@ -9621,13 +9641,13 @@
         <v>828</v>
       </c>
       <c r="N38" s="28" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="O38" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P38" s="28" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="Q38" s="28" t="s">
         <v>826</v>
@@ -9658,10 +9678,10 @@
         <v>45022</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="I39" s="27" t="s">
         <v>860</v>
@@ -9677,26 +9697,26 @@
         <v>488</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="O39" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="Q39" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R39" s="29"/>
       <c r="S39" s="30" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="T39" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="23">
         <v>366</v>
       </c>
@@ -9730,7 +9750,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="23">
         <v>367</v>
       </c>
@@ -9764,7 +9784,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="23">
         <v>195</v>
       </c>
@@ -9798,7 +9818,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="23">
         <v>204</v>
       </c>
@@ -9832,7 +9852,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23">
         <v>211</v>
       </c>
@@ -9866,7 +9886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="23">
         <v>220</v>
       </c>
@@ -10004,7 +10024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="23">
         <v>243</v>
       </c>
@@ -10038,7 +10058,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="23">
         <v>252</v>
       </c>
@@ -10072,7 +10092,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="23">
         <v>259</v>
       </c>
@@ -10106,7 +10126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="23">
         <v>268</v>
       </c>
@@ -10140,7 +10160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="23">
         <v>275</v>
       </c>
@@ -10174,7 +10194,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="23">
         <v>284</v>
       </c>
@@ -10208,7 +10228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="23">
         <v>291</v>
       </c>
@@ -10228,13 +10248,13 @@
         <v>45016</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="J54" s="28" t="s">
         <v>488</v>
@@ -10274,10 +10294,10 @@
         <v>45016</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="I55" s="27" t="s">
         <v>860</v>
@@ -10299,7 +10319,7 @@
         <v>488</v>
       </c>
       <c r="P55" s="28" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="Q55" s="28" t="s">
         <v>826</v>
@@ -10310,7 +10330,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="23">
         <v>307</v>
       </c>
@@ -10344,7 +10364,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="23">
         <v>316</v>
       </c>
@@ -10378,7 +10398,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="23">
         <v>196</v>
       </c>
@@ -10412,7 +10432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="23">
         <v>207</v>
       </c>
@@ -10446,7 +10466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="23">
         <v>212</v>
       </c>
@@ -10480,7 +10500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="23">
         <v>223</v>
       </c>
@@ -10514,7 +10534,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="23">
         <v>47</v>
       </c>
@@ -10550,7 +10570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="23">
         <v>75</v>
       </c>
@@ -10595,7 +10615,7 @@
         <v>488</v>
       </c>
       <c r="P63" s="28" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="Q63" s="32" t="s">
         <v>826</v>
@@ -10606,7 +10626,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="23">
         <v>244</v>
       </c>
@@ -10640,7 +10660,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="23">
         <v>255</v>
       </c>
@@ -10674,7 +10694,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="23">
         <v>260</v>
       </c>
@@ -10708,7 +10728,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="23">
         <v>271</v>
       </c>
@@ -10742,7 +10762,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="23">
         <v>276</v>
       </c>
@@ -10776,7 +10796,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="23">
         <v>287</v>
       </c>
@@ -10810,7 +10830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="23">
         <v>292</v>
       </c>
@@ -10830,13 +10850,13 @@
         <v>45016</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="H70" s="27" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="I70" s="27" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="J70" s="28" t="s">
         <v>488</v>
@@ -10880,10 +10900,10 @@
         <v>45016</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="I71" s="27" t="s">
         <v>860</v>
@@ -10905,7 +10925,7 @@
         <v>488</v>
       </c>
       <c r="P71" s="28" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="Q71" s="28" t="s">
         <v>826</v>
@@ -10916,7 +10936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="23">
         <v>308</v>
       </c>
@@ -10950,7 +10970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="23">
         <v>319</v>
       </c>
@@ -10984,7 +11004,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="23">
         <v>192</v>
       </c>
@@ -11018,7 +11038,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="23">
         <v>197</v>
       </c>
@@ -11052,7 +11072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="23">
         <v>198</v>
       </c>
@@ -11086,7 +11106,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="23">
         <v>199</v>
       </c>
@@ -11120,7 +11140,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="23">
         <v>200</v>
       </c>
@@ -11154,7 +11174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="23">
         <v>201</v>
       </c>
@@ -11188,7 +11208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="23">
         <v>202</v>
       </c>
@@ -11222,7 +11242,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="23">
         <v>203</v>
       </c>
@@ -11256,7 +11276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="23">
         <v>208</v>
       </c>
@@ -11290,7 +11310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="23">
         <v>213</v>
       </c>
@@ -11324,7 +11344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="23">
         <v>214</v>
       </c>
@@ -11358,7 +11378,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="23">
         <v>215</v>
       </c>
@@ -11392,7 +11412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="23">
         <v>216</v>
       </c>
@@ -11426,7 +11446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="23">
         <v>217</v>
       </c>
@@ -11460,7 +11480,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="23">
         <v>218</v>
       </c>
@@ -11494,7 +11514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="23">
         <v>219</v>
       </c>
@@ -11528,7 +11548,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="23">
         <v>76</v>
       </c>
@@ -11573,7 +11593,7 @@
         <v>488</v>
       </c>
       <c r="P90" s="28" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="Q90" s="32" t="s">
         <v>826</v>
@@ -11584,7 +11604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="23">
         <v>77</v>
       </c>
@@ -11629,7 +11649,7 @@
         <v>488</v>
       </c>
       <c r="P91" s="28" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="Q91" s="32" t="s">
         <v>826</v>
@@ -11640,7 +11660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="23">
         <v>78</v>
       </c>
@@ -11685,7 +11705,7 @@
         <v>488</v>
       </c>
       <c r="P92" s="28" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="Q92" s="32" t="s">
         <v>826</v>
@@ -11696,7 +11716,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="23">
         <v>79</v>
       </c>
@@ -11741,7 +11761,7 @@
         <v>488</v>
       </c>
       <c r="P93" s="28" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="Q93" s="32" t="s">
         <v>826</v>
@@ -11752,7 +11772,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="23">
         <v>80</v>
       </c>
@@ -11797,7 +11817,7 @@
         <v>488</v>
       </c>
       <c r="P94" s="28" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="Q94" s="32" t="s">
         <v>826</v>
@@ -11808,7 +11828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="23">
         <v>81</v>
       </c>
@@ -11846,7 +11866,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="23">
         <v>82</v>
       </c>
@@ -11891,7 +11911,7 @@
         <v>488</v>
       </c>
       <c r="P96" s="28" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="Q96" s="32" t="s">
         <v>826</v>
@@ -11902,7 +11922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="23">
         <v>83</v>
       </c>
@@ -11947,7 +11967,7 @@
         <v>488</v>
       </c>
       <c r="P97" s="28" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="Q97" s="32" t="s">
         <v>826</v>
@@ -11958,7 +11978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="23">
         <v>240</v>
       </c>
@@ -11992,7 +12012,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="23">
         <v>245</v>
       </c>
@@ -12026,7 +12046,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="23">
         <v>246</v>
       </c>
@@ -12060,7 +12080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="23">
         <v>247</v>
       </c>
@@ -12094,7 +12114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="23">
         <v>248</v>
       </c>
@@ -12128,7 +12148,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="23">
         <v>249</v>
       </c>
@@ -12162,7 +12182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="23">
         <v>250</v>
       </c>
@@ -12196,7 +12216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="23">
         <v>251</v>
       </c>
@@ -12230,7 +12250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="23">
         <v>256</v>
       </c>
@@ -12264,7 +12284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="23">
         <v>261</v>
       </c>
@@ -12298,7 +12318,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="23">
         <v>262</v>
       </c>
@@ -12332,7 +12352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="23">
         <v>263</v>
       </c>
@@ -12366,7 +12386,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="23">
         <v>264</v>
       </c>
@@ -12400,7 +12420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="23">
         <v>265</v>
       </c>
@@ -12434,7 +12454,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="23">
         <v>266</v>
       </c>
@@ -12468,7 +12488,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="23">
         <v>267</v>
       </c>
@@ -12502,7 +12522,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="23">
         <v>272</v>
       </c>
@@ -12536,7 +12556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="23">
         <v>277</v>
       </c>
@@ -12570,7 +12590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="23">
         <v>278</v>
       </c>
@@ -12604,7 +12624,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="23">
         <v>279</v>
       </c>
@@ -12638,7 +12658,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="23">
         <v>280</v>
       </c>
@@ -12672,7 +12692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="23">
         <v>281</v>
       </c>
@@ -12706,7 +12726,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="23">
         <v>282</v>
       </c>
@@ -12740,7 +12760,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="23">
         <v>283</v>
       </c>
@@ -12774,7 +12794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="23">
         <v>288</v>
       </c>
@@ -12794,13 +12814,13 @@
         <v>45014</v>
       </c>
       <c r="G122" s="27" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="H122" s="27" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="I122" s="27" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="J122" s="28" t="s">
         <v>488</v>
@@ -12844,10 +12864,10 @@
         <v>45014</v>
       </c>
       <c r="G123" s="27" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="H123" s="27" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="I123" s="27" t="s">
         <v>860</v>
@@ -12863,13 +12883,13 @@
         <v>488</v>
       </c>
       <c r="N123" s="28" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="O123" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P123" s="28" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="Q123" s="28" t="s">
         <v>826</v>
@@ -12900,10 +12920,10 @@
         <v>45014</v>
       </c>
       <c r="G124" s="27" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H124" s="27" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="I124" s="27" t="s">
         <v>860</v>
@@ -12919,13 +12939,13 @@
         <v>488</v>
       </c>
       <c r="N124" s="28" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="O124" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P124" s="28" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="Q124" s="28" t="s">
         <v>826</v>
@@ -12936,7 +12956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="23">
         <v>295</v>
       </c>
@@ -12956,13 +12976,13 @@
         <v>45014</v>
       </c>
       <c r="G125" s="27" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="H125" s="27" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I125" s="27" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="J125" s="28" t="s">
         <v>488</v>
@@ -12978,7 +12998,9 @@
       <c r="O125" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="P125" s="28"/>
+      <c r="P125" s="28" t="s">
+        <v>1108</v>
+      </c>
       <c r="Q125" s="28" t="s">
         <v>826</v>
       </c>
@@ -13008,10 +13030,10 @@
         <v>45014</v>
       </c>
       <c r="G126" s="27" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="H126" s="27" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="I126" s="27" t="s">
         <v>860</v>
@@ -13027,13 +13049,13 @@
         <v>488</v>
       </c>
       <c r="N126" s="28" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="O126" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P126" s="28" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="Q126" s="28" t="s">
         <v>826</v>
@@ -13044,7 +13066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="23">
         <v>297</v>
       </c>
@@ -13064,13 +13086,13 @@
         <v>45014</v>
       </c>
       <c r="G127" s="27" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="I127" s="27" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="J127" s="28" t="s">
         <v>488</v>
@@ -13082,11 +13104,15 @@
       <c r="M127" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="N127" s="28"/>
+      <c r="N127" s="28" t="s">
+        <v>1109</v>
+      </c>
       <c r="O127" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="P127" s="28"/>
+      <c r="P127" s="28" t="s">
+        <v>1110</v>
+      </c>
       <c r="Q127" s="28" t="s">
         <v>826</v>
       </c>
@@ -13096,7 +13122,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="23">
         <v>298</v>
       </c>
@@ -13116,13 +13142,13 @@
         <v>45014</v>
       </c>
       <c r="G128" s="27" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="H128" s="27" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="I128" s="27" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="J128" s="28" t="s">
         <v>488</v>
@@ -13134,10 +13160,15 @@
       <c r="M128" s="28" t="s">
         <v>828</v>
       </c>
+      <c r="N128" s="56" t="s">
+        <v>1111</v>
+      </c>
       <c r="O128" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="P128" s="28"/>
+      <c r="P128" s="28" t="s">
+        <v>1083</v>
+      </c>
       <c r="Q128" s="28" t="s">
         <v>826</v>
       </c>
@@ -13147,7 +13178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="23">
         <v>299</v>
       </c>
@@ -13167,13 +13198,13 @@
         <v>45014</v>
       </c>
       <c r="G129" s="27" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="I129" s="27" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="J129" s="28" t="s">
         <v>488</v>
@@ -13185,11 +13216,15 @@
       <c r="M129" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="N129" s="28"/>
+      <c r="N129" s="28" t="s">
+        <v>1111</v>
+      </c>
       <c r="O129" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="P129" s="28"/>
+      <c r="P129" s="28" t="s">
+        <v>1083</v>
+      </c>
       <c r="Q129" s="28" t="s">
         <v>826</v>
       </c>
@@ -13199,7 +13234,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="23">
         <v>304</v>
       </c>
@@ -13233,7 +13268,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="23">
         <v>309</v>
       </c>
@@ -13267,7 +13302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="23">
         <v>310</v>
       </c>
@@ -13301,7 +13336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="23">
         <v>311</v>
       </c>
@@ -13335,7 +13370,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="23">
         <v>312</v>
       </c>
@@ -13369,7 +13404,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="23">
         <v>313</v>
       </c>
@@ -13403,7 +13438,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="23">
         <v>314</v>
       </c>
@@ -13437,7 +13472,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="23">
         <v>315</v>
       </c>
@@ -13471,7 +13506,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="23">
         <v>320</v>
       </c>
@@ -13505,7 +13540,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="23">
         <v>321</v>
       </c>
@@ -13539,7 +13574,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="23">
         <v>324</v>
       </c>
@@ -13573,7 +13608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="23">
         <v>325</v>
       </c>
@@ -13607,7 +13642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="23">
         <v>84</v>
       </c>
@@ -13652,7 +13687,7 @@
         <v>488</v>
       </c>
       <c r="P142" s="28" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="Q142" s="32" t="s">
         <v>826</v>
@@ -13663,7 +13698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="23">
         <v>85</v>
       </c>
@@ -13708,7 +13743,7 @@
         <v>488</v>
       </c>
       <c r="P143" s="28" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="Q143" s="32" t="s">
         <v>826</v>
@@ -13719,7 +13754,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="23">
         <v>332</v>
       </c>
@@ -13753,7 +13788,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="23">
         <v>333</v>
       </c>
@@ -13787,7 +13822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="23">
         <v>336</v>
       </c>
@@ -13821,7 +13856,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="23">
         <v>337</v>
       </c>
@@ -13855,7 +13890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="23">
         <v>340</v>
       </c>
@@ -13889,7 +13924,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="23">
         <v>341</v>
       </c>
@@ -13943,10 +13978,10 @@
         <v>45014</v>
       </c>
       <c r="G150" s="27" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="H150" s="27" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="I150" s="27" t="s">
         <v>860</v>
@@ -13962,13 +13997,13 @@
         <v>488</v>
       </c>
       <c r="N150" s="28" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="O150" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P150" s="28" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="Q150" s="28" t="s">
         <v>826</v>
@@ -13999,10 +14034,10 @@
         <v>45014</v>
       </c>
       <c r="G151" s="27" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="I151" s="27" t="s">
         <v>860</v>
@@ -14018,13 +14053,13 @@
         <v>488</v>
       </c>
       <c r="N151" s="28" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="O151" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P151" s="28" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="Q151" s="28" t="s">
         <v>826</v>
@@ -14035,7 +14070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="23">
         <v>348</v>
       </c>
@@ -14069,7 +14104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="23">
         <v>349</v>
       </c>
@@ -14103,7 +14138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="23">
         <v>193</v>
       </c>
@@ -14137,7 +14172,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:20" ht="276" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="23">
         <v>206</v>
       </c>
@@ -14171,7 +14206,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="23">
         <v>209</v>
       </c>
@@ -14205,7 +14240,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="23">
         <v>222</v>
       </c>
@@ -14239,7 +14274,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="23">
         <v>86</v>
       </c>
@@ -14277,7 +14312,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="23">
         <v>87</v>
       </c>
@@ -14315,7 +14350,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="290.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:20" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="23">
         <v>241</v>
       </c>
@@ -14349,7 +14384,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:20" ht="276" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="23">
         <v>254</v>
       </c>
@@ -14383,7 +14418,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="290.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:20" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="23">
         <v>257</v>
       </c>
@@ -14417,7 +14452,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:20" ht="276" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="23">
         <v>270</v>
       </c>
@@ -14451,7 +14486,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="23">
         <v>273</v>
       </c>
@@ -14485,7 +14520,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="23">
         <v>286</v>
       </c>
@@ -14519,7 +14554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="23">
         <v>289</v>
       </c>
@@ -14539,13 +14574,13 @@
         <v>45014</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="H166" s="27" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="I166" s="27" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="J166" s="28" t="s">
         <v>488</v>
@@ -14565,13 +14600,13 @@
       </c>
       <c r="R166" s="29"/>
       <c r="S166" s="30" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="T166" s="31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="23">
         <v>302</v>
       </c>
@@ -14591,13 +14626,13 @@
         <v>45014</v>
       </c>
       <c r="G167" s="27" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="H167" s="27" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="I167" s="27" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="J167" s="28" t="s">
         <v>488</v>
@@ -14609,21 +14644,27 @@
       <c r="M167" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="N167" s="28"/>
-      <c r="O167" s="28"/>
-      <c r="P167" s="28"/>
+      <c r="N167" s="28" t="s">
+        <v>1113</v>
+      </c>
+      <c r="O167" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="P167" s="28" t="s">
+        <v>1113</v>
+      </c>
       <c r="Q167" s="28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="R167" s="29"/>
       <c r="S167" s="30" t="s">
-        <v>1046</v>
+        <v>1112</v>
       </c>
       <c r="T167" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="23">
         <v>305</v>
       </c>
@@ -14657,7 +14698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="23">
         <v>318</v>
       </c>
@@ -14691,7 +14732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="23">
         <v>322</v>
       </c>
@@ -14725,7 +14766,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="23">
         <v>323</v>
       </c>
@@ -14759,7 +14800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="23">
         <v>326</v>
       </c>
@@ -14793,7 +14834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="23">
         <v>327</v>
       </c>
@@ -14827,7 +14868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="23">
         <v>88</v>
       </c>
@@ -14865,7 +14906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="23">
         <v>89</v>
       </c>
@@ -14903,7 +14944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="23">
         <v>334</v>
       </c>
@@ -14937,7 +14978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="23">
         <v>335</v>
       </c>
@@ -14971,7 +15012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="23">
         <v>338</v>
       </c>
@@ -15005,7 +15046,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="23">
         <v>339</v>
       </c>
@@ -15039,7 +15080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="23">
         <v>342</v>
       </c>
@@ -15073,7 +15114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="23">
         <v>343</v>
       </c>
@@ -15127,10 +15168,10 @@
         <v>45014</v>
       </c>
       <c r="G182" s="27" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="H182" s="27" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="I182" s="27" t="s">
         <v>860</v>
@@ -15152,7 +15193,7 @@
         <v>488</v>
       </c>
       <c r="P182" s="28" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="Q182" s="28" t="s">
         <v>826</v>
@@ -15183,10 +15224,10 @@
         <v>45014</v>
       </c>
       <c r="G183" s="27" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="H183" s="27" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="I183" s="27" t="s">
         <v>860</v>
@@ -15202,26 +15243,26 @@
         <v>488</v>
       </c>
       <c r="N183" s="28" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="O183" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P183" s="28" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="Q183" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R183" s="29"/>
       <c r="S183" s="30" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="T183" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="23">
         <v>350</v>
       </c>
@@ -15255,7 +15296,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="23">
         <v>351</v>
       </c>
@@ -15289,7 +15330,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="23">
         <v>1</v>
       </c>
@@ -15323,7 +15364,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="23">
         <v>2</v>
       </c>
@@ -15357,7 +15398,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="23">
         <v>3</v>
       </c>
@@ -15391,7 +15432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="23">
         <v>4</v>
       </c>
@@ -15425,7 +15466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="23">
         <v>5</v>
       </c>
@@ -15459,7 +15500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="23">
         <v>6</v>
       </c>
@@ -15493,7 +15534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="23">
         <v>7</v>
       </c>
@@ -15527,7 +15568,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="23">
         <v>8</v>
       </c>
@@ -15561,7 +15602,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="23">
         <v>9</v>
       </c>
@@ -15595,7 +15636,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="23">
         <v>90</v>
       </c>
@@ -15633,7 +15674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="23">
         <v>91</v>
       </c>
@@ -15671,7 +15712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="23">
         <v>92</v>
       </c>
@@ -15716,7 +15757,7 @@
         <v>488</v>
       </c>
       <c r="P197" s="28" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="Q197" s="28" t="s">
         <v>826</v>
@@ -15727,7 +15768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="23">
         <v>93</v>
       </c>
@@ -15772,7 +15813,7 @@
         <v>488</v>
       </c>
       <c r="P198" s="28" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="Q198" s="28" t="s">
         <v>826</v>
@@ -15783,7 +15824,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="23">
         <v>16</v>
       </c>
@@ -15817,7 +15858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="23">
         <v>17</v>
       </c>
@@ -15851,7 +15892,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="23">
         <v>18</v>
       </c>
@@ -15885,7 +15926,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="23">
         <v>19</v>
       </c>
@@ -15919,7 +15960,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="23">
         <v>20</v>
       </c>
@@ -15953,7 +15994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="23">
         <v>21</v>
       </c>
@@ -15987,7 +16028,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="23">
         <v>22</v>
       </c>
@@ -16021,7 +16062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="23">
         <v>23</v>
       </c>
@@ -16055,7 +16096,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="23">
         <v>24</v>
       </c>
@@ -16089,7 +16130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="23">
         <v>25</v>
       </c>
@@ -16123,7 +16164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="23">
         <v>26</v>
       </c>
@@ -16157,7 +16198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="23">
         <v>27</v>
       </c>
@@ -16191,7 +16232,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="23">
         <v>28</v>
       </c>
@@ -16225,7 +16266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="23">
         <v>29</v>
       </c>
@@ -16259,7 +16300,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="23">
         <v>30</v>
       </c>
@@ -16293,7 +16334,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="23">
         <v>224</v>
       </c>
@@ -16363,10 +16404,10 @@
         <v>45015</v>
       </c>
       <c r="G215" s="27" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="H215" s="27" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="I215" s="27" t="s">
         <v>860</v>
@@ -16382,7 +16423,7 @@
         <v>488</v>
       </c>
       <c r="N215" s="26" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="O215" s="28"/>
       <c r="P215" s="28"/>
@@ -16395,7 +16436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="23">
         <v>33</v>
       </c>
@@ -16429,7 +16470,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="23">
         <v>34</v>
       </c>
@@ -16463,7 +16504,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="23">
         <v>35</v>
       </c>
@@ -16497,7 +16538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="23">
         <v>36</v>
       </c>
@@ -16531,7 +16572,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="23">
         <v>37</v>
       </c>
@@ -16565,7 +16606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="23">
         <v>38</v>
       </c>
@@ -16599,7 +16640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="23">
         <v>225</v>
       </c>
@@ -16669,10 +16710,10 @@
         <v>45015</v>
       </c>
       <c r="G223" s="27" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="H223" s="27" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="I223" s="27" t="s">
         <v>860</v>
@@ -16688,7 +16729,7 @@
         <v>488</v>
       </c>
       <c r="N223" s="28" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="O223" s="28"/>
       <c r="P223" s="28"/>
@@ -16701,7 +16742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="23">
         <v>41</v>
       </c>
@@ -16735,7 +16776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="23">
         <v>42</v>
       </c>
@@ -16769,7 +16810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="23">
         <v>43</v>
       </c>
@@ -16803,7 +16844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="23">
         <v>44</v>
       </c>
@@ -16839,7 +16880,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="23">
         <v>45</v>
       </c>
@@ -16875,7 +16916,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="23">
         <v>46</v>
       </c>
@@ -16911,7 +16952,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="23">
         <v>226</v>
       </c>
@@ -16931,13 +16972,13 @@
         <v>45022</v>
       </c>
       <c r="G230" s="27" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="H230" s="34" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="I230" s="34" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="J230" s="28" t="s">
         <v>488</v>
@@ -16960,7 +17001,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="231" spans="1:20" s="21" customFormat="1" ht="58.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:20" s="21" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="23">
         <v>48</v>
       </c>
@@ -16989,7 +17030,7 @@
       <c r="N231" s="28"/>
       <c r="O231" s="28"/>
       <c r="P231" s="28" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="Q231" s="28" t="s">
         <v>826</v>
@@ -17000,7 +17041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="23">
         <v>49</v>
       </c>
@@ -17036,7 +17077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="23">
         <v>50</v>
       </c>
@@ -17072,7 +17113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="23">
         <v>51</v>
       </c>
@@ -17108,7 +17149,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="23">
         <v>52</v>
       </c>
@@ -17142,7 +17183,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="23">
         <v>53</v>
       </c>
@@ -17176,7 +17217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="23">
         <v>54</v>
       </c>
@@ -17210,7 +17251,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="23">
         <v>55</v>
       </c>
@@ -17244,7 +17285,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="23">
         <v>56</v>
       </c>
@@ -17278,7 +17319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="23">
         <v>57</v>
       </c>
@@ -17312,7 +17353,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="23">
         <v>58</v>
       </c>
@@ -17346,7 +17387,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="23">
         <v>59</v>
       </c>
@@ -17380,7 +17421,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="23">
         <v>60</v>
       </c>
@@ -17414,7 +17455,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="23">
         <v>61</v>
       </c>
@@ -17448,7 +17489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="23">
         <v>62</v>
       </c>
@@ -17482,7 +17523,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="23">
         <v>63</v>
       </c>
@@ -17516,7 +17557,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="23">
         <v>64</v>
       </c>
@@ -17550,7 +17591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="23">
         <v>65</v>
       </c>
@@ -17584,7 +17625,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="23">
         <v>66</v>
       </c>
@@ -17618,7 +17659,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="23">
         <v>67</v>
       </c>
@@ -17652,7 +17693,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="23">
         <v>68</v>
       </c>
@@ -17686,7 +17727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="23">
         <v>69</v>
       </c>
@@ -17720,7 +17761,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="23">
         <v>70</v>
       </c>
@@ -17754,7 +17795,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="23">
         <v>71</v>
       </c>
@@ -17788,7 +17829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="23">
         <v>72</v>
       </c>
@@ -17822,7 +17863,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="23">
         <v>73</v>
       </c>
@@ -17856,7 +17897,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="23">
         <v>74</v>
       </c>
@@ -17890,7 +17931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="23">
         <v>227</v>
       </c>
@@ -17940,7 +17981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="23">
         <v>228</v>
       </c>
@@ -18035,7 +18076,7 @@
         <v>488</v>
       </c>
       <c r="P260" s="28" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="Q260" s="28" t="s">
         <v>826</v>
@@ -18085,13 +18126,13 @@
         <v>488</v>
       </c>
       <c r="N261" s="28" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="O261" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P261" s="28" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="Q261" s="28" t="s">
         <v>826</v>
@@ -18102,7 +18143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="23">
         <v>231</v>
       </c>
@@ -18131,7 +18172,7 @@
         <v>918</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>828</v>
+        <v>488</v>
       </c>
       <c r="K262" s="28"/>
       <c r="L262" s="28" t="s">
@@ -18140,11 +18181,15 @@
       <c r="M262" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="N262" s="28"/>
+      <c r="N262" s="28" t="s">
+        <v>1113</v>
+      </c>
       <c r="O262" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="P262" s="28"/>
+      <c r="P262" s="28" t="s">
+        <v>1113</v>
+      </c>
       <c r="Q262" s="28" t="s">
         <v>826</v>
       </c>
@@ -18201,7 +18246,7 @@
         <v>488</v>
       </c>
       <c r="P263" s="28" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="Q263" s="28" t="s">
         <v>826</v>
@@ -18212,7 +18257,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="23">
         <v>233</v>
       </c>
@@ -18250,11 +18295,15 @@
       <c r="M264" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="N264" s="28"/>
+      <c r="N264" s="28" t="s">
+        <v>1113</v>
+      </c>
       <c r="O264" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="P264" s="28"/>
+      <c r="P264" s="28" t="s">
+        <v>1114</v>
+      </c>
       <c r="Q264" s="28" t="s">
         <v>826</v>
       </c>
@@ -18266,7 +18315,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="23">
         <v>234</v>
       </c>
@@ -18304,11 +18353,15 @@
       <c r="M265" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="N265" s="28"/>
+      <c r="N265" s="28" t="s">
+        <v>1113</v>
+      </c>
       <c r="O265" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="P265" s="28"/>
+      <c r="P265" s="28" t="s">
+        <v>1114</v>
+      </c>
       <c r="Q265" s="28" t="s">
         <v>826</v>
       </c>
@@ -18320,7 +18373,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266" s="23">
         <v>235</v>
       </c>
@@ -18358,11 +18411,15 @@
       <c r="M266" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="N266" s="28"/>
+      <c r="N266" s="28" t="s">
+        <v>1113</v>
+      </c>
       <c r="O266" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="P266" s="28"/>
+      <c r="P266" s="28" t="s">
+        <v>1114</v>
+      </c>
       <c r="Q266" s="28" t="s">
         <v>826</v>
       </c>
@@ -18419,7 +18476,7 @@
         <v>488</v>
       </c>
       <c r="P267" s="28" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="Q267" s="28" t="s">
         <v>826</v>
@@ -18450,10 +18507,10 @@
         <v>45022</v>
       </c>
       <c r="G268" s="27" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="H268" s="34" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="I268" s="27" t="s">
         <v>860</v>
@@ -18475,7 +18532,7 @@
         <v>488</v>
       </c>
       <c r="P268" s="28" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="Q268" s="28" t="s">
         <v>826</v>
@@ -18488,7 +18545,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="23">
         <v>238</v>
       </c>
@@ -18526,11 +18583,17 @@
       <c r="M269" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="N269" s="28"/>
-      <c r="O269" s="28"/>
-      <c r="P269" s="28"/>
+      <c r="N269" s="28" t="s">
+        <v>1113</v>
+      </c>
+      <c r="O269" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="P269" s="28" t="s">
+        <v>1114</v>
+      </c>
       <c r="Q269" s="28" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="R269" s="29"/>
       <c r="S269" s="30" t="s">
@@ -18560,10 +18623,10 @@
         <v>45023</v>
       </c>
       <c r="G270" s="27" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="H270" s="34" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="I270" s="27" t="s">
         <v>860</v>
@@ -18585,7 +18648,7 @@
         <v>488</v>
       </c>
       <c r="P270" s="28" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="Q270" s="28" t="s">
         <v>826</v>
@@ -18641,7 +18704,7 @@
         <v>488</v>
       </c>
       <c r="P271" s="28" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="Q271" s="28" t="s">
         <v>826</v>
@@ -18672,10 +18735,10 @@
         <v>45023</v>
       </c>
       <c r="G272" s="27" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="H272" s="27" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="I272" s="27" t="s">
         <v>860</v>
@@ -18691,13 +18754,13 @@
         <v>488</v>
       </c>
       <c r="N272" s="28" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="O272" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P272" s="28" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q272" s="28" t="s">
         <v>826</v>
@@ -18728,10 +18791,10 @@
         <v>45027</v>
       </c>
       <c r="G273" s="27" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="H273" s="43" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="I273" s="27" t="s">
         <v>860</v>
@@ -18747,13 +18810,13 @@
         <v>488</v>
       </c>
       <c r="N273" s="28" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="O273" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P273" s="28" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="Q273" s="28" t="s">
         <v>826</v>
@@ -18764,7 +18827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="232" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="23">
         <v>331</v>
       </c>
@@ -18784,10 +18847,10 @@
         <v>45023</v>
       </c>
       <c r="G274" s="27" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="H274" s="27" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="I274" s="27" t="s">
         <v>860</v>
@@ -18803,13 +18866,13 @@
         <v>488</v>
       </c>
       <c r="N274" s="28" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="O274" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P274" s="28" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="Q274" s="28" t="s">
         <v>826</v>
@@ -18820,7 +18883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="174" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="23">
         <v>356</v>
       </c>
@@ -18837,13 +18900,17 @@
         <v>96</v>
       </c>
       <c r="F275" s="26">
-        <v>45013</v>
+        <v>45031</v>
       </c>
       <c r="G275" s="27" t="s">
-        <v>950</v>
-      </c>
-      <c r="H275" s="27"/>
-      <c r="I275" s="27"/>
+        <v>1115</v>
+      </c>
+      <c r="H275" s="27" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I275" s="27" t="s">
+        <v>860</v>
+      </c>
       <c r="J275" s="28" t="s">
         <v>488</v>
       </c>
@@ -18854,21 +18921,25 @@
       <c r="M275" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="N275" s="28"/>
-      <c r="O275" s="28"/>
-      <c r="P275" s="28"/>
+      <c r="N275" s="28" t="s">
+        <v>1116</v>
+      </c>
+      <c r="O275" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="P275" s="28" t="s">
+        <v>1093</v>
+      </c>
       <c r="Q275" s="28" t="s">
-        <v>827</v>
-      </c>
-      <c r="R275" s="29" t="s">
-        <v>951</v>
-      </c>
-      <c r="S275" s="30"/>
+        <v>826</v>
+      </c>
+      <c r="R275" s="29"/>
+      <c r="S275" s="29"/>
       <c r="T275" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="203" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" s="23">
         <v>357</v>
       </c>
@@ -18885,13 +18956,17 @@
         <v>98</v>
       </c>
       <c r="F276" s="26">
-        <v>45013</v>
+        <v>45031</v>
       </c>
       <c r="G276" s="27" t="s">
-        <v>952</v>
-      </c>
-      <c r="H276" s="27"/>
-      <c r="I276" s="27"/>
+        <v>1117</v>
+      </c>
+      <c r="H276" s="34" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I276" s="27" t="s">
+        <v>860</v>
+      </c>
       <c r="J276" s="28" t="s">
         <v>488</v>
       </c>
@@ -18902,21 +18977,25 @@
       <c r="M276" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="N276" s="28"/>
-      <c r="O276" s="28"/>
-      <c r="P276" s="28"/>
+      <c r="N276" s="28" t="s">
+        <v>1034</v>
+      </c>
+      <c r="O276" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="P276" s="28" t="s">
+        <v>1093</v>
+      </c>
       <c r="Q276" s="28" t="s">
-        <v>827</v>
-      </c>
-      <c r="R276" s="29" t="s">
-        <v>953</v>
-      </c>
+        <v>826</v>
+      </c>
+      <c r="R276" s="29"/>
       <c r="S276" s="30"/>
       <c r="T276" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277" s="23">
         <v>94</v>
       </c>
@@ -18950,7 +19029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278" s="23">
         <v>95</v>
       </c>
@@ -18984,7 +19063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279" s="23">
         <v>96</v>
       </c>
@@ -19018,7 +19097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280" s="23">
         <v>97</v>
       </c>
@@ -19052,7 +19131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="23">
         <v>98</v>
       </c>
@@ -19086,7 +19165,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" s="23">
         <v>99</v>
       </c>
@@ -19120,7 +19199,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="23">
         <v>100</v>
       </c>
@@ -19154,7 +19233,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="23">
         <v>101</v>
       </c>
@@ -19188,7 +19267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285" s="23">
         <v>102</v>
       </c>
@@ -19222,7 +19301,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286" s="23">
         <v>103</v>
       </c>
@@ -19256,7 +19335,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287" s="23">
         <v>104</v>
       </c>
@@ -19290,7 +19369,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" s="23">
         <v>105</v>
       </c>
@@ -19324,7 +19403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289" s="23">
         <v>106</v>
       </c>
@@ -19358,7 +19437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290" s="23">
         <v>107</v>
       </c>
@@ -19392,7 +19471,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A291" s="23">
         <v>108</v>
       </c>
@@ -19426,7 +19505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" s="23">
         <v>109</v>
       </c>
@@ -19460,7 +19539,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A293" s="23">
         <v>110</v>
       </c>
@@ -19494,7 +19573,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A294" s="23">
         <v>111</v>
       </c>
@@ -19528,7 +19607,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A295" s="23">
         <v>112</v>
       </c>
@@ -19562,7 +19641,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A296" s="23">
         <v>113</v>
       </c>
@@ -19596,7 +19675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" s="23">
         <v>114</v>
       </c>
@@ -19630,7 +19709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A298" s="23">
         <v>115</v>
       </c>
@@ -19664,7 +19743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A299" s="23">
         <v>116</v>
       </c>
@@ -19698,7 +19777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A300" s="23">
         <v>117</v>
       </c>
@@ -19732,7 +19811,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301" s="23">
         <v>118</v>
       </c>
@@ -19766,7 +19845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="23">
         <v>119</v>
       </c>
@@ -19800,7 +19879,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A303" s="23">
         <v>120</v>
       </c>
@@ -19834,7 +19913,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A304" s="23">
         <v>121</v>
       </c>
@@ -19868,7 +19947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A305" s="23">
         <v>122</v>
       </c>
@@ -19902,7 +19981,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="23">
         <v>123</v>
       </c>
@@ -19936,7 +20015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" s="23">
         <v>124</v>
       </c>
@@ -19970,7 +20049,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A308" s="23">
         <v>125</v>
       </c>
@@ -20004,7 +20083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A309" s="23">
         <v>126</v>
       </c>
@@ -20038,7 +20117,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="23">
         <v>127</v>
       </c>
@@ -20072,7 +20151,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="23">
         <v>128</v>
       </c>
@@ -20106,7 +20185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A312" s="23">
         <v>129</v>
       </c>
@@ -20140,7 +20219,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" s="23">
         <v>130</v>
       </c>
@@ -20174,7 +20253,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A314" s="23">
         <v>131</v>
       </c>
@@ -20208,7 +20287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A315" s="23">
         <v>132</v>
       </c>
@@ -20242,7 +20321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A316" s="23">
         <v>133</v>
       </c>
@@ -20276,7 +20355,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A317" s="23">
         <v>134</v>
       </c>
@@ -20310,7 +20389,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A318" s="23">
         <v>135</v>
       </c>
@@ -20344,7 +20423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A319" s="23">
         <v>136</v>
       </c>
@@ -20378,7 +20457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A320" s="23">
         <v>137</v>
       </c>
@@ -20412,7 +20491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" s="23">
         <v>138</v>
       </c>
@@ -20446,7 +20525,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A322" s="23">
         <v>139</v>
       </c>
@@ -20480,7 +20559,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A323" s="23">
         <v>140</v>
       </c>
@@ -20514,7 +20593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A324" s="23">
         <v>141</v>
       </c>
@@ -20548,7 +20627,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A325" s="23">
         <v>142</v>
       </c>
@@ -20582,7 +20661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A326" s="23">
         <v>143</v>
       </c>
@@ -20616,7 +20695,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A327" s="23">
         <v>144</v>
       </c>
@@ -20650,7 +20729,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A328" s="23">
         <v>145</v>
       </c>
@@ -20684,7 +20763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A329" s="23">
         <v>146</v>
       </c>
@@ -20718,7 +20797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="330" spans="1:20" s="21" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:20" s="21" customFormat="1" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A330" s="23">
         <v>147</v>
       </c>
@@ -20738,13 +20817,13 @@
         <v>45013</v>
       </c>
       <c r="G330" s="27" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="H330" s="27" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="I330" s="27" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="J330" s="28" t="s">
         <v>488</v>
@@ -20764,7 +20843,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="331" spans="1:20" s="22" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:20" s="22" customFormat="1" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A331" s="23">
         <v>148</v>
       </c>
@@ -20788,7 +20867,7 @@
         <v>828</v>
       </c>
       <c r="K331" s="28" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="L331" s="28"/>
       <c r="M331" s="28"/>
@@ -20802,7 +20881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="332" spans="1:20" s="22" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:20" s="22" customFormat="1" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A332" s="23">
         <v>149</v>
       </c>
@@ -20826,7 +20905,7 @@
         <v>828</v>
       </c>
       <c r="K332" s="28" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="L332" s="28"/>
       <c r="M332" s="28"/>
@@ -20840,7 +20919,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="333" spans="1:20" s="22" customFormat="1" ht="159.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:20" s="22" customFormat="1" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A333" s="23">
         <v>150</v>
       </c>
@@ -20864,7 +20943,7 @@
         <v>828</v>
       </c>
       <c r="K333" s="28" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="L333" s="28"/>
       <c r="M333" s="28"/>
@@ -20878,7 +20957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="334" spans="1:20" s="21" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:20" s="21" customFormat="1" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A334" s="23">
         <v>151</v>
       </c>
@@ -20898,13 +20977,13 @@
         <v>45013</v>
       </c>
       <c r="G334" s="27" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="H334" s="37" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="I334" s="27" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="J334" s="28" t="s">
         <v>488</v>
@@ -20917,13 +20996,13 @@
         <v>488</v>
       </c>
       <c r="N334" s="28" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="O334" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P334" s="28" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q334" s="28" t="s">
         <v>826</v>
@@ -20934,7 +21013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="335" spans="1:20" s="21" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A335" s="23">
         <v>152</v>
       </c>
@@ -20954,13 +21033,13 @@
         <v>45013</v>
       </c>
       <c r="G335" s="27" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="H335" s="27" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="I335" s="27" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="J335" s="28" t="s">
         <v>488</v>
@@ -20973,13 +21052,13 @@
         <v>488</v>
       </c>
       <c r="N335" s="28" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="O335" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P335" s="28" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q335" s="28" t="s">
         <v>826</v>
@@ -20990,7 +21069,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="336" spans="1:20" s="21" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A336" s="23">
         <v>153</v>
       </c>
@@ -21010,13 +21089,13 @@
         <v>45013</v>
       </c>
       <c r="G336" s="27" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="H336" s="27" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="I336" s="27" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="J336" s="28" t="s">
         <v>488</v>
@@ -21029,13 +21108,13 @@
         <v>488</v>
       </c>
       <c r="N336" s="28" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="O336" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P336" s="28" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q336" s="28" t="s">
         <v>826</v>
@@ -21046,7 +21125,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="337" spans="1:20" s="21" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A337" s="23">
         <v>154</v>
       </c>
@@ -21066,13 +21145,13 @@
         <v>45013</v>
       </c>
       <c r="G337" s="27" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="H337" s="27" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="I337" s="27" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="J337" s="28" t="s">
         <v>488</v>
@@ -21085,13 +21164,13 @@
         <v>488</v>
       </c>
       <c r="N337" s="28" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="O337" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P337" s="28" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q337" s="28" t="s">
         <v>826</v>
@@ -21102,7 +21181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="338" spans="1:20" s="21" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A338" s="23">
         <v>155</v>
       </c>
@@ -21122,13 +21201,13 @@
         <v>45013</v>
       </c>
       <c r="G338" s="27" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="H338" s="27" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="I338" s="27" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="J338" s="28" t="s">
         <v>488</v>
@@ -21141,13 +21220,13 @@
         <v>488</v>
       </c>
       <c r="N338" s="28" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="O338" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P338" s="28" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q338" s="28" t="s">
         <v>826</v>
@@ -21158,7 +21237,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="339" spans="1:20" s="21" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A339" s="23">
         <v>156</v>
       </c>
@@ -21178,13 +21257,13 @@
         <v>45013</v>
       </c>
       <c r="G339" s="27" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="H339" s="27" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="I339" s="27" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="J339" s="28" t="s">
         <v>488</v>
@@ -21197,13 +21276,13 @@
         <v>488</v>
       </c>
       <c r="N339" s="28" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="O339" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P339" s="28" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q339" s="28" t="s">
         <v>826</v>
@@ -21214,7 +21293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="340" spans="1:20" s="22" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:20" s="22" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A340" s="23">
         <v>157</v>
       </c>
@@ -21252,7 +21331,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="341" spans="1:20" s="21" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A341" s="23">
         <v>158</v>
       </c>
@@ -21272,13 +21351,13 @@
         <v>45014</v>
       </c>
       <c r="G341" s="27" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="H341" s="27" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="I341" s="27" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="J341" s="28" t="s">
         <v>488</v>
@@ -21291,13 +21370,13 @@
         <v>488</v>
       </c>
       <c r="N341" s="28" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="O341" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P341" s="28" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q341" s="28" t="s">
         <v>826</v>
@@ -21308,7 +21387,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="342" spans="1:20" s="21" customFormat="1" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:20" s="21" customFormat="1" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A342" s="23">
         <v>159</v>
       </c>
@@ -21328,13 +21407,13 @@
         <v>45014</v>
       </c>
       <c r="G342" s="27" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="H342" s="27" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="I342" s="27" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="J342" s="28" t="s">
         <v>488</v>
@@ -21347,13 +21426,13 @@
         <v>488</v>
       </c>
       <c r="N342" s="28" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="O342" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P342" s="28" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q342" s="28" t="s">
         <v>826</v>
@@ -21364,7 +21443,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="343" spans="1:20" s="21" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="23">
         <v>160</v>
       </c>
@@ -21384,13 +21463,13 @@
         <v>45014</v>
       </c>
       <c r="G343" s="27" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="H343" s="27" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I343" s="27" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="J343" s="28" t="s">
         <v>488</v>
@@ -21403,13 +21482,13 @@
         <v>488</v>
       </c>
       <c r="N343" s="28" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="O343" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P343" s="28" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q343" s="28" t="s">
         <v>826</v>
@@ -21420,7 +21499,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="344" spans="1:20" s="21" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A344" s="23">
         <v>161</v>
       </c>
@@ -21440,13 +21519,13 @@
         <v>45014</v>
       </c>
       <c r="G344" s="27" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="H344" s="27" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="I344" s="27" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="J344" s="28" t="s">
         <v>488</v>
@@ -21459,13 +21538,13 @@
         <v>488</v>
       </c>
       <c r="N344" s="28" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="O344" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P344" s="28" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q344" s="28" t="s">
         <v>826</v>
@@ -21476,7 +21555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="345" spans="1:20" s="21" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A345" s="23">
         <v>162</v>
       </c>
@@ -21496,13 +21575,13 @@
         <v>45014</v>
       </c>
       <c r="G345" s="27" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="H345" s="27" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="I345" s="27" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="J345" s="28" t="s">
         <v>488</v>
@@ -21515,13 +21594,13 @@
         <v>488</v>
       </c>
       <c r="N345" s="28" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="O345" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P345" s="28" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q345" s="28" t="s">
         <v>826</v>
@@ -21532,7 +21611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="346" spans="1:20" s="22" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:20" s="22" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A346" s="23">
         <v>163</v>
       </c>
@@ -21556,7 +21635,7 @@
         <v>828</v>
       </c>
       <c r="K346" s="28" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="L346" s="28"/>
       <c r="M346" s="28"/>
@@ -21570,7 +21649,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="347" spans="1:20" s="22" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:20" s="22" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A347" s="23">
         <v>164</v>
       </c>
@@ -21608,7 +21687,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="348" spans="1:20" s="22" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:20" s="22" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A348" s="23">
         <v>165</v>
       </c>
@@ -21646,7 +21725,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="349" spans="1:20" s="22" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:20" s="22" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A349" s="23">
         <v>166</v>
       </c>
@@ -21684,7 +21763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="350" spans="1:20" s="22" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:20" s="22" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A350" s="23">
         <v>167</v>
       </c>
@@ -21722,7 +21801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="351" spans="1:20" s="21" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A351" s="23">
         <v>168</v>
       </c>
@@ -21742,13 +21821,13 @@
         <v>45014</v>
       </c>
       <c r="G351" s="27" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="H351" s="26" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="I351" s="26" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="J351" s="26" t="s">
         <v>488</v>
@@ -21761,13 +21840,13 @@
         <v>488</v>
       </c>
       <c r="N351" s="26" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="O351" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P351" s="28" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q351" s="28" t="s">
         <v>826</v>
@@ -21778,7 +21857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="352" spans="1:20" s="21" customFormat="1" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A352" s="23">
         <v>169</v>
       </c>
@@ -21798,13 +21877,13 @@
         <v>45014</v>
       </c>
       <c r="G352" s="26" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="H352" s="26" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="I352" s="26" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="J352" s="26" t="s">
         <v>488</v>
@@ -21817,13 +21896,13 @@
         <v>488</v>
       </c>
       <c r="N352" s="26" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="O352" s="26" t="s">
         <v>488</v>
       </c>
       <c r="P352" s="26" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q352" s="26" t="s">
         <v>826</v>
@@ -21834,7 +21913,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="353" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A353" s="23">
         <v>170</v>
       </c>
@@ -21868,7 +21947,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="354" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A354" s="23">
         <v>171</v>
       </c>
@@ -21902,7 +21981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A355" s="23">
         <v>172</v>
       </c>
@@ -21936,7 +22015,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A356" s="23">
         <v>173</v>
       </c>
@@ -21970,7 +22049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A357" s="23">
         <v>174</v>
       </c>
@@ -22004,7 +22083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A358" s="23">
         <v>175</v>
       </c>
@@ -22038,7 +22117,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A359" s="23">
         <v>176</v>
       </c>
@@ -22072,7 +22151,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A360" s="23">
         <v>177</v>
       </c>
@@ -22106,7 +22185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A361" s="23">
         <v>178</v>
       </c>
@@ -22140,7 +22219,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A362" s="23">
         <v>179</v>
       </c>
@@ -22174,7 +22253,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="363" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A363" s="23">
         <v>180</v>
       </c>
@@ -22208,7 +22287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="364" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A364" s="23">
         <v>181</v>
       </c>
@@ -22242,7 +22321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A365" s="23">
         <v>182</v>
       </c>
@@ -22276,7 +22355,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A366" s="23">
         <v>183</v>
       </c>
@@ -22310,7 +22389,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A367" s="23">
         <v>184</v>
       </c>
@@ -22344,7 +22423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A368" s="23">
         <v>185</v>
       </c>
@@ -22378,7 +22457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A369" s="23">
         <v>186</v>
       </c>
@@ -22412,7 +22491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A370" s="23">
         <v>187</v>
       </c>
@@ -22446,7 +22525,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="371" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A371" s="23">
         <v>188</v>
       </c>
@@ -22480,7 +22559,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A372" s="23">
         <v>189</v>
       </c>
@@ -22514,7 +22593,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A373" s="23">
         <v>190</v>
       </c>
@@ -22548,7 +22627,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:20" ht="145" x14ac:dyDescent="0.35">
       <c r="A374" s="23">
         <v>191</v>
       </c>
@@ -32179,13 +32258,7 @@
       <c r="T992" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T374" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="UNKNOWN_WORKFLOW_ID"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:T374" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.163\D_Drive\tmp\RepositoryFSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94A0D43-C5C1-46AE-8BBD-D81A049729BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C5867E-24B6-4838-8161-CAABE4E16D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="1117">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4789,9 +4789,6 @@
     <t>Errore 400:Il campo atti clinici XXX non è consentito</t>
   </si>
   <si>
-    <t>Errore 400: Request content not conform to API specification: Validation error(s) :\nbody.requestBody: Field 'identificativoRep' is required. (code: 1026)\nFrom: body.requestBody.&lt;#/components/schemas/PublicationUpdateReqDTO&gt;.&lt;required&gt;\n</t>
-  </si>
-  <si>
     <t>L'applicativo gestisce le sezioni opzionali: "QuestitoDiagnostico", "Conclusioni". L'applicativo non gestisce le seguenti sezioni opzionali: "Allergie", "Precedenti_Esami_Eseguiti",  "DICOM_Object_Catalog", "Informazioni_aggiuntive", "Complicanze","Storia Clinica"e "Suggerimenti_per_il_medico_prescrittore"</t>
   </si>
   <si>
@@ -4825,21 +4822,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.f294b3245b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-03-28T11:40:32Z</t>
-  </si>
-  <si>
-    <t>60f880b1552d070a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c005f76b6babf7ce30307ca05a4221726c471b516f8d9c172530efdbf799712c.0a31ebc09e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Il sistema restituisce 200 invece che KO</t>
-  </si>
-  <si>
-    <t>Il sistema restituisce un errore diverso da quello aspettato.</t>
-  </si>
-  <si>
     <t>2023-03-28T15:39:51Z</t>
   </si>
   <si>
@@ -5107,18 +5089,6 @@
     <t>Il sistema restituisce 200 invece che 201</t>
   </si>
   <si>
-    <t>2023-03-29T12:16:10Z</t>
-  </si>
-  <si>
-    <t>cf0e743fc46af7d9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.151b9dd94e95204e3af2cb6a73fbbbea9fd3d2ba7cf17d819f24c51fff52b41c.adeb89fc21^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-29T12:19:21Z</t>
-  </si>
-  <si>
     <t>Non invio ad FSE</t>
   </si>
   <si>
@@ -5185,15 +5155,6 @@
     <t>Aggiornamento non eseguito</t>
   </si>
   <si>
-    <t>2023-03-31T10:22:01Z</t>
-  </si>
-  <si>
-    <t>Errore 400: Request content not conform to API specification: Validation error(s) :\nbody: Field 'tipoDocumentoLivAlto' is required. (code: 1026)\nFrom: body.&lt;required&gt;\n</t>
-  </si>
-  <si>
-    <t>Il sistema si aspettava un KO, ma il caso di esempio così formattato( "dataInizioPrestazione": "2022-05-09-07:30+00") restituisce OK</t>
-  </si>
-  <si>
     <t>2023-03-31T10:32:24Z</t>
   </si>
   <si>
@@ -5230,9 +5191,6 @@
     <t>Il sistema non gestisce il campo "Storia Clinica","Accertamenti e controlli consigliati","Terapia Farmacologica Consigliata" nel referto</t>
   </si>
   <si>
-    <t>undefined</t>
-  </si>
-  <si>
     <t>2023-04-06T10:51:09Z</t>
   </si>
   <si>
@@ -5326,25 +5284,61 @@
     <t>Errore Generico</t>
   </si>
   <si>
-    <t>Il sistema restituisce 200 invece che 404. Aperta ISSUE</t>
-  </si>
-  <si>
     <t>Nessuno</t>
   </si>
   <si>
     <t>Nessuna</t>
   </si>
   <si>
-    <t>2023-04-15T09:25:38Z</t>
-  </si>
-  <si>
-    <t>Errore 400: Request content not conform to API specification: Validation error(s) :\nbody.tipoDocumentoLivAlto: Value '' is not defined in the schema. (code: 1006)\nFrom: body.tipoDocumentoLivAlto.&lt;enum&gt;\n</t>
-  </si>
-  <si>
     <t>2023-04-15T09:33:27Z</t>
   </si>
   <si>
     <t>9cda3531cff73d74</t>
+  </si>
+  <si>
+    <t>2023-04-17T11:57:38Z</t>
+  </si>
+  <si>
+    <t>c668c09b09231905</t>
+  </si>
+  <si>
+    <t>Errore 400</t>
+  </si>
+  <si>
+    <t>ed33207a8f57ed6d</t>
+  </si>
+  <si>
+    <t>2023-04-17T12:02:41Z</t>
+  </si>
+  <si>
+    <t>7c848b6e54f76587</t>
+  </si>
+  <si>
+    <t>2023-04-17T12:13:29Z</t>
+  </si>
+  <si>
+    <t>Errore 400: Il campo identificativo rep deve essere valorizzato</t>
+  </si>
+  <si>
+    <t>2023-04-19T12:19:29Z</t>
+  </si>
+  <si>
+    <t>0deb2f79b99fc5a6</t>
+  </si>
+  <si>
+    <t>Errore 404:Record non trovato.</t>
+  </si>
+  <si>
+    <t>2023-04-19T12:26:20Z</t>
+  </si>
+  <si>
+    <t>db3aabc6f5476b24</t>
+  </si>
+  <si>
+    <t>Errore 404: Record non trovato.</t>
+  </si>
+  <si>
+    <t>Mancato invio a FSE. Gestito in backoffice</t>
   </si>
 </sst>
 </file>
@@ -5832,6 +5826,9 @@
     <xf numFmtId="11" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5853,9 +5850,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8311,10 +8305,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I275" sqref="I275"/>
+    <sheetView tabSelected="1" topLeftCell="A346" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S268" sqref="S268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8353,14 +8348,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
         <v>829</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="48"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -8378,14 +8373,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="56" t="s">
         <v>830</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -8403,12 +8398,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56" t="s">
         <v>831</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -8427,12 +8422,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
         <v>832</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="48"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -8450,8 +8445,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -8568,7 +8563,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23">
         <v>194</v>
       </c>
@@ -8602,7 +8597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23">
         <v>205</v>
       </c>
@@ -8636,7 +8631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23">
         <v>210</v>
       </c>
@@ -8670,7 +8665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23">
         <v>221</v>
       </c>
@@ -8804,7 +8799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23">
         <v>242</v>
       </c>
@@ -8838,7 +8833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23">
         <v>253</v>
       </c>
@@ -8872,7 +8867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>258</v>
       </c>
@@ -8906,7 +8901,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23">
         <v>269</v>
       </c>
@@ -8940,7 +8935,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23">
         <v>274</v>
       </c>
@@ -8974,7 +8969,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23">
         <v>285</v>
       </c>
@@ -9028,13 +9023,13 @@
         <v>45016</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="J22" s="28" t="s">
         <v>488</v>
@@ -9078,10 +9073,10 @@
         <v>45016</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="I23" s="27" t="s">
         <v>860</v>
@@ -9103,7 +9098,7 @@
         <v>488</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="Q23" s="28" t="s">
         <v>826</v>
@@ -9114,7 +9109,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23">
         <v>306</v>
       </c>
@@ -9148,7 +9143,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="23">
         <v>317</v>
       </c>
@@ -9182,7 +9177,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="23">
         <v>352</v>
       </c>
@@ -9216,7 +9211,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="23">
         <v>353</v>
       </c>
@@ -9250,7 +9245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="23">
         <v>354</v>
       </c>
@@ -9284,7 +9279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="23">
         <v>355</v>
       </c>
@@ -9380,7 +9375,7 @@
         <v>828</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
@@ -9394,7 +9389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23">
         <v>358</v>
       </c>
@@ -9430,7 +9425,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="23">
         <v>359</v>
       </c>
@@ -9466,7 +9461,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="23">
         <v>360</v>
       </c>
@@ -9500,7 +9495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="23">
         <v>361</v>
       </c>
@@ -9534,7 +9529,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="23">
         <v>362</v>
       </c>
@@ -9568,7 +9563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="23">
         <v>363</v>
       </c>
@@ -9619,13 +9614,13 @@
         <v>112</v>
       </c>
       <c r="F38" s="26">
-        <v>45016</v>
+        <v>45033</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>1080</v>
+        <v>1106</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>1105</v>
       </c>
       <c r="I38" s="27" t="s">
         <v>860</v>
@@ -9641,13 +9636,13 @@
         <v>828</v>
       </c>
       <c r="N38" s="28" t="s">
-        <v>1066</v>
+        <v>1104</v>
       </c>
       <c r="O38" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P38" s="28" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="Q38" s="28" t="s">
         <v>826</v>
@@ -9678,10 +9673,10 @@
         <v>45022</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="I39" s="27" t="s">
         <v>860</v>
@@ -9697,26 +9692,24 @@
         <v>488</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="O39" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="Q39" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R39" s="29"/>
-      <c r="S39" s="30" t="s">
-        <v>1067</v>
-      </c>
+      <c r="S39" s="30"/>
       <c r="T39" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="23">
         <v>366</v>
       </c>
@@ -9750,7 +9743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="23">
         <v>367</v>
       </c>
@@ -9784,7 +9777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="23">
         <v>195</v>
       </c>
@@ -9818,7 +9811,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="23">
         <v>204</v>
       </c>
@@ -9852,7 +9845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="23">
         <v>211</v>
       </c>
@@ -9886,7 +9879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="23">
         <v>220</v>
       </c>
@@ -10024,7 +10017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="23">
         <v>243</v>
       </c>
@@ -10058,7 +10051,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="23">
         <v>252</v>
       </c>
@@ -10092,7 +10085,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="23">
         <v>259</v>
       </c>
@@ -10126,7 +10119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="23">
         <v>268</v>
       </c>
@@ -10160,7 +10153,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="23">
         <v>275</v>
       </c>
@@ -10194,7 +10187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="23">
         <v>284</v>
       </c>
@@ -10248,13 +10241,13 @@
         <v>45016</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="J54" s="28" t="s">
         <v>488</v>
@@ -10294,10 +10287,10 @@
         <v>45016</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="I55" s="27" t="s">
         <v>860</v>
@@ -10319,7 +10312,7 @@
         <v>488</v>
       </c>
       <c r="P55" s="28" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="Q55" s="28" t="s">
         <v>826</v>
@@ -10330,7 +10323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="23">
         <v>307</v>
       </c>
@@ -10364,7 +10357,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="23">
         <v>316</v>
       </c>
@@ -10398,7 +10391,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="23">
         <v>196</v>
       </c>
@@ -10432,7 +10425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="23">
         <v>207</v>
       </c>
@@ -10466,7 +10459,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="23">
         <v>212</v>
       </c>
@@ -10500,7 +10493,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="23">
         <v>223</v>
       </c>
@@ -10615,7 +10608,7 @@
         <v>488</v>
       </c>
       <c r="P63" s="28" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="Q63" s="32" t="s">
         <v>826</v>
@@ -10626,7 +10619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="23">
         <v>244</v>
       </c>
@@ -10660,7 +10653,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="23">
         <v>255</v>
       </c>
@@ -10694,7 +10687,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="23">
         <v>260</v>
       </c>
@@ -10728,7 +10721,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="23">
         <v>271</v>
       </c>
@@ -10762,7 +10755,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="23">
         <v>276</v>
       </c>
@@ -10796,7 +10789,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="23">
         <v>287</v>
       </c>
@@ -10850,13 +10843,13 @@
         <v>45016</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="H70" s="27" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="I70" s="27" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="J70" s="28" t="s">
         <v>488</v>
@@ -10900,10 +10893,10 @@
         <v>45016</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="I71" s="27" t="s">
         <v>860</v>
@@ -10925,7 +10918,7 @@
         <v>488</v>
       </c>
       <c r="P71" s="28" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="Q71" s="28" t="s">
         <v>826</v>
@@ -10936,7 +10929,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="23">
         <v>308</v>
       </c>
@@ -10970,7 +10963,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="23">
         <v>319</v>
       </c>
@@ -11004,7 +10997,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="23">
         <v>192</v>
       </c>
@@ -11038,7 +11031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="23">
         <v>197</v>
       </c>
@@ -11072,7 +11065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="23">
         <v>198</v>
       </c>
@@ -11106,7 +11099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="23">
         <v>199</v>
       </c>
@@ -11140,7 +11133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="23">
         <v>200</v>
       </c>
@@ -11174,7 +11167,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="23">
         <v>201</v>
       </c>
@@ -11208,7 +11201,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="23">
         <v>202</v>
       </c>
@@ -11242,7 +11235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="23">
         <v>203</v>
       </c>
@@ -11276,7 +11269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="23">
         <v>208</v>
       </c>
@@ -11310,7 +11303,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="23">
         <v>213</v>
       </c>
@@ -11344,7 +11337,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="23">
         <v>214</v>
       </c>
@@ -11378,7 +11371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="23">
         <v>215</v>
       </c>
@@ -11412,7 +11405,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="23">
         <v>216</v>
       </c>
@@ -11446,7 +11439,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="23">
         <v>217</v>
       </c>
@@ -11480,7 +11473,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="23">
         <v>218</v>
       </c>
@@ -11514,7 +11507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="23">
         <v>219</v>
       </c>
@@ -11593,7 +11586,7 @@
         <v>488</v>
       </c>
       <c r="P90" s="28" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="Q90" s="32" t="s">
         <v>826</v>
@@ -11649,7 +11642,7 @@
         <v>488</v>
       </c>
       <c r="P91" s="28" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="Q91" s="32" t="s">
         <v>826</v>
@@ -11705,7 +11698,7 @@
         <v>488</v>
       </c>
       <c r="P92" s="28" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="Q92" s="32" t="s">
         <v>826</v>
@@ -11761,7 +11754,7 @@
         <v>488</v>
       </c>
       <c r="P93" s="28" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="Q93" s="32" t="s">
         <v>826</v>
@@ -11817,7 +11810,7 @@
         <v>488</v>
       </c>
       <c r="P94" s="28" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="Q94" s="32" t="s">
         <v>826</v>
@@ -11911,7 +11904,7 @@
         <v>488</v>
       </c>
       <c r="P96" s="28" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="Q96" s="32" t="s">
         <v>826</v>
@@ -11967,7 +11960,7 @@
         <v>488</v>
       </c>
       <c r="P97" s="28" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="Q97" s="32" t="s">
         <v>826</v>
@@ -11978,7 +11971,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="23">
         <v>240</v>
       </c>
@@ -12012,7 +12005,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="23">
         <v>245</v>
       </c>
@@ -12046,7 +12039,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="23">
         <v>246</v>
       </c>
@@ -12080,7 +12073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="23">
         <v>247</v>
       </c>
@@ -12114,7 +12107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="23">
         <v>248</v>
       </c>
@@ -12148,7 +12141,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="23">
         <v>249</v>
       </c>
@@ -12182,7 +12175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="23">
         <v>250</v>
       </c>
@@ -12216,7 +12209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="23">
         <v>251</v>
       </c>
@@ -12250,7 +12243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="23">
         <v>256</v>
       </c>
@@ -12284,7 +12277,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="23">
         <v>261</v>
       </c>
@@ -12318,7 +12311,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="23">
         <v>262</v>
       </c>
@@ -12352,7 +12345,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="23">
         <v>263</v>
       </c>
@@ -12386,7 +12379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="23">
         <v>264</v>
       </c>
@@ -12420,7 +12413,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="23">
         <v>265</v>
       </c>
@@ -12454,7 +12447,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="23">
         <v>266</v>
       </c>
@@ -12488,7 +12481,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="23">
         <v>267</v>
       </c>
@@ -12522,7 +12515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="23">
         <v>272</v>
       </c>
@@ -12556,7 +12549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="23">
         <v>277</v>
       </c>
@@ -12590,7 +12583,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="23">
         <v>278</v>
       </c>
@@ -12624,7 +12617,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="23">
         <v>279</v>
       </c>
@@ -12658,7 +12651,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="23">
         <v>280</v>
       </c>
@@ -12692,7 +12685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="23">
         <v>281</v>
       </c>
@@ -12726,7 +12719,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="23">
         <v>282</v>
       </c>
@@ -12760,7 +12753,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="23">
         <v>283</v>
       </c>
@@ -12814,13 +12807,13 @@
         <v>45014</v>
       </c>
       <c r="G122" s="27" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="H122" s="27" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="I122" s="27" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="J122" s="28" t="s">
         <v>488</v>
@@ -12864,10 +12857,10 @@
         <v>45014</v>
       </c>
       <c r="G123" s="27" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="H123" s="27" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="I123" s="27" t="s">
         <v>860</v>
@@ -12883,13 +12876,13 @@
         <v>488</v>
       </c>
       <c r="N123" s="28" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="O123" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P123" s="28" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="Q123" s="28" t="s">
         <v>826</v>
@@ -12920,10 +12913,10 @@
         <v>45014</v>
       </c>
       <c r="G124" s="27" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="H124" s="27" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="I124" s="27" t="s">
         <v>860</v>
@@ -12939,13 +12932,13 @@
         <v>488</v>
       </c>
       <c r="N124" s="28" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="O124" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P124" s="28" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="Q124" s="28" t="s">
         <v>826</v>
@@ -12976,13 +12969,13 @@
         <v>45014</v>
       </c>
       <c r="G125" s="27" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="H125" s="27" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="I125" s="27" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="J125" s="28" t="s">
         <v>488</v>
@@ -12999,7 +12992,7 @@
         <v>828</v>
       </c>
       <c r="P125" s="28" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="Q125" s="28" t="s">
         <v>826</v>
@@ -13030,10 +13023,10 @@
         <v>45014</v>
       </c>
       <c r="G126" s="27" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="H126" s="27" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="I126" s="27" t="s">
         <v>860</v>
@@ -13049,13 +13042,13 @@
         <v>488</v>
       </c>
       <c r="N126" s="28" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="O126" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P126" s="28" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="Q126" s="28" t="s">
         <v>826</v>
@@ -13086,13 +13079,13 @@
         <v>45014</v>
       </c>
       <c r="G127" s="27" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="I127" s="27" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="J127" s="28" t="s">
         <v>488</v>
@@ -13105,13 +13098,13 @@
         <v>828</v>
       </c>
       <c r="N127" s="28" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="O127" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P127" s="28" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="Q127" s="28" t="s">
         <v>826</v>
@@ -13142,13 +13135,13 @@
         <v>45014</v>
       </c>
       <c r="G128" s="27" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="H128" s="27" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="I128" s="27" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="J128" s="28" t="s">
         <v>488</v>
@@ -13160,14 +13153,14 @@
       <c r="M128" s="28" t="s">
         <v>828</v>
       </c>
-      <c r="N128" s="56" t="s">
-        <v>1111</v>
+      <c r="N128" s="44" t="s">
+        <v>1097</v>
       </c>
       <c r="O128" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P128" s="28" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="Q128" s="28" t="s">
         <v>826</v>
@@ -13198,13 +13191,13 @@
         <v>45014</v>
       </c>
       <c r="G129" s="27" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="I129" s="27" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="J129" s="28" t="s">
         <v>488</v>
@@ -13217,13 +13210,13 @@
         <v>828</v>
       </c>
       <c r="N129" s="28" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="O129" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P129" s="28" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="Q129" s="28" t="s">
         <v>826</v>
@@ -13234,7 +13227,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="23">
         <v>304</v>
       </c>
@@ -13268,7 +13261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="23">
         <v>309</v>
       </c>
@@ -13302,7 +13295,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="23">
         <v>310</v>
       </c>
@@ -13336,7 +13329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="23">
         <v>311</v>
       </c>
@@ -13370,7 +13363,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="23">
         <v>312</v>
       </c>
@@ -13404,7 +13397,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="23">
         <v>313</v>
       </c>
@@ -13438,7 +13431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="23">
         <v>314</v>
       </c>
@@ -13472,7 +13465,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="23">
         <v>315</v>
       </c>
@@ -13506,7 +13499,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="23">
         <v>320</v>
       </c>
@@ -13540,7 +13533,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="23">
         <v>321</v>
       </c>
@@ -13574,7 +13567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="23">
         <v>324</v>
       </c>
@@ -13608,7 +13601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="23">
         <v>325</v>
       </c>
@@ -13687,7 +13680,7 @@
         <v>488</v>
       </c>
       <c r="P142" s="28" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="Q142" s="32" t="s">
         <v>826</v>
@@ -13743,7 +13736,7 @@
         <v>488</v>
       </c>
       <c r="P143" s="28" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="Q143" s="32" t="s">
         <v>826</v>
@@ -13754,7 +13747,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="23">
         <v>332</v>
       </c>
@@ -13788,7 +13781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="23">
         <v>333</v>
       </c>
@@ -13822,7 +13815,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="23">
         <v>336</v>
       </c>
@@ -13856,7 +13849,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="23">
         <v>337</v>
       </c>
@@ -13890,7 +13883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="23">
         <v>340</v>
       </c>
@@ -13924,7 +13917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="23">
         <v>341</v>
       </c>
@@ -13978,10 +13971,10 @@
         <v>45014</v>
       </c>
       <c r="G150" s="27" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="H150" s="27" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="I150" s="27" t="s">
         <v>860</v>
@@ -13997,13 +13990,13 @@
         <v>488</v>
       </c>
       <c r="N150" s="28" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="O150" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P150" s="28" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="Q150" s="28" t="s">
         <v>826</v>
@@ -14034,10 +14027,10 @@
         <v>45014</v>
       </c>
       <c r="G151" s="27" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="I151" s="27" t="s">
         <v>860</v>
@@ -14053,13 +14046,13 @@
         <v>488</v>
       </c>
       <c r="N151" s="28" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="O151" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P151" s="28" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="Q151" s="28" t="s">
         <v>826</v>
@@ -14070,7 +14063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="23">
         <v>348</v>
       </c>
@@ -14104,7 +14097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="23">
         <v>349</v>
       </c>
@@ -14138,7 +14131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="23">
         <v>193</v>
       </c>
@@ -14172,7 +14165,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="23">
         <v>206</v>
       </c>
@@ -14206,7 +14199,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="23">
         <v>209</v>
       </c>
@@ -14240,7 +14233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="23">
         <v>222</v>
       </c>
@@ -14350,7 +14343,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:20" ht="290.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="23">
         <v>241</v>
       </c>
@@ -14384,7 +14377,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="23">
         <v>254</v>
       </c>
@@ -14418,7 +14411,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="290.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:20" ht="290.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="23">
         <v>257</v>
       </c>
@@ -14452,7 +14445,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="23">
         <v>270</v>
       </c>
@@ -14486,7 +14479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="23">
         <v>273</v>
       </c>
@@ -14520,7 +14513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="23">
         <v>286</v>
       </c>
@@ -14574,13 +14567,13 @@
         <v>45014</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="H166" s="27" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="I166" s="27" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="J166" s="28" t="s">
         <v>488</v>
@@ -14600,7 +14593,7 @@
       </c>
       <c r="R166" s="29"/>
       <c r="S166" s="30" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="T166" s="31" t="s">
         <v>48</v>
@@ -14623,48 +14616,46 @@
         <v>367</v>
       </c>
       <c r="F167" s="26">
-        <v>45014</v>
+        <v>45035</v>
       </c>
       <c r="G167" s="27" t="s">
-        <v>1039</v>
+        <v>1113</v>
       </c>
       <c r="H167" s="27" t="s">
-        <v>1040</v>
+        <v>1114</v>
       </c>
       <c r="I167" s="27" t="s">
-        <v>1041</v>
+        <v>860</v>
       </c>
       <c r="J167" s="28" t="s">
         <v>488</v>
       </c>
       <c r="K167" s="28"/>
       <c r="L167" s="28" t="s">
-        <v>828</v>
+        <v>488</v>
       </c>
       <c r="M167" s="28" t="s">
-        <v>828</v>
+        <v>488</v>
       </c>
       <c r="N167" s="28" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="O167" s="28" t="s">
-        <v>828</v>
+        <v>488</v>
       </c>
       <c r="P167" s="28" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="Q167" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R167" s="29"/>
-      <c r="S167" s="30" t="s">
-        <v>1112</v>
-      </c>
+      <c r="S167" s="30"/>
       <c r="T167" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="23">
         <v>305</v>
       </c>
@@ -14698,7 +14689,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="23">
         <v>318</v>
       </c>
@@ -14732,7 +14723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="23">
         <v>322</v>
       </c>
@@ -14766,7 +14757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="23">
         <v>323</v>
       </c>
@@ -14800,7 +14791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="23">
         <v>326</v>
       </c>
@@ -14834,7 +14825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="23">
         <v>327</v>
       </c>
@@ -14930,7 +14921,7 @@
         <v>828</v>
       </c>
       <c r="K175" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L175" s="28"/>
       <c r="M175" s="28"/>
@@ -14944,7 +14935,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="23">
         <v>334</v>
       </c>
@@ -14978,7 +14969,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="23">
         <v>335</v>
       </c>
@@ -15012,7 +15003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="23">
         <v>338</v>
       </c>
@@ -15046,7 +15037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="23">
         <v>339</v>
       </c>
@@ -15080,7 +15071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="23">
         <v>342</v>
       </c>
@@ -15114,7 +15105,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="23">
         <v>343</v>
       </c>
@@ -15165,13 +15156,13 @@
         <v>397</v>
       </c>
       <c r="F182" s="26">
-        <v>45014</v>
+        <v>45033</v>
       </c>
       <c r="G182" s="27" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H182" s="27" t="s">
-        <v>1080</v>
+        <v>1108</v>
+      </c>
+      <c r="H182" s="34" t="s">
+        <v>1107</v>
       </c>
       <c r="I182" s="27" t="s">
         <v>860</v>
@@ -15187,13 +15178,13 @@
         <v>488</v>
       </c>
       <c r="N182" s="28" t="s">
-        <v>933</v>
+        <v>1109</v>
       </c>
       <c r="O182" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P182" s="28" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="Q182" s="28" t="s">
         <v>826</v>
@@ -15224,10 +15215,10 @@
         <v>45014</v>
       </c>
       <c r="G183" s="27" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="H183" s="27" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="I183" s="27" t="s">
         <v>860</v>
@@ -15243,26 +15234,26 @@
         <v>488</v>
       </c>
       <c r="N183" s="28" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="O183" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P183" s="28" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="Q183" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R183" s="29"/>
       <c r="S183" s="30" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="T183" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="23">
         <v>350</v>
       </c>
@@ -15296,7 +15287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="23">
         <v>351</v>
       </c>
@@ -15330,7 +15321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="23">
         <v>1</v>
       </c>
@@ -15364,7 +15355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="23">
         <v>2</v>
       </c>
@@ -15398,7 +15389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="23">
         <v>3</v>
       </c>
@@ -15432,7 +15423,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="23">
         <v>4</v>
       </c>
@@ -15466,7 +15457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="23">
         <v>5</v>
       </c>
@@ -15500,7 +15491,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="23">
         <v>6</v>
       </c>
@@ -15534,7 +15525,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="23">
         <v>7</v>
       </c>
@@ -15568,7 +15559,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="23">
         <v>8</v>
       </c>
@@ -15602,7 +15593,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="23">
         <v>9</v>
       </c>
@@ -15698,7 +15689,7 @@
         <v>828</v>
       </c>
       <c r="K196" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L196" s="28"/>
       <c r="M196" s="28"/>
@@ -15757,7 +15748,7 @@
         <v>488</v>
       </c>
       <c r="P197" s="28" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="Q197" s="28" t="s">
         <v>826</v>
@@ -15813,7 +15804,7 @@
         <v>488</v>
       </c>
       <c r="P198" s="28" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="Q198" s="28" t="s">
         <v>826</v>
@@ -15824,7 +15815,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="23">
         <v>16</v>
       </c>
@@ -15858,7 +15849,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="23">
         <v>17</v>
       </c>
@@ -15892,7 +15883,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="23">
         <v>18</v>
       </c>
@@ -15926,7 +15917,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="23">
         <v>19</v>
       </c>
@@ -15960,7 +15951,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="23">
         <v>20</v>
       </c>
@@ -15994,7 +15985,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="23">
         <v>21</v>
       </c>
@@ -16028,7 +16019,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="23">
         <v>22</v>
       </c>
@@ -16062,7 +16053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="23">
         <v>23</v>
       </c>
@@ -16096,7 +16087,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="23">
         <v>24</v>
       </c>
@@ -16130,7 +16121,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="23">
         <v>25</v>
       </c>
@@ -16164,7 +16155,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="23">
         <v>26</v>
       </c>
@@ -16198,7 +16189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="23">
         <v>27</v>
       </c>
@@ -16232,7 +16223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="23">
         <v>28</v>
       </c>
@@ -16266,7 +16257,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="23">
         <v>29</v>
       </c>
@@ -16300,7 +16291,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="23">
         <v>30</v>
       </c>
@@ -16404,10 +16395,10 @@
         <v>45015</v>
       </c>
       <c r="G215" s="27" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="H215" s="27" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="I215" s="27" t="s">
         <v>860</v>
@@ -16423,7 +16414,7 @@
         <v>488</v>
       </c>
       <c r="N215" s="26" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="O215" s="28"/>
       <c r="P215" s="28"/>
@@ -16436,7 +16427,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="23">
         <v>33</v>
       </c>
@@ -16470,7 +16461,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="23">
         <v>34</v>
       </c>
@@ -16504,7 +16495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="23">
         <v>35</v>
       </c>
@@ -16538,7 +16529,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="23">
         <v>36</v>
       </c>
@@ -16572,7 +16563,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="23">
         <v>37</v>
       </c>
@@ -16606,7 +16597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="23">
         <v>38</v>
       </c>
@@ -16710,10 +16701,10 @@
         <v>45015</v>
       </c>
       <c r="G223" s="27" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="H223" s="27" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="I223" s="27" t="s">
         <v>860</v>
@@ -16729,7 +16720,7 @@
         <v>488</v>
       </c>
       <c r="N223" s="28" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="O223" s="28"/>
       <c r="P223" s="28"/>
@@ -16742,7 +16733,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="23">
         <v>41</v>
       </c>
@@ -16776,7 +16767,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="23">
         <v>42</v>
       </c>
@@ -16810,7 +16801,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:20" ht="145.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="23">
         <v>43</v>
       </c>
@@ -16844,7 +16835,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:20" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="23">
         <v>44</v>
       </c>
@@ -16880,7 +16871,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:20" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="23">
         <v>45</v>
       </c>
@@ -16916,7 +16907,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:20" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="23">
         <v>46</v>
       </c>
@@ -16972,13 +16963,13 @@
         <v>45022</v>
       </c>
       <c r="G230" s="27" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="H230" s="34" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="I230" s="34" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="J230" s="28" t="s">
         <v>488</v>
@@ -17030,7 +17021,7 @@
       <c r="N231" s="28"/>
       <c r="O231" s="28"/>
       <c r="P231" s="28" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="Q231" s="28" t="s">
         <v>826</v>
@@ -17041,7 +17032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:20" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="23">
         <v>49</v>
       </c>
@@ -17077,7 +17068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:20" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="23">
         <v>50</v>
       </c>
@@ -17113,7 +17104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:20" ht="44" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="23">
         <v>51</v>
       </c>
@@ -17149,7 +17140,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="23">
         <v>52</v>
       </c>
@@ -17183,7 +17174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="23">
         <v>53</v>
       </c>
@@ -17217,7 +17208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="23">
         <v>54</v>
       </c>
@@ -17251,7 +17242,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="23">
         <v>55</v>
       </c>
@@ -17285,7 +17276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="23">
         <v>56</v>
       </c>
@@ -17319,7 +17310,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="23">
         <v>57</v>
       </c>
@@ -17353,7 +17344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="23">
         <v>58</v>
       </c>
@@ -17387,7 +17378,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="23">
         <v>59</v>
       </c>
@@ -17421,7 +17412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="23">
         <v>60</v>
       </c>
@@ -17455,7 +17446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="23">
         <v>61</v>
       </c>
@@ -17489,7 +17480,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="23">
         <v>62</v>
       </c>
@@ -17523,7 +17514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="23">
         <v>63</v>
       </c>
@@ -17557,7 +17548,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="23">
         <v>64</v>
       </c>
@@ -17591,7 +17582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="23">
         <v>65</v>
       </c>
@@ -17625,7 +17616,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="23">
         <v>66</v>
       </c>
@@ -17659,7 +17650,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="23">
         <v>67</v>
       </c>
@@ -17693,7 +17684,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="23">
         <v>68</v>
       </c>
@@ -17727,7 +17718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="23">
         <v>69</v>
       </c>
@@ -17761,7 +17752,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="23">
         <v>70</v>
       </c>
@@ -17795,7 +17786,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="23">
         <v>71</v>
       </c>
@@ -17829,7 +17820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="23">
         <v>72</v>
       </c>
@@ -17863,7 +17854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="23">
         <v>73</v>
       </c>
@@ -17897,7 +17888,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="23">
         <v>74</v>
       </c>
@@ -18001,13 +17992,13 @@
         <v>45013</v>
       </c>
       <c r="G259" s="27" t="s">
+        <v>935</v>
+      </c>
+      <c r="H259" s="27" t="s">
         <v>936</v>
       </c>
-      <c r="H259" s="27" t="s">
+      <c r="I259" s="27" t="s">
         <v>937</v>
-      </c>
-      <c r="I259" s="27" t="s">
-        <v>938</v>
       </c>
       <c r="J259" s="28" t="s">
         <v>488</v>
@@ -18076,7 +18067,7 @@
         <v>488</v>
       </c>
       <c r="P260" s="28" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="Q260" s="28" t="s">
         <v>826</v>
@@ -18126,13 +18117,13 @@
         <v>488</v>
       </c>
       <c r="N261" s="28" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="O261" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P261" s="28" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="Q261" s="28" t="s">
         <v>826</v>
@@ -18182,13 +18173,13 @@
         <v>828</v>
       </c>
       <c r="N262" s="28" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="O262" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P262" s="28" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="Q262" s="28" t="s">
         <v>826</v>
@@ -18246,7 +18237,7 @@
         <v>488</v>
       </c>
       <c r="P263" s="28" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="Q263" s="28" t="s">
         <v>826</v>
@@ -18296,13 +18287,13 @@
         <v>828</v>
       </c>
       <c r="N264" s="28" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="O264" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P264" s="28" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="Q264" s="28" t="s">
         <v>826</v>
@@ -18335,13 +18326,13 @@
         <v>45013</v>
       </c>
       <c r="G265" s="27" t="s">
+        <v>938</v>
+      </c>
+      <c r="H265" s="27" t="s">
         <v>939</v>
       </c>
-      <c r="H265" s="27" t="s">
+      <c r="I265" s="27" t="s">
         <v>940</v>
-      </c>
-      <c r="I265" s="27" t="s">
-        <v>941</v>
       </c>
       <c r="J265" s="28" t="s">
         <v>488</v>
@@ -18354,13 +18345,13 @@
         <v>828</v>
       </c>
       <c r="N265" s="28" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="O265" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P265" s="28" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="Q265" s="28" t="s">
         <v>826</v>
@@ -18393,13 +18384,13 @@
         <v>45013</v>
       </c>
       <c r="G266" s="27" t="s">
+        <v>941</v>
+      </c>
+      <c r="H266" s="27" t="s">
         <v>942</v>
       </c>
-      <c r="H266" s="27" t="s">
+      <c r="I266" s="27" t="s">
         <v>943</v>
-      </c>
-      <c r="I266" s="27" t="s">
-        <v>944</v>
       </c>
       <c r="J266" s="28" t="s">
         <v>488</v>
@@ -18412,13 +18403,13 @@
         <v>828</v>
       </c>
       <c r="N266" s="28" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="O266" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P266" s="28" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="Q266" s="28" t="s">
         <v>826</v>
@@ -18476,7 +18467,7 @@
         <v>488</v>
       </c>
       <c r="P267" s="28" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="Q267" s="28" t="s">
         <v>826</v>
@@ -18507,10 +18498,10 @@
         <v>45022</v>
       </c>
       <c r="G268" s="27" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="H268" s="34" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="I268" s="27" t="s">
         <v>860</v>
@@ -18532,15 +18523,13 @@
         <v>488</v>
       </c>
       <c r="P268" s="28" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="Q268" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R268" s="29"/>
-      <c r="S268" s="30" t="s">
-        <v>949</v>
-      </c>
+      <c r="S268" s="30"/>
       <c r="T268" s="31" t="s">
         <v>51</v>
       </c>
@@ -18562,43 +18551,41 @@
         <v>351</v>
       </c>
       <c r="F269" s="26">
-        <v>45013</v>
+        <v>45035</v>
       </c>
       <c r="G269" s="27" t="s">
-        <v>945</v>
-      </c>
-      <c r="H269" s="27" t="s">
-        <v>946</v>
+        <v>1110</v>
+      </c>
+      <c r="H269" s="34" t="s">
+        <v>1111</v>
       </c>
       <c r="I269" s="27" t="s">
-        <v>947</v>
+        <v>860</v>
       </c>
       <c r="J269" s="28" t="s">
         <v>488</v>
       </c>
       <c r="K269" s="28"/>
       <c r="L269" s="28" t="s">
-        <v>828</v>
+        <v>488</v>
       </c>
       <c r="M269" s="28" t="s">
-        <v>828</v>
+        <v>488</v>
       </c>
       <c r="N269" s="28" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="O269" s="28" t="s">
-        <v>828</v>
+        <v>488</v>
       </c>
       <c r="P269" s="28" t="s">
-        <v>1114</v>
+        <v>1090</v>
       </c>
       <c r="Q269" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R269" s="29"/>
-      <c r="S269" s="30" t="s">
-        <v>948</v>
-      </c>
+      <c r="S269" s="30"/>
       <c r="T269" s="31" t="s">
         <v>51</v>
       </c>
@@ -18623,10 +18610,10 @@
         <v>45023</v>
       </c>
       <c r="G270" s="27" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="H270" s="34" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="I270" s="27" t="s">
         <v>860</v>
@@ -18648,7 +18635,7 @@
         <v>488</v>
       </c>
       <c r="P270" s="28" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="Q270" s="28" t="s">
         <v>826</v>
@@ -18704,7 +18691,7 @@
         <v>488</v>
       </c>
       <c r="P271" s="28" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="Q271" s="28" t="s">
         <v>826</v>
@@ -18735,10 +18722,10 @@
         <v>45023</v>
       </c>
       <c r="G272" s="27" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="H272" s="27" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="I272" s="27" t="s">
         <v>860</v>
@@ -18754,13 +18741,13 @@
         <v>488</v>
       </c>
       <c r="N272" s="28" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="O272" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P272" s="28" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q272" s="28" t="s">
         <v>826</v>
@@ -18791,10 +18778,10 @@
         <v>45027</v>
       </c>
       <c r="G273" s="27" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="H273" s="43" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="I273" s="27" t="s">
         <v>860</v>
@@ -18810,13 +18797,13 @@
         <v>488</v>
       </c>
       <c r="N273" s="28" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="O273" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P273" s="28" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="Q273" s="28" t="s">
         <v>826</v>
@@ -18847,10 +18834,10 @@
         <v>45023</v>
       </c>
       <c r="G274" s="27" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="H274" s="27" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="I274" s="27" t="s">
         <v>860</v>
@@ -18866,13 +18853,13 @@
         <v>488</v>
       </c>
       <c r="N274" s="28" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="O274" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P274" s="28" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="Q274" s="28" t="s">
         <v>826</v>
@@ -18900,13 +18887,13 @@
         <v>96</v>
       </c>
       <c r="F275" s="26">
-        <v>45031</v>
+        <v>45033</v>
       </c>
       <c r="G275" s="27" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H275" s="27" t="s">
-        <v>1113</v>
+        <v>1102</v>
+      </c>
+      <c r="H275" s="34" t="s">
+        <v>1103</v>
       </c>
       <c r="I275" s="27" t="s">
         <v>860</v>
@@ -18922,13 +18909,13 @@
         <v>488</v>
       </c>
       <c r="N275" s="28" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="O275" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P275" s="28" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="Q275" s="28" t="s">
         <v>826</v>
@@ -18959,10 +18946,10 @@
         <v>45031</v>
       </c>
       <c r="G276" s="27" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="H276" s="34" t="s">
-        <v>1118</v>
+        <v>1101</v>
       </c>
       <c r="I276" s="27" t="s">
         <v>860</v>
@@ -18978,13 +18965,13 @@
         <v>488</v>
       </c>
       <c r="N276" s="28" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="O276" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P276" s="28" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="Q276" s="28" t="s">
         <v>826</v>
@@ -18995,7 +18982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277" s="23">
         <v>94</v>
       </c>
@@ -19029,7 +19016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278" s="23">
         <v>95</v>
       </c>
@@ -19063,7 +19050,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279" s="23">
         <v>96</v>
       </c>
@@ -19097,7 +19084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280" s="23">
         <v>97</v>
       </c>
@@ -19131,7 +19118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="23">
         <v>98</v>
       </c>
@@ -19165,7 +19152,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" s="23">
         <v>99</v>
       </c>
@@ -19199,7 +19186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="23">
         <v>100</v>
       </c>
@@ -19233,7 +19220,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="23">
         <v>101</v>
       </c>
@@ -19267,7 +19254,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285" s="23">
         <v>102</v>
       </c>
@@ -19301,7 +19288,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286" s="23">
         <v>103</v>
       </c>
@@ -19335,7 +19322,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287" s="23">
         <v>104</v>
       </c>
@@ -19369,7 +19356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" s="23">
         <v>105</v>
       </c>
@@ -19403,7 +19390,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289" s="23">
         <v>106</v>
       </c>
@@ -19437,7 +19424,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290" s="23">
         <v>107</v>
       </c>
@@ -19471,7 +19458,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A291" s="23">
         <v>108</v>
       </c>
@@ -19505,7 +19492,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" s="23">
         <v>109</v>
       </c>
@@ -19539,7 +19526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A293" s="23">
         <v>110</v>
       </c>
@@ -19573,7 +19560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A294" s="23">
         <v>111</v>
       </c>
@@ -19607,7 +19594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A295" s="23">
         <v>112</v>
       </c>
@@ -19641,7 +19628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A296" s="23">
         <v>113</v>
       </c>
@@ -19675,7 +19662,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" s="23">
         <v>114</v>
       </c>
@@ -19709,7 +19696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A298" s="23">
         <v>115</v>
       </c>
@@ -19743,7 +19730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A299" s="23">
         <v>116</v>
       </c>
@@ -19777,7 +19764,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A300" s="23">
         <v>117</v>
       </c>
@@ -19811,7 +19798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301" s="23">
         <v>118</v>
       </c>
@@ -19845,7 +19832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="23">
         <v>119</v>
       </c>
@@ -19879,7 +19866,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A303" s="23">
         <v>120</v>
       </c>
@@ -19913,7 +19900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A304" s="23">
         <v>121</v>
       </c>
@@ -19947,7 +19934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A305" s="23">
         <v>122</v>
       </c>
@@ -19981,7 +19968,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="23">
         <v>123</v>
       </c>
@@ -20015,7 +20002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" s="23">
         <v>124</v>
       </c>
@@ -20049,7 +20036,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A308" s="23">
         <v>125</v>
       </c>
@@ -20083,7 +20070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A309" s="23">
         <v>126</v>
       </c>
@@ -20117,7 +20104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="23">
         <v>127</v>
       </c>
@@ -20151,7 +20138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="23">
         <v>128</v>
       </c>
@@ -20185,7 +20172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A312" s="23">
         <v>129</v>
       </c>
@@ -20219,7 +20206,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" s="23">
         <v>130</v>
       </c>
@@ -20253,7 +20240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A314" s="23">
         <v>131</v>
       </c>
@@ -20287,7 +20274,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A315" s="23">
         <v>132</v>
       </c>
@@ -20321,7 +20308,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A316" s="23">
         <v>133</v>
       </c>
@@ -20355,7 +20342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A317" s="23">
         <v>134</v>
       </c>
@@ -20389,7 +20376,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A318" s="23">
         <v>135</v>
       </c>
@@ -20423,7 +20410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A319" s="23">
         <v>136</v>
       </c>
@@ -20457,7 +20444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A320" s="23">
         <v>137</v>
       </c>
@@ -20491,7 +20478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A321" s="23">
         <v>138</v>
       </c>
@@ -20525,7 +20512,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A322" s="23">
         <v>139</v>
       </c>
@@ -20559,7 +20546,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A323" s="23">
         <v>140</v>
       </c>
@@ -20593,7 +20580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A324" s="23">
         <v>141</v>
       </c>
@@ -20627,7 +20614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A325" s="23">
         <v>142</v>
       </c>
@@ -20661,7 +20648,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A326" s="23">
         <v>143</v>
       </c>
@@ -20695,7 +20682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:20" ht="102" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A327" s="23">
         <v>144</v>
       </c>
@@ -20729,7 +20716,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A328" s="23">
         <v>145</v>
       </c>
@@ -20763,7 +20750,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A329" s="23">
         <v>146</v>
       </c>
@@ -20817,13 +20804,13 @@
         <v>45013</v>
       </c>
       <c r="G330" s="27" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="H330" s="27" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="I330" s="27" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="J330" s="28" t="s">
         <v>488</v>
@@ -20867,7 +20854,7 @@
         <v>828</v>
       </c>
       <c r="K331" s="28" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="L331" s="28"/>
       <c r="M331" s="28"/>
@@ -20905,7 +20892,7 @@
         <v>828</v>
       </c>
       <c r="K332" s="28" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="L332" s="28"/>
       <c r="M332" s="28"/>
@@ -20943,7 +20930,7 @@
         <v>828</v>
       </c>
       <c r="K333" s="28" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="L333" s="28"/>
       <c r="M333" s="28"/>
@@ -20977,13 +20964,13 @@
         <v>45013</v>
       </c>
       <c r="G334" s="27" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="H334" s="37" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="I334" s="27" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="J334" s="28" t="s">
         <v>488</v>
@@ -20996,13 +20983,13 @@
         <v>488</v>
       </c>
       <c r="N334" s="28" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="O334" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P334" s="28" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q334" s="28" t="s">
         <v>826</v>
@@ -21033,13 +21020,13 @@
         <v>45013</v>
       </c>
       <c r="G335" s="27" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="H335" s="27" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="I335" s="27" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="J335" s="28" t="s">
         <v>488</v>
@@ -21052,13 +21039,13 @@
         <v>488</v>
       </c>
       <c r="N335" s="28" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="O335" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P335" s="28" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q335" s="28" t="s">
         <v>826</v>
@@ -21089,13 +21076,13 @@
         <v>45013</v>
       </c>
       <c r="G336" s="27" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="H336" s="27" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="I336" s="27" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="J336" s="28" t="s">
         <v>488</v>
@@ -21108,13 +21095,13 @@
         <v>488</v>
       </c>
       <c r="N336" s="28" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="O336" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P336" s="28" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q336" s="28" t="s">
         <v>826</v>
@@ -21145,13 +21132,13 @@
         <v>45013</v>
       </c>
       <c r="G337" s="27" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="H337" s="27" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="I337" s="27" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="J337" s="28" t="s">
         <v>488</v>
@@ -21164,13 +21151,13 @@
         <v>488</v>
       </c>
       <c r="N337" s="28" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="O337" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P337" s="28" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q337" s="28" t="s">
         <v>826</v>
@@ -21201,13 +21188,13 @@
         <v>45013</v>
       </c>
       <c r="G338" s="27" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="H338" s="27" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="I338" s="27" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="J338" s="28" t="s">
         <v>488</v>
@@ -21220,13 +21207,13 @@
         <v>488</v>
       </c>
       <c r="N338" s="28" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="O338" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P338" s="28" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q338" s="28" t="s">
         <v>826</v>
@@ -21257,13 +21244,13 @@
         <v>45013</v>
       </c>
       <c r="G339" s="27" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="H339" s="27" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="I339" s="27" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="J339" s="28" t="s">
         <v>488</v>
@@ -21276,13 +21263,13 @@
         <v>488</v>
       </c>
       <c r="N339" s="28" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="O339" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P339" s="28" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q339" s="28" t="s">
         <v>826</v>
@@ -21351,13 +21338,13 @@
         <v>45014</v>
       </c>
       <c r="G341" s="27" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="H341" s="27" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="I341" s="27" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="J341" s="28" t="s">
         <v>488</v>
@@ -21370,13 +21357,13 @@
         <v>488</v>
       </c>
       <c r="N341" s="28" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="O341" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P341" s="28" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q341" s="28" t="s">
         <v>826</v>
@@ -21407,13 +21394,13 @@
         <v>45014</v>
       </c>
       <c r="G342" s="27" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="H342" s="27" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="I342" s="27" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="J342" s="28" t="s">
         <v>488</v>
@@ -21426,13 +21413,13 @@
         <v>488</v>
       </c>
       <c r="N342" s="28" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="O342" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P342" s="28" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q342" s="28" t="s">
         <v>826</v>
@@ -21463,13 +21450,13 @@
         <v>45014</v>
       </c>
       <c r="G343" s="27" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="H343" s="27" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="I343" s="27" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="J343" s="28" t="s">
         <v>488</v>
@@ -21482,13 +21469,13 @@
         <v>488</v>
       </c>
       <c r="N343" s="28" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="O343" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P343" s="28" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q343" s="28" t="s">
         <v>826</v>
@@ -21519,13 +21506,13 @@
         <v>45014</v>
       </c>
       <c r="G344" s="27" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="H344" s="27" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="I344" s="27" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="J344" s="28" t="s">
         <v>488</v>
@@ -21538,13 +21525,13 @@
         <v>488</v>
       </c>
       <c r="N344" s="28" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="O344" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P344" s="28" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q344" s="28" t="s">
         <v>826</v>
@@ -21575,13 +21562,13 @@
         <v>45014</v>
       </c>
       <c r="G345" s="27" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="H345" s="27" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="I345" s="27" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="J345" s="28" t="s">
         <v>488</v>
@@ -21594,13 +21581,13 @@
         <v>488</v>
       </c>
       <c r="N345" s="28" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="O345" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P345" s="28" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q345" s="28" t="s">
         <v>826</v>
@@ -21635,7 +21622,7 @@
         <v>828</v>
       </c>
       <c r="K346" s="28" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="L346" s="28"/>
       <c r="M346" s="28"/>
@@ -21673,7 +21660,7 @@
         <v>828</v>
       </c>
       <c r="K347" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L347" s="28"/>
       <c r="M347" s="28"/>
@@ -21711,7 +21698,7 @@
         <v>828</v>
       </c>
       <c r="K348" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L348" s="28"/>
       <c r="M348" s="28"/>
@@ -21749,7 +21736,7 @@
         <v>828</v>
       </c>
       <c r="K349" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L349" s="28"/>
       <c r="M349" s="28"/>
@@ -21787,7 +21774,7 @@
         <v>828</v>
       </c>
       <c r="K350" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L350" s="28"/>
       <c r="M350" s="28"/>
@@ -21821,13 +21808,13 @@
         <v>45014</v>
       </c>
       <c r="G351" s="27" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="H351" s="26" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="I351" s="26" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="J351" s="26" t="s">
         <v>488</v>
@@ -21840,13 +21827,13 @@
         <v>488</v>
       </c>
       <c r="N351" s="26" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="O351" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P351" s="28" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q351" s="28" t="s">
         <v>826</v>
@@ -21857,7 +21844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="352" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:20" s="21" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A352" s="23">
         <v>169</v>
       </c>
@@ -21877,13 +21864,13 @@
         <v>45014</v>
       </c>
       <c r="G352" s="26" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="H352" s="26" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="I352" s="26" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="J352" s="26" t="s">
         <v>488</v>
@@ -21896,13 +21883,13 @@
         <v>488</v>
       </c>
       <c r="N352" s="26" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="O352" s="26" t="s">
         <v>488</v>
       </c>
       <c r="P352" s="26" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="Q352" s="26" t="s">
         <v>826</v>
@@ -21913,7 +21900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="353" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="23">
         <v>170</v>
       </c>
@@ -21947,7 +21934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="354" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="23">
         <v>171</v>
       </c>
@@ -21981,7 +21968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" s="23">
         <v>172</v>
       </c>
@@ -22015,7 +22002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" s="23">
         <v>173</v>
       </c>
@@ -22049,7 +22036,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" s="23">
         <v>174</v>
       </c>
@@ -22083,7 +22070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" s="23">
         <v>175</v>
       </c>
@@ -22117,7 +22104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" s="23">
         <v>176</v>
       </c>
@@ -22151,7 +22138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" s="23">
         <v>177</v>
       </c>
@@ -22185,7 +22172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" s="23">
         <v>178</v>
       </c>
@@ -22219,7 +22206,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" s="23">
         <v>179</v>
       </c>
@@ -22253,7 +22240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="363" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" s="23">
         <v>180</v>
       </c>
@@ -22287,7 +22274,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="364" spans="1:20" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:20" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" s="23">
         <v>181</v>
       </c>
@@ -22321,7 +22308,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" s="23">
         <v>182</v>
       </c>
@@ -22355,7 +22342,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" s="23">
         <v>183</v>
       </c>
@@ -22389,7 +22376,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" s="23">
         <v>184</v>
       </c>
@@ -22423,7 +22410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" s="23">
         <v>185</v>
       </c>
@@ -22457,7 +22444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" s="23">
         <v>186</v>
       </c>
@@ -22491,7 +22478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" s="23">
         <v>187</v>
       </c>
@@ -22525,7 +22512,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="371" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" s="23">
         <v>188</v>
       </c>
@@ -22559,7 +22546,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" s="23">
         <v>189</v>
       </c>
@@ -22593,7 +22580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:20" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" s="23">
         <v>190</v>
       </c>
@@ -22627,7 +22614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="145" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:20" ht="145" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" s="23">
         <v>191</v>
       </c>
@@ -32258,7 +32245,14 @@
       <c r="T992" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T374" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A9:T374" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="RAD"/>
+        <filter val="RSA"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.163\D_Drive\tmp\RepositoryFSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C5867E-24B6-4838-8161-CAABE4E16D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1051D49-3102-41DE-816F-5A4CFA91E0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="1118">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -5339,6 +5339,9 @@
   </si>
   <si>
     <t>Mancato invio a FSE. Gestito in backoffice</t>
+  </si>
+  <si>
+    <t>Mancato Invio a FSE. Gestito in backoffice</t>
   </si>
 </sst>
 </file>
@@ -8308,8 +8311,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S268" sqref="S268"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P223" sqref="P223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8799,7 +8802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23">
         <v>242</v>
       </c>
@@ -8833,7 +8836,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23">
         <v>253</v>
       </c>
@@ -8867,7 +8870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>258</v>
       </c>
@@ -8901,7 +8904,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23">
         <v>269</v>
       </c>
@@ -9389,7 +9392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23">
         <v>358</v>
       </c>
@@ -9425,7 +9428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="23">
         <v>359</v>
       </c>
@@ -9461,7 +9464,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="23">
         <v>360</v>
       </c>
@@ -9495,7 +9498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="23">
         <v>361</v>
       </c>
@@ -9811,7 +9814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="23">
         <v>204</v>
       </c>
@@ -9879,7 +9882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="23">
         <v>220</v>
       </c>
@@ -9954,8 +9957,12 @@
       <c r="N46" s="34" t="s">
         <v>840</v>
       </c>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
+      <c r="O46" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>1116</v>
+      </c>
       <c r="Q46" s="28" t="s">
         <v>826</v>
       </c>
@@ -10006,8 +10013,12 @@
       <c r="N47" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
+      <c r="O47" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="P47" s="28" t="s">
+        <v>1116</v>
+      </c>
       <c r="Q47" s="32" t="s">
         <v>826</v>
       </c>
@@ -10051,7 +10062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="23">
         <v>252</v>
       </c>
@@ -10119,7 +10130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="23">
         <v>268</v>
       </c>
@@ -10187,7 +10198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="23">
         <v>284</v>
       </c>
@@ -10267,7 +10278,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="23">
         <v>300</v>
       </c>
@@ -10357,7 +10368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="23">
         <v>316</v>
       </c>
@@ -11201,7 +11212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="23">
         <v>202</v>
       </c>
@@ -11269,7 +11280,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="23">
         <v>208</v>
       </c>
@@ -11473,7 +11484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="23">
         <v>218</v>
       </c>
@@ -11597,7 +11608,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="23">
         <v>77</v>
       </c>
@@ -12175,7 +12186,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="23">
         <v>250</v>
       </c>
@@ -12447,7 +12458,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="23">
         <v>266</v>
       </c>
@@ -12719,7 +12730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="23">
         <v>282</v>
       </c>
@@ -12787,7 +12798,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="23">
         <v>288</v>
       </c>
@@ -13115,7 +13126,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="23">
         <v>298</v>
       </c>
@@ -13431,7 +13442,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="23">
         <v>314</v>
       </c>
@@ -14131,7 +14142,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="23">
         <v>193</v>
       </c>
@@ -14165,7 +14176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="23">
         <v>206</v>
       </c>
@@ -14199,7 +14210,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="23">
         <v>209</v>
       </c>
@@ -14233,7 +14244,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="23">
         <v>222</v>
       </c>
@@ -14343,7 +14354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="290.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="23">
         <v>241</v>
       </c>
@@ -14377,7 +14388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="23">
         <v>254</v>
       </c>
@@ -14411,7 +14422,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="290.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="23">
         <v>257</v>
       </c>
@@ -14445,7 +14456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="23">
         <v>270</v>
       </c>
@@ -14479,7 +14490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="23">
         <v>273</v>
       </c>
@@ -14513,7 +14524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="23">
         <v>286</v>
       </c>
@@ -14547,7 +14558,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="23">
         <v>289</v>
       </c>
@@ -14599,7 +14610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="23">
         <v>302</v>
       </c>
@@ -14655,7 +14666,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="23">
         <v>305</v>
       </c>
@@ -14689,7 +14700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="23">
         <v>318</v>
       </c>
@@ -14723,7 +14734,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="23">
         <v>322</v>
       </c>
@@ -14757,7 +14768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="23">
         <v>323</v>
       </c>
@@ -14791,7 +14802,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="23">
         <v>326</v>
       </c>
@@ -14825,7 +14836,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="23">
         <v>327</v>
       </c>
@@ -14935,7 +14946,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="23">
         <v>334</v>
       </c>
@@ -14969,7 +14980,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="23">
         <v>335</v>
       </c>
@@ -15003,7 +15014,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="23">
         <v>338</v>
       </c>
@@ -15037,7 +15048,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="23">
         <v>339</v>
       </c>
@@ -15071,7 +15082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="23">
         <v>342</v>
       </c>
@@ -15105,7 +15116,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="23">
         <v>343</v>
       </c>
@@ -15139,7 +15150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="23">
         <v>346</v>
       </c>
@@ -15195,7 +15206,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="23">
         <v>347</v>
       </c>
@@ -15253,7 +15264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="23">
         <v>350</v>
       </c>
@@ -15287,7 +15298,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="23">
         <v>351</v>
       </c>
@@ -16325,7 +16336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="23">
         <v>224</v>
       </c>
@@ -16416,8 +16427,12 @@
       <c r="N215" s="26" t="s">
         <v>1039</v>
       </c>
-      <c r="O215" s="28"/>
-      <c r="P215" s="28"/>
+      <c r="O215" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="P215" s="28" t="s">
+        <v>1117</v>
+      </c>
       <c r="Q215" s="28" t="s">
         <v>826</v>
       </c>
@@ -16631,7 +16646,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="23">
         <v>225</v>
       </c>
@@ -16722,8 +16737,12 @@
       <c r="N223" s="28" t="s">
         <v>1042</v>
       </c>
-      <c r="O223" s="28"/>
-      <c r="P223" s="28"/>
+      <c r="O223" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="P223" s="28" t="s">
+        <v>1117</v>
+      </c>
       <c r="Q223" s="28" t="s">
         <v>826</v>
       </c>
@@ -18306,7 +18325,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="23">
         <v>234</v>
       </c>
@@ -18422,7 +18441,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="23">
         <v>236</v>
       </c>
@@ -18534,7 +18553,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="23">
         <v>238</v>
       </c>
@@ -18758,7 +18777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="23">
         <v>330</v>
       </c>
@@ -18814,7 +18833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="23">
         <v>331</v>
       </c>
@@ -21430,7 +21449,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="343" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:20" s="21" customFormat="1" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="23">
         <v>160</v>
       </c>

--- a/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.163\D_Drive\tmp\RepositoryFSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1051D49-3102-41DE-816F-5A4CFA91E0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE32E53-FC34-4831-A689-5DD1A9DF13D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$374</definedName>
     <definedName name="filtro" localSheetId="2">TestCases!$A$9:$S$203</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhUlYP9yzNmk4f07XMJovPPUaqOhw=="/>
     </ext>
@@ -4489,42 +4500,6 @@
     <t>subject_application_version: 1.1.0.0</t>
   </si>
   <si>
-    <t>2023-03-24T12:06:07Z</t>
-  </si>
-  <si>
-    <t>fa2efb37fdf61bb5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.272c6c77018858a80bb1db201ec649fc871ad4df9bade202fb42c7162a72340e.b57c740d4f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-03-24T12:40:38Z</t>
-  </si>
-  <si>
-    <t>84d352d923837c4b</t>
-  </si>
-  <si>
-    <t>2023-03-24T12:47:46Z</t>
-  </si>
-  <si>
-    <t>4064f2331b3986d1</t>
-  </si>
-  <si>
-    <t>Campo token JWT non valido</t>
-  </si>
-  <si>
-    <t>Campo token JWT non valido. Il campo action_id non è corretto</t>
-  </si>
-  <si>
-    <t>2023-03-23T14:00:08Z</t>
-  </si>
-  <si>
-    <t>5e6901679234734e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.6b949d13b8eb962b6a9d69668540a82cdaf5caa91b8df9dcc2fd6c98a49ce61e.bc5dd6ccae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'errore di timeout è gestito dal software</t>
   </si>
   <si>
@@ -5173,15 +5148,6 @@
     <t>Aggiornamento non effettuato</t>
   </si>
   <si>
-    <t>2023-03-28T11:53:43Z</t>
-  </si>
-  <si>
-    <t>bc0b6bf2f2490c94</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.a1dac749a1137153a668f75288426a9ddbd840f6518b30cdd6c6c258cbb3449e.0eb3f62fcc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Il sistema non gestisce il campo "Storia Clinica","Accertamenti e controlli consigliati" nel referto</t>
   </si>
   <si>
@@ -5342,6 +5308,51 @@
   </si>
   <si>
     <t>Mancato Invio a FSE. Gestito in backoffice</t>
+  </si>
+  <si>
+    <t>2023-05-09T11:07:07Z</t>
+  </si>
+  <si>
+    <t>e298aeed926a2e8f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.f02e119ae90b94bc94c1cbcaa5ec8bd9a5328374bf30d14eb77eb2e852a9ee25.7ba745a11b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-09T11:17:28Z</t>
+  </si>
+  <si>
+    <t>c11b33a1d16382c9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.bb5d2023458b0f49a993132451ba324414f01e3527713c570cb2a8d77b83bc46.399ef836be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-09T11:21:48Z</t>
+  </si>
+  <si>
+    <t>24a23efe29eae750</t>
+  </si>
+  <si>
+    <t>Errore 403: Campo token JWT non valido</t>
+  </si>
+  <si>
+    <t>2023-05-09T11:26:15Z</t>
+  </si>
+  <si>
+    <t>709d23c09489b6c5</t>
+  </si>
+  <si>
+    <t>Errore 403: Campo token JWT non valido. Il campo action_id non è corretto</t>
+  </si>
+  <si>
+    <t>2023-05-09T11:32:23Z</t>
+  </si>
+  <si>
+    <t>0747b70516dae93a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.6b5a81c9c7d7f8e6a15b539e4cafd1878728df60a054218a5f5b866a20f46ad2.1c82bd6cc4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -8312,7 +8323,7 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P223" sqref="P223"/>
+      <selection activeCell="I330" sqref="I330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8719,16 +8730,16 @@
         <v>424</v>
       </c>
       <c r="F14" s="26">
-        <v>45009</v>
+        <v>45055</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>833</v>
+        <v>1103</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>834</v>
+        <v>1104</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>835</v>
+        <v>1105</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>488</v>
@@ -8769,16 +8780,16 @@
         <v>426</v>
       </c>
       <c r="F15" s="26">
-        <v>45009</v>
+        <v>45055</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>842</v>
+        <v>1106</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>843</v>
+        <v>1107</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>844</v>
+        <v>1108</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>488</v>
@@ -8802,7 +8813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23">
         <v>242</v>
       </c>
@@ -8836,7 +8847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23">
         <v>253</v>
       </c>
@@ -8870,7 +8881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>258</v>
       </c>
@@ -8904,7 +8915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23">
         <v>269</v>
       </c>
@@ -9026,13 +9037,13 @@
         <v>45016</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="J22" s="28" t="s">
         <v>488</v>
@@ -9076,13 +9087,13 @@
         <v>45016</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J23" s="28" t="s">
         <v>488</v>
@@ -9095,13 +9106,13 @@
         <v>488</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="O23" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="Q23" s="28" t="s">
         <v>826</v>
@@ -9340,7 +9351,7 @@
         <v>828</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -9378,7 +9389,7 @@
         <v>828</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
@@ -9392,7 +9403,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23">
         <v>358</v>
       </c>
@@ -9414,7 +9425,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="28"/>
       <c r="K32" s="33" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -9428,7 +9439,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="23">
         <v>359</v>
       </c>
@@ -9450,7 +9461,7 @@
       <c r="I33" s="27"/>
       <c r="J33" s="28"/>
       <c r="K33" s="33" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -9464,7 +9475,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="23">
         <v>360</v>
       </c>
@@ -9498,7 +9509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="23">
         <v>361</v>
       </c>
@@ -9620,13 +9631,13 @@
         <v>45033</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>1105</v>
+        <v>1090</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J38" s="28" t="s">
         <v>488</v>
@@ -9639,13 +9650,13 @@
         <v>828</v>
       </c>
       <c r="N38" s="28" t="s">
-        <v>1104</v>
+        <v>1089</v>
       </c>
       <c r="O38" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P38" s="28" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="Q38" s="28" t="s">
         <v>826</v>
@@ -9676,13 +9687,13 @@
         <v>45022</v>
       </c>
       <c r="G39" s="27" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J39" s="28" t="s">
         <v>488</v>
@@ -9695,13 +9706,13 @@
         <v>488</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="O39" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="Q39" s="28" t="s">
         <v>826</v>
@@ -9814,7 +9825,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="23">
         <v>204</v>
       </c>
@@ -9882,7 +9893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="23">
         <v>220</v>
       </c>
@@ -9933,16 +9944,16 @@
         <v>462</v>
       </c>
       <c r="F46" s="26">
-        <v>45009</v>
+        <v>45055</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>836</v>
+        <v>1109</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>837</v>
+        <v>1110</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J46" s="28" t="s">
         <v>488</v>
@@ -9955,13 +9966,13 @@
         <v>488</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>840</v>
+        <v>1111</v>
       </c>
       <c r="O46" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P46" s="28" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
       <c r="Q46" s="28" t="s">
         <v>826</v>
@@ -9989,16 +10000,16 @@
         <v>477</v>
       </c>
       <c r="F47" s="26">
-        <v>45009</v>
+        <v>45055</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>838</v>
+        <v>1112</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>839</v>
+        <v>1113</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J47" s="28" t="s">
         <v>488</v>
@@ -10011,13 +10022,13 @@
         <v>488</v>
       </c>
       <c r="N47" s="34" t="s">
-        <v>841</v>
+        <v>1114</v>
       </c>
       <c r="O47" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P47" s="28" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
       <c r="Q47" s="32" t="s">
         <v>826</v>
@@ -10062,7 +10073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="23">
         <v>252</v>
       </c>
@@ -10130,7 +10141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="23">
         <v>268</v>
       </c>
@@ -10198,7 +10209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="23">
         <v>284</v>
       </c>
@@ -10252,13 +10263,13 @@
         <v>45016</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="J54" s="28" t="s">
         <v>488</v>
@@ -10278,7 +10289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="23">
         <v>300</v>
       </c>
@@ -10298,13 +10309,13 @@
         <v>45016</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J55" s="28" t="s">
         <v>488</v>
@@ -10317,13 +10328,13 @@
         <v>488</v>
       </c>
       <c r="N55" s="28" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="O55" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P55" s="28" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="Q55" s="28" t="s">
         <v>826</v>
@@ -10368,7 +10379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="23">
         <v>316</v>
       </c>
@@ -10565,7 +10576,7 @@
       <c r="N62" s="28"/>
       <c r="O62" s="28"/>
       <c r="P62" s="32" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="Q62" s="28"/>
       <c r="R62" s="29"/>
@@ -10594,13 +10605,13 @@
         <v>45009</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="I63" s="27" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="J63" s="32" t="s">
         <v>488</v>
@@ -10613,13 +10624,13 @@
         <v>488</v>
       </c>
       <c r="N63" s="32" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="O63" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P63" s="28" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="Q63" s="32" t="s">
         <v>826</v>
@@ -10854,13 +10865,13 @@
         <v>45016</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="H70" s="27" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="I70" s="27" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="J70" s="28" t="s">
         <v>488</v>
@@ -10904,13 +10915,13 @@
         <v>45016</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J71" s="28" t="s">
         <v>488</v>
@@ -10923,13 +10934,13 @@
         <v>488</v>
       </c>
       <c r="N71" s="28" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="O71" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P71" s="28" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="Q71" s="28" t="s">
         <v>826</v>
@@ -11212,7 +11223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="23">
         <v>202</v>
       </c>
@@ -11280,7 +11291,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="23">
         <v>208</v>
       </c>
@@ -11484,7 +11495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="23">
         <v>218</v>
       </c>
@@ -11572,13 +11583,13 @@
         <v>45009</v>
       </c>
       <c r="G90" s="35" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="H90" s="27" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="I90" s="27" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="J90" s="32" t="s">
         <v>488</v>
@@ -11591,13 +11602,13 @@
         <v>488</v>
       </c>
       <c r="N90" s="32" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="O90" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P90" s="28" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="Q90" s="32" t="s">
         <v>826</v>
@@ -11608,7 +11619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="23">
         <v>77</v>
       </c>
@@ -11628,13 +11639,13 @@
         <v>45009</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="H91" s="27" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="I91" s="27" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="J91" s="32" t="s">
         <v>488</v>
@@ -11647,13 +11658,13 @@
         <v>488</v>
       </c>
       <c r="N91" s="32" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="O91" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P91" s="28" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="Q91" s="32" t="s">
         <v>826</v>
@@ -11684,13 +11695,13 @@
         <v>45010</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="H92" s="27" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="I92" s="27" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="J92" s="32" t="s">
         <v>488</v>
@@ -11703,13 +11714,13 @@
         <v>488</v>
       </c>
       <c r="N92" s="32" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="O92" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P92" s="28" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="Q92" s="32" t="s">
         <v>826</v>
@@ -11740,13 +11751,13 @@
         <v>45010</v>
       </c>
       <c r="G93" s="27" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="H93" s="27" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="I93" s="27" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="J93" s="28" t="s">
         <v>488</v>
@@ -11759,13 +11770,13 @@
         <v>488</v>
       </c>
       <c r="N93" s="32" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="O93" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P93" s="28" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="Q93" s="32" t="s">
         <v>826</v>
@@ -11796,13 +11807,13 @@
         <v>45010</v>
       </c>
       <c r="G94" s="27" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="H94" s="27" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="I94" s="27" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="J94" s="32" t="s">
         <v>488</v>
@@ -11815,13 +11826,13 @@
         <v>488</v>
       </c>
       <c r="N94" s="32" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="O94" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P94" s="28" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="Q94" s="32" t="s">
         <v>826</v>
@@ -11856,7 +11867,7 @@
         <v>828</v>
       </c>
       <c r="K95" s="32" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="L95" s="28"/>
       <c r="M95" s="28"/>
@@ -11890,13 +11901,13 @@
         <v>45010</v>
       </c>
       <c r="G96" s="27" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="H96" s="27" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="I96" s="27" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="J96" s="32" t="s">
         <v>488</v>
@@ -11909,13 +11920,13 @@
         <v>488</v>
       </c>
       <c r="N96" s="32" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="O96" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P96" s="28" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="Q96" s="32" t="s">
         <v>826</v>
@@ -11946,13 +11957,13 @@
         <v>45010</v>
       </c>
       <c r="G97" s="27" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="H97" s="27" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="I97" s="27" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="J97" s="32" t="s">
         <v>488</v>
@@ -11965,13 +11976,13 @@
         <v>488</v>
       </c>
       <c r="N97" s="32" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="O97" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P97" s="28" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="Q97" s="32" t="s">
         <v>826</v>
@@ -12186,7 +12197,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="23">
         <v>250</v>
       </c>
@@ -12458,7 +12469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="23">
         <v>266</v>
       </c>
@@ -12730,7 +12741,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="23">
         <v>282</v>
       </c>
@@ -12798,7 +12809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="23">
         <v>288</v>
       </c>
@@ -12818,13 +12829,13 @@
         <v>45014</v>
       </c>
       <c r="G122" s="27" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="H122" s="27" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="I122" s="27" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="J122" s="28" t="s">
         <v>488</v>
@@ -12868,13 +12879,13 @@
         <v>45014</v>
       </c>
       <c r="G123" s="27" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="H123" s="27" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="I123" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J123" s="28" t="s">
         <v>488</v>
@@ -12887,13 +12898,13 @@
         <v>488</v>
       </c>
       <c r="N123" s="28" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="O123" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P123" s="28" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="Q123" s="28" t="s">
         <v>826</v>
@@ -12924,13 +12935,13 @@
         <v>45014</v>
       </c>
       <c r="G124" s="27" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="H124" s="27" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="I124" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J124" s="28" t="s">
         <v>488</v>
@@ -12943,13 +12954,13 @@
         <v>488</v>
       </c>
       <c r="N124" s="28" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="O124" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P124" s="28" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="Q124" s="28" t="s">
         <v>826</v>
@@ -12980,13 +12991,13 @@
         <v>45014</v>
       </c>
       <c r="G125" s="27" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="H125" s="27" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="I125" s="27" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="J125" s="28" t="s">
         <v>488</v>
@@ -13003,7 +13014,7 @@
         <v>828</v>
       </c>
       <c r="P125" s="28" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="Q125" s="28" t="s">
         <v>826</v>
@@ -13034,13 +13045,13 @@
         <v>45014</v>
       </c>
       <c r="G126" s="27" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="H126" s="27" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="I126" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J126" s="28" t="s">
         <v>488</v>
@@ -13053,13 +13064,13 @@
         <v>488</v>
       </c>
       <c r="N126" s="28" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="O126" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P126" s="28" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="Q126" s="28" t="s">
         <v>826</v>
@@ -13090,13 +13101,13 @@
         <v>45014</v>
       </c>
       <c r="G127" s="27" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="I127" s="27" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="J127" s="28" t="s">
         <v>488</v>
@@ -13109,13 +13120,13 @@
         <v>828</v>
       </c>
       <c r="N127" s="28" t="s">
-        <v>1095</v>
+        <v>1080</v>
       </c>
       <c r="O127" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P127" s="28" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="Q127" s="28" t="s">
         <v>826</v>
@@ -13126,7 +13137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="23">
         <v>298</v>
       </c>
@@ -13146,13 +13157,13 @@
         <v>45014</v>
       </c>
       <c r="G128" s="27" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="H128" s="27" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="I128" s="27" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="J128" s="28" t="s">
         <v>488</v>
@@ -13165,13 +13176,13 @@
         <v>828</v>
       </c>
       <c r="N128" s="44" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
       <c r="O128" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P128" s="28" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="Q128" s="28" t="s">
         <v>826</v>
@@ -13202,13 +13213,13 @@
         <v>45014</v>
       </c>
       <c r="G129" s="27" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="I129" s="27" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="J129" s="28" t="s">
         <v>488</v>
@@ -13221,13 +13232,13 @@
         <v>828</v>
       </c>
       <c r="N129" s="28" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
       <c r="O129" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P129" s="28" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="Q129" s="28" t="s">
         <v>826</v>
@@ -13442,7 +13453,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="23">
         <v>314</v>
       </c>
@@ -13666,13 +13677,13 @@
         <v>45010</v>
       </c>
       <c r="G142" s="27" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="H142" s="27" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="I142" s="27" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="J142" s="32" t="s">
         <v>488</v>
@@ -13685,13 +13696,13 @@
         <v>488</v>
       </c>
       <c r="N142" s="32" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="O142" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P142" s="28" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="Q142" s="32" t="s">
         <v>826</v>
@@ -13722,13 +13733,13 @@
         <v>45010</v>
       </c>
       <c r="G143" s="27" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="H143" s="27" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="I143" s="27" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="J143" s="28" t="s">
         <v>488</v>
@@ -13741,13 +13752,13 @@
         <v>488</v>
       </c>
       <c r="N143" s="32" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="O143" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P143" s="28" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="Q143" s="32" t="s">
         <v>826</v>
@@ -13982,13 +13993,13 @@
         <v>45014</v>
       </c>
       <c r="G150" s="27" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="H150" s="27" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="I150" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J150" s="28" t="s">
         <v>488</v>
@@ -14001,13 +14012,13 @@
         <v>488</v>
       </c>
       <c r="N150" s="28" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="O150" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P150" s="28" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="Q150" s="28" t="s">
         <v>826</v>
@@ -14038,13 +14049,13 @@
         <v>45014</v>
       </c>
       <c r="G151" s="27" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="I151" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J151" s="28" t="s">
         <v>488</v>
@@ -14057,13 +14068,13 @@
         <v>488</v>
       </c>
       <c r="N151" s="28" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="O151" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P151" s="28" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="Q151" s="28" t="s">
         <v>826</v>
@@ -14142,7 +14153,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="23">
         <v>193</v>
       </c>
@@ -14176,7 +14187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="23">
         <v>206</v>
       </c>
@@ -14210,7 +14221,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="23">
         <v>209</v>
       </c>
@@ -14244,7 +14255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="23">
         <v>222</v>
       </c>
@@ -14302,7 +14313,7 @@
         <v>828</v>
       </c>
       <c r="K158" s="32" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="L158" s="28"/>
       <c r="M158" s="28"/>
@@ -14340,7 +14351,7 @@
         <v>828</v>
       </c>
       <c r="K159" s="32" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="L159" s="28"/>
       <c r="M159" s="28"/>
@@ -14354,7 +14365,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:20" ht="290.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="23">
         <v>241</v>
       </c>
@@ -14388,7 +14399,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="23">
         <v>254</v>
       </c>
@@ -14422,7 +14433,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:20" ht="290.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="23">
         <v>257</v>
       </c>
@@ -14456,7 +14467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="23">
         <v>270</v>
       </c>
@@ -14490,7 +14501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="23">
         <v>273</v>
       </c>
@@ -14524,7 +14535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="23">
         <v>286</v>
       </c>
@@ -14558,7 +14569,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="23">
         <v>289</v>
       </c>
@@ -14578,13 +14589,13 @@
         <v>45014</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="H166" s="27" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
       <c r="I166" s="27" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="J166" s="28" t="s">
         <v>488</v>
@@ -14604,13 +14615,13 @@
       </c>
       <c r="R166" s="29"/>
       <c r="S166" s="30" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="T166" s="31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="23">
         <v>302</v>
       </c>
@@ -14630,13 +14641,13 @@
         <v>45035</v>
       </c>
       <c r="G167" s="27" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="H167" s="27" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="I167" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J167" s="28" t="s">
         <v>488</v>
@@ -14649,13 +14660,13 @@
         <v>488</v>
       </c>
       <c r="N167" s="28" t="s">
-        <v>1115</v>
+        <v>1100</v>
       </c>
       <c r="O167" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P167" s="28" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
       <c r="Q167" s="28" t="s">
         <v>826</v>
@@ -14666,7 +14677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="23">
         <v>305</v>
       </c>
@@ -14700,7 +14711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="23">
         <v>318</v>
       </c>
@@ -14734,7 +14745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="23">
         <v>322</v>
       </c>
@@ -14768,7 +14779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="23">
         <v>323</v>
       </c>
@@ -14802,7 +14813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="23">
         <v>326</v>
       </c>
@@ -14836,7 +14847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="23">
         <v>327</v>
       </c>
@@ -14894,7 +14905,7 @@
         <v>828</v>
       </c>
       <c r="K174" s="32" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="L174" s="28"/>
       <c r="M174" s="28"/>
@@ -14932,7 +14943,7 @@
         <v>828</v>
       </c>
       <c r="K175" s="28" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="L175" s="28"/>
       <c r="M175" s="28"/>
@@ -14946,7 +14957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="23">
         <v>334</v>
       </c>
@@ -14980,7 +14991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="23">
         <v>335</v>
       </c>
@@ -15014,7 +15025,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="23">
         <v>338</v>
       </c>
@@ -15048,7 +15059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="23">
         <v>339</v>
       </c>
@@ -15082,7 +15093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="23">
         <v>342</v>
       </c>
@@ -15116,7 +15127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="23">
         <v>343</v>
       </c>
@@ -15150,7 +15161,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="23">
         <v>346</v>
       </c>
@@ -15170,13 +15181,13 @@
         <v>45033</v>
       </c>
       <c r="G182" s="27" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="H182" s="34" t="s">
-        <v>1107</v>
+        <v>1092</v>
       </c>
       <c r="I182" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J182" s="28" t="s">
         <v>488</v>
@@ -15189,13 +15200,13 @@
         <v>488</v>
       </c>
       <c r="N182" s="28" t="s">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="O182" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P182" s="28" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="Q182" s="28" t="s">
         <v>826</v>
@@ -15206,7 +15217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="23">
         <v>347</v>
       </c>
@@ -15226,13 +15237,13 @@
         <v>45014</v>
       </c>
       <c r="G183" s="27" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="H183" s="27" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="I183" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J183" s="28" t="s">
         <v>488</v>
@@ -15245,26 +15256,26 @@
         <v>488</v>
       </c>
       <c r="N183" s="28" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="O183" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P183" s="28" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="Q183" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R183" s="29"/>
       <c r="S183" s="30" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="T183" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="23">
         <v>350</v>
       </c>
@@ -15298,7 +15309,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="23">
         <v>351</v>
       </c>
@@ -15662,7 +15673,7 @@
         <v>828</v>
       </c>
       <c r="K195" s="32" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="L195" s="28"/>
       <c r="M195" s="28"/>
@@ -15700,7 +15711,7 @@
         <v>828</v>
       </c>
       <c r="K196" s="28" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="L196" s="28"/>
       <c r="M196" s="28"/>
@@ -15734,13 +15745,13 @@
         <v>45012</v>
       </c>
       <c r="G197" s="27" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="H197" s="27" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="I197" s="27" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="J197" s="28" t="s">
         <v>488</v>
@@ -15753,13 +15764,13 @@
         <v>488</v>
       </c>
       <c r="N197" s="32" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="O197" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P197" s="28" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="Q197" s="28" t="s">
         <v>826</v>
@@ -15790,13 +15801,13 @@
         <v>45012</v>
       </c>
       <c r="G198" s="27" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="H198" s="27" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="I198" s="27" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="J198" s="28" t="s">
         <v>488</v>
@@ -15809,13 +15820,13 @@
         <v>488</v>
       </c>
       <c r="N198" s="32" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="O198" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P198" s="28" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="Q198" s="28" t="s">
         <v>826</v>
@@ -16336,7 +16347,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="23">
         <v>224</v>
       </c>
@@ -16356,13 +16367,13 @@
         <v>45012</v>
       </c>
       <c r="G214" s="27" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="H214" s="37" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="I214" s="27" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="J214" s="28" t="s">
         <v>488</v>
@@ -16406,13 +16417,13 @@
         <v>45015</v>
       </c>
       <c r="G215" s="27" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="H215" s="27" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="I215" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J215" s="28" t="s">
         <v>488</v>
@@ -16425,13 +16436,13 @@
         <v>488</v>
       </c>
       <c r="N215" s="26" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="O215" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P215" s="28" t="s">
-        <v>1117</v>
+        <v>1102</v>
       </c>
       <c r="Q215" s="28" t="s">
         <v>826</v>
@@ -16646,7 +16657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="23">
         <v>225</v>
       </c>
@@ -16666,13 +16677,13 @@
         <v>45012</v>
       </c>
       <c r="G222" s="27" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="H222" s="27" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="I222" s="27" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="J222" s="28" t="s">
         <v>488</v>
@@ -16716,13 +16727,13 @@
         <v>45015</v>
       </c>
       <c r="G223" s="27" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="H223" s="27" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="I223" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J223" s="28" t="s">
         <v>488</v>
@@ -16735,13 +16746,13 @@
         <v>488</v>
       </c>
       <c r="N223" s="28" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="O223" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P223" s="28" t="s">
-        <v>1117</v>
+        <v>1102</v>
       </c>
       <c r="Q223" s="28" t="s">
         <v>826</v>
@@ -16982,13 +16993,13 @@
         <v>45022</v>
       </c>
       <c r="G230" s="27" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
       <c r="H230" s="34" t="s">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="I230" s="34" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="J230" s="28" t="s">
         <v>488</v>
@@ -17040,7 +17051,7 @@
       <c r="N231" s="28"/>
       <c r="O231" s="28"/>
       <c r="P231" s="28" t="s">
-        <v>1076</v>
+        <v>1061</v>
       </c>
       <c r="Q231" s="28" t="s">
         <v>826</v>
@@ -17961,13 +17972,13 @@
         <v>45012</v>
       </c>
       <c r="G258" s="27" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="H258" s="27" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="I258" s="27" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="J258" s="28" t="s">
         <v>488</v>
@@ -18011,13 +18022,13 @@
         <v>45013</v>
       </c>
       <c r="G259" s="27" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="H259" s="27" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="I259" s="27" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="J259" s="28" t="s">
         <v>488</v>
@@ -18061,13 +18072,13 @@
         <v>45012</v>
       </c>
       <c r="G260" s="27" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="H260" s="34" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="I260" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J260" s="28" t="s">
         <v>488</v>
@@ -18080,13 +18091,13 @@
         <v>488</v>
       </c>
       <c r="N260" s="34" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="O260" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P260" s="28" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="Q260" s="28" t="s">
         <v>826</v>
@@ -18117,13 +18128,13 @@
         <v>45012</v>
       </c>
       <c r="G261" s="27" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="H261" s="27" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="I261" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J261" s="28" t="s">
         <v>488</v>
@@ -18136,13 +18147,13 @@
         <v>488</v>
       </c>
       <c r="N261" s="28" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="O261" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P261" s="28" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="Q261" s="28" t="s">
         <v>826</v>
@@ -18173,13 +18184,13 @@
         <v>45012</v>
       </c>
       <c r="G262" s="27" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="H262" s="27" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="I262" s="27" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="J262" s="28" t="s">
         <v>488</v>
@@ -18192,20 +18203,20 @@
         <v>828</v>
       </c>
       <c r="N262" s="28" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="O262" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P262" s="28" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="Q262" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R262" s="29"/>
       <c r="S262" s="38" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="T262" s="31" t="s">
         <v>51</v>
@@ -18231,13 +18242,13 @@
         <v>45012</v>
       </c>
       <c r="G263" s="27" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="H263" s="27" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="I263" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J263" s="28" t="s">
         <v>488</v>
@@ -18250,13 +18261,13 @@
         <v>488</v>
       </c>
       <c r="N263" s="32" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="O263" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P263" s="28" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="Q263" s="28" t="s">
         <v>826</v>
@@ -18287,13 +18298,13 @@
         <v>45012</v>
       </c>
       <c r="G264" s="27" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="H264" s="27" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="I264" s="27" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="J264" s="28" t="s">
         <v>488</v>
@@ -18306,26 +18317,26 @@
         <v>828</v>
       </c>
       <c r="N264" s="28" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="O264" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P264" s="28" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="Q264" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R264" s="29"/>
       <c r="S264" s="38" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="T264" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="23">
         <v>234</v>
       </c>
@@ -18345,13 +18356,13 @@
         <v>45013</v>
       </c>
       <c r="G265" s="27" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="H265" s="27" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="I265" s="27" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="J265" s="28" t="s">
         <v>488</v>
@@ -18364,20 +18375,20 @@
         <v>828</v>
       </c>
       <c r="N265" s="28" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="O265" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P265" s="28" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="Q265" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R265" s="29"/>
       <c r="S265" s="30" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="T265" s="31" t="s">
         <v>51</v>
@@ -18403,13 +18414,13 @@
         <v>45013</v>
       </c>
       <c r="G266" s="27" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="H266" s="27" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="I266" s="27" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="J266" s="28" t="s">
         <v>488</v>
@@ -18422,26 +18433,26 @@
         <v>828</v>
       </c>
       <c r="N266" s="28" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="O266" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P266" s="28" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="Q266" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R266" s="29"/>
       <c r="S266" s="30" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="T266" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="23">
         <v>236</v>
       </c>
@@ -18461,13 +18472,13 @@
         <v>45012</v>
       </c>
       <c r="G267" s="27" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="H267" s="27" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="I267" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J267" s="28" t="s">
         <v>488</v>
@@ -18480,13 +18491,13 @@
         <v>488</v>
       </c>
       <c r="N267" s="28" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="O267" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P267" s="28" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="Q267" s="28" t="s">
         <v>826</v>
@@ -18517,13 +18528,13 @@
         <v>45022</v>
       </c>
       <c r="G268" s="27" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="H268" s="34" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="I268" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J268" s="28" t="s">
         <v>488</v>
@@ -18536,13 +18547,13 @@
         <v>488</v>
       </c>
       <c r="N268" s="28" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="O268" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P268" s="28" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="Q268" s="28" t="s">
         <v>826</v>
@@ -18553,7 +18564,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="23">
         <v>238</v>
       </c>
@@ -18573,13 +18584,13 @@
         <v>45035</v>
       </c>
       <c r="G269" s="27" t="s">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="H269" s="34" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="I269" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J269" s="28" t="s">
         <v>488</v>
@@ -18592,13 +18603,13 @@
         <v>488</v>
       </c>
       <c r="N269" s="28" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="O269" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P269" s="28" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="Q269" s="28" t="s">
         <v>826</v>
@@ -18629,13 +18640,13 @@
         <v>45023</v>
       </c>
       <c r="G270" s="27" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="H270" s="34" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="I270" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J270" s="28" t="s">
         <v>488</v>
@@ -18648,13 +18659,13 @@
         <v>488</v>
       </c>
       <c r="N270" s="28" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="O270" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P270" s="28" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="Q270" s="28" t="s">
         <v>826</v>
@@ -18685,13 +18696,13 @@
         <v>45012</v>
       </c>
       <c r="G271" s="27" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="H271" s="27" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="I271" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J271" s="28" t="s">
         <v>488</v>
@@ -18704,13 +18715,13 @@
         <v>488</v>
       </c>
       <c r="N271" s="28" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="O271" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P271" s="28" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="Q271" s="28" t="s">
         <v>826</v>
@@ -18741,13 +18752,13 @@
         <v>45023</v>
       </c>
       <c r="G272" s="27" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="H272" s="27" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="I272" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J272" s="28" t="s">
         <v>488</v>
@@ -18760,13 +18771,13 @@
         <v>488</v>
       </c>
       <c r="N272" s="28" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="O272" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P272" s="28" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q272" s="28" t="s">
         <v>826</v>
@@ -18777,7 +18788,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="23">
         <v>330</v>
       </c>
@@ -18797,13 +18808,13 @@
         <v>45027</v>
       </c>
       <c r="G273" s="27" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
       <c r="H273" s="43" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="I273" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J273" s="28" t="s">
         <v>488</v>
@@ -18816,13 +18827,13 @@
         <v>488</v>
       </c>
       <c r="N273" s="28" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="O273" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P273" s="28" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="Q273" s="28" t="s">
         <v>826</v>
@@ -18833,7 +18844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="23">
         <v>331</v>
       </c>
@@ -18853,13 +18864,13 @@
         <v>45023</v>
       </c>
       <c r="G274" s="27" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="H274" s="27" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="I274" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J274" s="28" t="s">
         <v>488</v>
@@ -18872,13 +18883,13 @@
         <v>488</v>
       </c>
       <c r="N274" s="28" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="O274" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P274" s="28" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="Q274" s="28" t="s">
         <v>826</v>
@@ -18909,13 +18920,13 @@
         <v>45033</v>
       </c>
       <c r="G275" s="27" t="s">
-        <v>1102</v>
+        <v>1087</v>
       </c>
       <c r="H275" s="34" t="s">
-        <v>1103</v>
+        <v>1088</v>
       </c>
       <c r="I275" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J275" s="28" t="s">
         <v>488</v>
@@ -18928,13 +18939,13 @@
         <v>488</v>
       </c>
       <c r="N275" s="28" t="s">
-        <v>1104</v>
+        <v>1089</v>
       </c>
       <c r="O275" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P275" s="28" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="Q275" s="28" t="s">
         <v>826</v>
@@ -18965,13 +18976,13 @@
         <v>45031</v>
       </c>
       <c r="G276" s="27" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="H276" s="34" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="I276" s="27" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="J276" s="28" t="s">
         <v>488</v>
@@ -18984,13 +18995,13 @@
         <v>488</v>
       </c>
       <c r="N276" s="28" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="O276" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P276" s="28" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="Q276" s="28" t="s">
         <v>826</v>
@@ -20820,16 +20831,16 @@
         <v>687</v>
       </c>
       <c r="F330" s="26">
-        <v>45013</v>
+        <v>45055</v>
       </c>
       <c r="G330" s="27" t="s">
-        <v>1061</v>
+        <v>1115</v>
       </c>
       <c r="H330" s="27" t="s">
-        <v>1062</v>
+        <v>1116</v>
       </c>
       <c r="I330" s="27" t="s">
-        <v>1063</v>
+        <v>1117</v>
       </c>
       <c r="J330" s="28" t="s">
         <v>488</v>
@@ -20873,7 +20884,7 @@
         <v>828</v>
       </c>
       <c r="K331" s="28" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="L331" s="28"/>
       <c r="M331" s="28"/>
@@ -20911,7 +20922,7 @@
         <v>828</v>
       </c>
       <c r="K332" s="28" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="L332" s="28"/>
       <c r="M332" s="28"/>
@@ -20949,7 +20960,7 @@
         <v>828</v>
       </c>
       <c r="K333" s="28" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="L333" s="28"/>
       <c r="M333" s="28"/>
@@ -20983,13 +20994,13 @@
         <v>45013</v>
       </c>
       <c r="G334" s="27" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="H334" s="37" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="I334" s="27" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="J334" s="28" t="s">
         <v>488</v>
@@ -21002,13 +21013,13 @@
         <v>488</v>
       </c>
       <c r="N334" s="28" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="O334" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P334" s="28" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q334" s="28" t="s">
         <v>826</v>
@@ -21039,13 +21050,13 @@
         <v>45013</v>
       </c>
       <c r="G335" s="27" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="H335" s="27" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="I335" s="27" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="J335" s="28" t="s">
         <v>488</v>
@@ -21058,13 +21069,13 @@
         <v>488</v>
       </c>
       <c r="N335" s="28" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="O335" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P335" s="28" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q335" s="28" t="s">
         <v>826</v>
@@ -21095,13 +21106,13 @@
         <v>45013</v>
       </c>
       <c r="G336" s="27" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="H336" s="27" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="I336" s="27" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="J336" s="28" t="s">
         <v>488</v>
@@ -21114,13 +21125,13 @@
         <v>488</v>
       </c>
       <c r="N336" s="28" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="O336" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P336" s="28" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q336" s="28" t="s">
         <v>826</v>
@@ -21151,13 +21162,13 @@
         <v>45013</v>
       </c>
       <c r="G337" s="27" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="H337" s="27" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="I337" s="27" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="J337" s="28" t="s">
         <v>488</v>
@@ -21170,13 +21181,13 @@
         <v>488</v>
       </c>
       <c r="N337" s="28" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="O337" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P337" s="28" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q337" s="28" t="s">
         <v>826</v>
@@ -21207,13 +21218,13 @@
         <v>45013</v>
       </c>
       <c r="G338" s="27" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="H338" s="27" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="I338" s="27" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="J338" s="28" t="s">
         <v>488</v>
@@ -21226,13 +21237,13 @@
         <v>488</v>
       </c>
       <c r="N338" s="28" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="O338" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P338" s="28" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q338" s="28" t="s">
         <v>826</v>
@@ -21263,13 +21274,13 @@
         <v>45013</v>
       </c>
       <c r="G339" s="27" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="H339" s="27" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="I339" s="27" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="J339" s="28" t="s">
         <v>488</v>
@@ -21282,13 +21293,13 @@
         <v>488</v>
       </c>
       <c r="N339" s="28" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="O339" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P339" s="28" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q339" s="28" t="s">
         <v>826</v>
@@ -21323,7 +21334,7 @@
         <v>828</v>
       </c>
       <c r="K340" s="32" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="L340" s="28"/>
       <c r="M340" s="28"/>
@@ -21357,13 +21368,13 @@
         <v>45014</v>
       </c>
       <c r="G341" s="27" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="H341" s="27" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="I341" s="27" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="J341" s="28" t="s">
         <v>488</v>
@@ -21376,13 +21387,13 @@
         <v>488</v>
       </c>
       <c r="N341" s="28" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="O341" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P341" s="28" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q341" s="28" t="s">
         <v>826</v>
@@ -21413,13 +21424,13 @@
         <v>45014</v>
       </c>
       <c r="G342" s="27" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="H342" s="27" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="I342" s="27" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="J342" s="28" t="s">
         <v>488</v>
@@ -21432,13 +21443,13 @@
         <v>488</v>
       </c>
       <c r="N342" s="28" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="O342" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P342" s="28" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q342" s="28" t="s">
         <v>826</v>
@@ -21449,7 +21460,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="343" spans="1:20" s="21" customFormat="1" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="23">
         <v>160</v>
       </c>
@@ -21469,13 +21480,13 @@
         <v>45014</v>
       </c>
       <c r="G343" s="27" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="H343" s="27" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="I343" s="27" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="J343" s="28" t="s">
         <v>488</v>
@@ -21488,13 +21499,13 @@
         <v>488</v>
       </c>
       <c r="N343" s="28" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="O343" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P343" s="28" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q343" s="28" t="s">
         <v>826</v>
@@ -21525,13 +21536,13 @@
         <v>45014</v>
       </c>
       <c r="G344" s="27" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="H344" s="27" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="I344" s="27" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="J344" s="28" t="s">
         <v>488</v>
@@ -21544,13 +21555,13 @@
         <v>488</v>
       </c>
       <c r="N344" s="28" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="O344" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P344" s="28" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q344" s="28" t="s">
         <v>826</v>
@@ -21581,13 +21592,13 @@
         <v>45014</v>
       </c>
       <c r="G345" s="27" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="H345" s="27" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="I345" s="27" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="J345" s="28" t="s">
         <v>488</v>
@@ -21600,13 +21611,13 @@
         <v>488</v>
       </c>
       <c r="N345" s="28" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="O345" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P345" s="28" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q345" s="28" t="s">
         <v>826</v>
@@ -21641,7 +21652,7 @@
         <v>828</v>
       </c>
       <c r="K346" s="28" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="L346" s="28"/>
       <c r="M346" s="28"/>
@@ -21679,7 +21690,7 @@
         <v>828</v>
       </c>
       <c r="K347" s="28" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="L347" s="28"/>
       <c r="M347" s="28"/>
@@ -21717,7 +21728,7 @@
         <v>828</v>
       </c>
       <c r="K348" s="28" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="L348" s="28"/>
       <c r="M348" s="28"/>
@@ -21755,7 +21766,7 @@
         <v>828</v>
       </c>
       <c r="K349" s="28" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="L349" s="28"/>
       <c r="M349" s="28"/>
@@ -21793,7 +21804,7 @@
         <v>828</v>
       </c>
       <c r="K350" s="28" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="L350" s="28"/>
       <c r="M350" s="28"/>
@@ -21827,13 +21838,13 @@
         <v>45014</v>
       </c>
       <c r="G351" s="27" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="H351" s="26" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="I351" s="26" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="J351" s="26" t="s">
         <v>488</v>
@@ -21846,13 +21857,13 @@
         <v>488</v>
       </c>
       <c r="N351" s="26" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="O351" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P351" s="28" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q351" s="28" t="s">
         <v>826</v>
@@ -21883,13 +21894,13 @@
         <v>45014</v>
       </c>
       <c r="G352" s="26" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="H352" s="26" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="I352" s="26" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="J352" s="26" t="s">
         <v>488</v>
@@ -21902,13 +21913,13 @@
         <v>488</v>
       </c>
       <c r="N352" s="26" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="O352" s="26" t="s">
         <v>488</v>
       </c>
       <c r="P352" s="26" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="Q352" s="26" t="s">
         <v>826</v>

--- a/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.163\D_Drive\tmp\RepositoryFSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE32E53-FC34-4831-A689-5DD1A9DF13D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2AD1C-7685-4AE9-8EDD-2D8265C423D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -5310,24 +5310,6 @@
     <t>Mancato Invio a FSE. Gestito in backoffice</t>
   </si>
   <si>
-    <t>2023-05-09T11:07:07Z</t>
-  </si>
-  <si>
-    <t>e298aeed926a2e8f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.f02e119ae90b94bc94c1cbcaa5ec8bd9a5328374bf30d14eb77eb2e852a9ee25.7ba745a11b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-09T11:17:28Z</t>
-  </si>
-  <si>
-    <t>c11b33a1d16382c9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.bb5d2023458b0f49a993132451ba324414f01e3527713c570cb2a8d77b83bc46.399ef836be^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-05-09T11:21:48Z</t>
   </si>
   <si>
@@ -5346,13 +5328,31 @@
     <t>Errore 403: Campo token JWT non valido. Il campo action_id non è corretto</t>
   </si>
   <si>
-    <t>2023-05-09T11:32:23Z</t>
-  </si>
-  <si>
-    <t>0747b70516dae93a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.6b5a81c9c7d7f8e6a15b539e4cafd1878728df60a054218a5f5b866a20f46ad2.1c82bd6cc4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-05-11T12:07:07Z</t>
+  </si>
+  <si>
+    <t>f41a6eda21f7f0cf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.4c33ed9800b3a644e5dba5c93b19657747d608f82ee2f9e7440000d729dacf88.5dca9c7cf3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-11T12:27:45Z</t>
+  </si>
+  <si>
+    <t>576f5986cf24105c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.7187842f4612b0625de53a51e8eb67fb300bc0db749ea1c0461a6715ea1d9bee.058cfd2e07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-11T14:50:51Z</t>
+  </si>
+  <si>
+    <t>9dda526eec565c69</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.e110c92e94948a859dd64ae68f72e73e512046f9d0241b82496a0b8d154e6a8e.3ed2463a91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -8730,16 +8730,16 @@
         <v>424</v>
       </c>
       <c r="F14" s="26">
-        <v>45055</v>
+        <v>45057</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>488</v>
@@ -8780,16 +8780,16 @@
         <v>426</v>
       </c>
       <c r="F15" s="26">
-        <v>45055</v>
+        <v>45057</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>488</v>
@@ -8813,7 +8813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23">
         <v>242</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23">
         <v>253</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>258</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23">
         <v>269</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23">
         <v>358</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="23">
         <v>359</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="23">
         <v>360</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="23">
         <v>361</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="23">
         <v>204</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="23">
         <v>220</v>
       </c>
@@ -9947,10 +9947,10 @@
         <v>45055</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="I46" s="27" t="s">
         <v>848</v>
@@ -9966,7 +9966,7 @@
         <v>488</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="O46" s="28" t="s">
         <v>488</v>
@@ -10003,10 +10003,10 @@
         <v>45055</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="I47" s="27" t="s">
         <v>848</v>
@@ -10022,7 +10022,7 @@
         <v>488</v>
       </c>
       <c r="N47" s="34" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="O47" s="28" t="s">
         <v>488</v>
@@ -10073,7 +10073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="23">
         <v>252</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="23">
         <v>268</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="23">
         <v>284</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="23">
         <v>300</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="23">
         <v>316</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="23">
         <v>202</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="23">
         <v>208</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="23">
         <v>218</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="23">
         <v>77</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="23">
         <v>250</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="23">
         <v>266</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="23">
         <v>282</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="23">
         <v>288</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="23">
         <v>298</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="23">
         <v>314</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="23">
         <v>193</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="23">
         <v>206</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="23">
         <v>209</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="23">
         <v>222</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="290.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="23">
         <v>241</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="23">
         <v>254</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="290.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="23">
         <v>257</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="23">
         <v>270</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="23">
         <v>273</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="23">
         <v>286</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="23">
         <v>289</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="23">
         <v>302</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="23">
         <v>305</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="23">
         <v>318</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="23">
         <v>322</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="23">
         <v>323</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="23">
         <v>326</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="23">
         <v>327</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="23">
         <v>334</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="23">
         <v>335</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="23">
         <v>338</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="23">
         <v>339</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="23">
         <v>342</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="23">
         <v>343</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="23">
         <v>346</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="23">
         <v>347</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="23">
         <v>350</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="23">
         <v>351</v>
       </c>
@@ -16347,7 +16347,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="23">
         <v>224</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="23">
         <v>225</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="23">
         <v>234</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="23">
         <v>236</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="23">
         <v>238</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="23">
         <v>330</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="23">
         <v>331</v>
       </c>
@@ -20831,7 +20831,7 @@
         <v>687</v>
       </c>
       <c r="F330" s="26">
-        <v>45055</v>
+        <v>45057</v>
       </c>
       <c r="G330" s="27" t="s">
         <v>1115</v>
@@ -21460,7 +21460,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="343" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:20" s="21" customFormat="1" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="23">
         <v>160</v>
       </c>

--- a/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.163\D_Drive\tmp\RepositoryFSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A2AD1C-7685-4AE9-8EDD-2D8265C423D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D771290-0E6E-4B78-870D-C8997BC01C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -5337,22 +5337,22 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.4c33ed9800b3a644e5dba5c93b19657747d608f82ee2f9e7440000d729dacf88.5dca9c7cf3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-05-11T12:27:45Z</t>
-  </si>
-  <si>
-    <t>576f5986cf24105c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.7187842f4612b0625de53a51e8eb67fb300bc0db749ea1c0461a6715ea1d9bee.058cfd2e07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-11T14:50:51Z</t>
-  </si>
-  <si>
-    <t>9dda526eec565c69</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.e110c92e94948a859dd64ae68f72e73e512046f9d0241b82496a0b8d154e6a8e.3ed2463a91^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-05-16T09:53:45Z</t>
+  </si>
+  <si>
+    <t>18af7c9d63a24a25</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.9ce9bf2e676693602146930bed6a6a988a61c28fa054aedff11202395c09fc44.34eff48263^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-16T09:59:36Z</t>
+  </si>
+  <si>
+    <t>3330bf287d3a27eb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.3feb80e08f25a65b3bea91355a75c064b7f4ed00f3708cf96b622bf201eb4272.b25096cfae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -8780,7 +8780,7 @@
         <v>426</v>
       </c>
       <c r="F15" s="26">
-        <v>45057</v>
+        <v>45062</v>
       </c>
       <c r="G15" s="27" t="s">
         <v>1112</v>
@@ -8813,7 +8813,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23">
         <v>242</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23">
         <v>253</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>258</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23">
         <v>269</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23">
         <v>358</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="23">
         <v>359</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="23">
         <v>360</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="23">
         <v>361</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="23">
         <v>204</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="23">
         <v>220</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="23">
         <v>252</v>
       </c>
@@ -10141,7 +10141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="23">
         <v>268</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="23">
         <v>284</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="23">
         <v>300</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="116.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" ht="131" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="23">
         <v>316</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="23">
         <v>202</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="160" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:20" ht="174.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="23">
         <v>208</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="23">
         <v>218</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="23">
         <v>77</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="23">
         <v>250</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="23">
         <v>266</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="23">
         <v>282</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="23">
         <v>288</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="23">
         <v>298</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="23">
         <v>314</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="23">
         <v>193</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="23">
         <v>206</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="23">
         <v>209</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="23">
         <v>222</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:20" ht="290.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="23">
         <v>241</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="23">
         <v>254</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:20" ht="290.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="23">
         <v>257</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:20" ht="276" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="23">
         <v>270</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="23">
         <v>273</v>
       </c>
@@ -14535,7 +14535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="23">
         <v>286</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="23">
         <v>289</v>
       </c>
@@ -14621,7 +14621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="23">
         <v>302</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="23">
         <v>305</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:20" ht="261.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="23">
         <v>318</v>
       </c>
@@ -14745,7 +14745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="23">
         <v>322</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="23">
         <v>323</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="23">
         <v>326</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="23">
         <v>327</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="23">
         <v>334</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="23">
         <v>335</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="23">
         <v>338</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:20" ht="247" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="23">
         <v>339</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="23">
         <v>342</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="23">
         <v>343</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="23">
         <v>346</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="23">
         <v>347</v>
       </c>
@@ -15275,7 +15275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="189" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:20" ht="203.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="23">
         <v>350</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="218" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:20" ht="232.5" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="23">
         <v>351</v>
       </c>
@@ -16347,7 +16347,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="160" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:20" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="23">
         <v>224</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="247" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="23">
         <v>225</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="23">
         <v>234</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="23">
         <v>236</v>
       </c>
@@ -18564,7 +18564,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:20" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="23">
         <v>238</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:20" ht="203.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="23">
         <v>330</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="218" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:20" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="23">
         <v>331</v>
       </c>
@@ -20831,7 +20831,7 @@
         <v>687</v>
       </c>
       <c r="F330" s="26">
-        <v>45057</v>
+        <v>45062</v>
       </c>
       <c r="G330" s="27" t="s">
         <v>1115</v>
@@ -21460,7 +21460,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="343" spans="1:20" s="21" customFormat="1" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="23">
         <v>160</v>
       </c>

--- a/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
+++ b/GATEWAY/A1#111SYNLABXXXXX/Synlab_SDN/Sdn.Net/1.1.0.0/accreditamento-checklist_V8.1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.163\D_Drive\tmp\RepositoryFSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D771290-0E6E-4B78-870D-C8997BC01C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77B7B97-2032-4D2E-B26E-EAED5045C01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="1120">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4500,9 +4500,6 @@
     <t>subject_application_version: 1.1.0.0</t>
   </si>
   <si>
-    <t>L'errore di timeout è gestito dal software</t>
-  </si>
-  <si>
     <t>L'applicativo non gestisce le sezioni opzionali "Allergie", "Precedenti_esami_eseguiti",</t>
   </si>
   <si>
@@ -5166,12 +5163,6 @@
     <t>Mancato invio a FSE</t>
   </si>
   <si>
-    <t>Mancato invio a FSE.Gestione errore in backoffice</t>
-  </si>
-  <si>
-    <t>Mancato invio a FSE.Gestione errore da backoffice</t>
-  </si>
-  <si>
     <t>Mancato invio a FSE.Gestito in backoffice</t>
   </si>
   <si>
@@ -5184,9 +5175,6 @@
     <t>15e2b0d3c33891ebb0f1ef609ec419420c20e320ce94c65fbc8c3312448eb225.de5cb5e891^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>In caso di Timeout il sistema fornisce errore e bypassa il referto provando l'invio successivamente</t>
-  </si>
-  <si>
     <t>Errore di Hash errato</t>
   </si>
   <si>
@@ -5307,9 +5295,6 @@
     <t>Mancato invio a FSE. Gestito in backoffice</t>
   </si>
   <si>
-    <t>Mancato Invio a FSE. Gestito in backoffice</t>
-  </si>
-  <si>
     <t>2023-05-09T11:21:48Z</t>
   </si>
   <si>
@@ -5353,6 +5338,27 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.3feb80e08f25a65b3bea91355a75c064b7f4ed00f3708cf96b622bf201eb4272.b25096cfae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Mancato invio a FSE. Gestito in backoffice. Il software presenta una sezione dove l'operatore può modificare il campo errato e risottomettere il referto a FSE</t>
+  </si>
+  <si>
+    <t>Mancato invio a FSE. Gestito in backoffice. Il software presenta una sezione dove l'operatore può inserire il campo mancante e risottomettere il referto a FSE</t>
+  </si>
+  <si>
+    <t>Mancato invio a FSE.Gestione errore in backoffice.L'operatore preposto effettuerà la modifica  nella sezione apposita del software e il medico si occuperà di rifirmarlo per poi essere risottomesso a FSE</t>
+  </si>
+  <si>
+    <t>Mancato invio a FSE. Gestito in backoffice. Il software presenta una sezione dove l'operatore può inserire il campo errato e risottomettere il referto a FSE</t>
+  </si>
+  <si>
+    <t>Mancato invio a FSE.Gestione errore in backoffice.L'operatore preposto effettuerà l'inserimento  nella sezione apposita del software e il medico si occuperà di rifirmarlo per poi essere risottomesso a FSE</t>
+  </si>
+  <si>
+    <t>In caso di Timeout il sistema fornisce errore e bypassa il referto provando l'invio successivamente in maniera automatica</t>
+  </si>
+  <si>
+    <t>Mancato invio a FSE.Gestione errore in backoffice. L'operatore di backoffice, tramite apposita schermata del software, effettua la correzione del campo(secondo quanto indicato dal medico) per poi far rifirmare il referto e risottometterlo manualmente a FSE</t>
   </si>
 </sst>
 </file>
@@ -8323,7 +8329,7 @@
   <dimension ref="A1:T992"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I330" sqref="I330"/>
+      <selection activeCell="Q91" sqref="Q91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8733,13 +8739,13 @@
         <v>45057</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>488</v>
@@ -8783,13 +8789,13 @@
         <v>45062</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>488</v>
@@ -9037,13 +9043,13 @@
         <v>45016</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I22" s="27" t="s">
         <v>1038</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>1039</v>
       </c>
       <c r="J22" s="28" t="s">
         <v>488</v>
@@ -9087,13 +9093,13 @@
         <v>45016</v>
       </c>
       <c r="G23" s="27" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H23" s="27" t="s">
         <v>1040</v>
       </c>
-      <c r="H23" s="27" t="s">
-        <v>1041</v>
-      </c>
       <c r="I23" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J23" s="28" t="s">
         <v>488</v>
@@ -9106,13 +9112,13 @@
         <v>488</v>
       </c>
       <c r="N23" s="28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O23" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P23" s="28" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q23" s="28" t="s">
         <v>826</v>
@@ -9351,7 +9357,7 @@
         <v>828</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -9389,7 +9395,7 @@
         <v>828</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
@@ -9425,7 +9431,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="28"/>
       <c r="K32" s="33" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -9461,7 +9467,7 @@
       <c r="I33" s="27"/>
       <c r="J33" s="28"/>
       <c r="K33" s="33" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -9631,13 +9637,13 @@
         <v>45033</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J38" s="28" t="s">
         <v>488</v>
@@ -9650,13 +9656,13 @@
         <v>828</v>
       </c>
       <c r="N38" s="28" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="O38" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P38" s="28" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Q38" s="28" t="s">
         <v>826</v>
@@ -9687,13 +9693,13 @@
         <v>45022</v>
       </c>
       <c r="G39" s="27" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H39" s="27" t="s">
         <v>1052</v>
       </c>
-      <c r="H39" s="27" t="s">
-        <v>1053</v>
-      </c>
       <c r="I39" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J39" s="28" t="s">
         <v>488</v>
@@ -9706,13 +9712,13 @@
         <v>488</v>
       </c>
       <c r="N39" s="28" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O39" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="Q39" s="28" t="s">
         <v>826</v>
@@ -9947,13 +9953,13 @@
         <v>45055</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J46" s="28" t="s">
         <v>488</v>
@@ -9966,13 +9972,13 @@
         <v>488</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="O46" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P46" s="28" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
       <c r="Q46" s="28" t="s">
         <v>826</v>
@@ -10003,13 +10009,13 @@
         <v>45055</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J47" s="28" t="s">
         <v>488</v>
@@ -10022,13 +10028,13 @@
         <v>488</v>
       </c>
       <c r="N47" s="34" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="O47" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P47" s="28" t="s">
-        <v>1101</v>
+        <v>1113</v>
       </c>
       <c r="Q47" s="32" t="s">
         <v>826</v>
@@ -10263,13 +10269,13 @@
         <v>45016</v>
       </c>
       <c r="G54" s="27" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H54" s="27" t="s">
         <v>1031</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="I54" s="27" t="s">
         <v>1032</v>
-      </c>
-      <c r="I54" s="27" t="s">
-        <v>1033</v>
       </c>
       <c r="J54" s="28" t="s">
         <v>488</v>
@@ -10309,13 +10315,13 @@
         <v>45016</v>
       </c>
       <c r="G55" s="27" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H55" s="27" t="s">
         <v>1034</v>
       </c>
-      <c r="H55" s="27" t="s">
-        <v>1035</v>
-      </c>
       <c r="I55" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J55" s="28" t="s">
         <v>488</v>
@@ -10328,13 +10334,13 @@
         <v>488</v>
       </c>
       <c r="N55" s="28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O55" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P55" s="28" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="Q55" s="28" t="s">
         <v>826</v>
@@ -10549,7 +10555,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="23">
         <v>47</v>
       </c>
@@ -10569,23 +10575,27 @@
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="28"/>
+      <c r="J62" s="28" t="s">
+        <v>488</v>
+      </c>
       <c r="K62" s="28"/>
       <c r="L62" s="28"/>
       <c r="M62" s="28"/>
       <c r="N62" s="28"/>
       <c r="O62" s="28"/>
-      <c r="P62" s="32" t="s">
-        <v>833</v>
-      </c>
-      <c r="Q62" s="28"/>
+      <c r="P62" s="28" t="s">
+        <v>1118</v>
+      </c>
+      <c r="Q62" s="28" t="s">
+        <v>826</v>
+      </c>
       <c r="R62" s="29"/>
       <c r="S62" s="30"/>
       <c r="T62" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:20" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="23">
         <v>75</v>
       </c>
@@ -10605,13 +10615,13 @@
         <v>45009</v>
       </c>
       <c r="G63" s="35" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I63" s="27" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J63" s="32" t="s">
         <v>488</v>
@@ -10624,13 +10634,13 @@
         <v>488</v>
       </c>
       <c r="N63" s="32" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="O63" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P63" s="28" t="s">
-        <v>1054</v>
+        <v>1119</v>
       </c>
       <c r="Q63" s="32" t="s">
         <v>826</v>
@@ -10865,13 +10875,13 @@
         <v>45016</v>
       </c>
       <c r="G70" s="27" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H70" s="27" t="s">
         <v>1043</v>
       </c>
-      <c r="H70" s="27" t="s">
+      <c r="I70" s="27" t="s">
         <v>1044</v>
-      </c>
-      <c r="I70" s="27" t="s">
-        <v>1045</v>
       </c>
       <c r="J70" s="28" t="s">
         <v>488</v>
@@ -10915,13 +10925,13 @@
         <v>45016</v>
       </c>
       <c r="G71" s="27" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H71" s="27" t="s">
         <v>1046</v>
       </c>
-      <c r="H71" s="27" t="s">
-        <v>1047</v>
-      </c>
       <c r="I71" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J71" s="28" t="s">
         <v>488</v>
@@ -10934,13 +10944,13 @@
         <v>488</v>
       </c>
       <c r="N71" s="28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O71" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P71" s="28" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="Q71" s="28" t="s">
         <v>826</v>
@@ -11583,13 +11593,13 @@
         <v>45009</v>
       </c>
       <c r="G90" s="35" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H90" s="27" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="I90" s="27" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J90" s="32" t="s">
         <v>488</v>
@@ -11602,13 +11612,13 @@
         <v>488</v>
       </c>
       <c r="N90" s="32" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="O90" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P90" s="28" t="s">
-        <v>1055</v>
+        <v>1115</v>
       </c>
       <c r="Q90" s="32" t="s">
         <v>826</v>
@@ -11639,13 +11649,13 @@
         <v>45009</v>
       </c>
       <c r="G91" s="27" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H91" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="I91" s="27" t="s">
         <v>844</v>
-      </c>
-      <c r="I91" s="27" t="s">
-        <v>845</v>
       </c>
       <c r="J91" s="32" t="s">
         <v>488</v>
@@ -11658,13 +11668,13 @@
         <v>488</v>
       </c>
       <c r="N91" s="32" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="O91" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P91" s="28" t="s">
-        <v>1055</v>
+        <v>1119</v>
       </c>
       <c r="Q91" s="32" t="s">
         <v>826</v>
@@ -11695,13 +11705,13 @@
         <v>45010</v>
       </c>
       <c r="G92" s="27" t="s">
+        <v>849</v>
+      </c>
+      <c r="H92" s="27" t="s">
         <v>850</v>
       </c>
-      <c r="H92" s="27" t="s">
+      <c r="I92" s="27" t="s">
         <v>851</v>
-      </c>
-      <c r="I92" s="27" t="s">
-        <v>852</v>
       </c>
       <c r="J92" s="32" t="s">
         <v>488</v>
@@ -11714,13 +11724,13 @@
         <v>488</v>
       </c>
       <c r="N92" s="32" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="O92" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P92" s="28" t="s">
-        <v>1055</v>
+        <v>1115</v>
       </c>
       <c r="Q92" s="32" t="s">
         <v>826</v>
@@ -11751,13 +11761,13 @@
         <v>45010</v>
       </c>
       <c r="G93" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="H93" s="27" t="s">
         <v>867</v>
       </c>
-      <c r="H93" s="27" t="s">
+      <c r="I93" s="27" t="s">
         <v>868</v>
-      </c>
-      <c r="I93" s="27" t="s">
-        <v>869</v>
       </c>
       <c r="J93" s="28" t="s">
         <v>488</v>
@@ -11770,13 +11780,13 @@
         <v>488</v>
       </c>
       <c r="N93" s="32" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O93" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P93" s="28" t="s">
-        <v>1055</v>
+        <v>1115</v>
       </c>
       <c r="Q93" s="32" t="s">
         <v>826</v>
@@ -11787,7 +11797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="23">
         <v>80</v>
       </c>
@@ -11807,13 +11817,13 @@
         <v>45010</v>
       </c>
       <c r="G94" s="27" t="s">
+        <v>853</v>
+      </c>
+      <c r="H94" s="27" t="s">
         <v>854</v>
       </c>
-      <c r="H94" s="27" t="s">
+      <c r="I94" s="27" t="s">
         <v>855</v>
-      </c>
-      <c r="I94" s="27" t="s">
-        <v>856</v>
       </c>
       <c r="J94" s="32" t="s">
         <v>488</v>
@@ -11826,13 +11836,13 @@
         <v>488</v>
       </c>
       <c r="N94" s="32" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O94" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P94" s="28" t="s">
-        <v>1055</v>
+        <v>1115</v>
       </c>
       <c r="Q94" s="32" t="s">
         <v>826</v>
@@ -11867,7 +11877,7 @@
         <v>828</v>
       </c>
       <c r="K95" s="32" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L95" s="28"/>
       <c r="M95" s="28"/>
@@ -11901,13 +11911,13 @@
         <v>45010</v>
       </c>
       <c r="G96" s="27" t="s">
+        <v>858</v>
+      </c>
+      <c r="H96" s="27" t="s">
         <v>859</v>
       </c>
-      <c r="H96" s="27" t="s">
+      <c r="I96" s="27" t="s">
         <v>860</v>
-      </c>
-      <c r="I96" s="27" t="s">
-        <v>861</v>
       </c>
       <c r="J96" s="32" t="s">
         <v>488</v>
@@ -11920,13 +11930,13 @@
         <v>488</v>
       </c>
       <c r="N96" s="32" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O96" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P96" s="28" t="s">
-        <v>1055</v>
+        <v>1115</v>
       </c>
       <c r="Q96" s="32" t="s">
         <v>826</v>
@@ -11937,7 +11947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="23">
         <v>83</v>
       </c>
@@ -11957,13 +11967,13 @@
         <v>45010</v>
       </c>
       <c r="G97" s="27" t="s">
+        <v>862</v>
+      </c>
+      <c r="H97" s="27" t="s">
         <v>863</v>
       </c>
-      <c r="H97" s="27" t="s">
+      <c r="I97" s="27" t="s">
         <v>864</v>
-      </c>
-      <c r="I97" s="27" t="s">
-        <v>865</v>
       </c>
       <c r="J97" s="32" t="s">
         <v>488</v>
@@ -11976,13 +11986,13 @@
         <v>488</v>
       </c>
       <c r="N97" s="32" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O97" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P97" s="28" t="s">
-        <v>1055</v>
+        <v>1115</v>
       </c>
       <c r="Q97" s="32" t="s">
         <v>826</v>
@@ -12829,13 +12839,13 @@
         <v>45014</v>
       </c>
       <c r="G122" s="27" t="s">
+        <v>984</v>
+      </c>
+      <c r="H122" s="27" t="s">
         <v>985</v>
       </c>
-      <c r="H122" s="27" t="s">
+      <c r="I122" s="27" t="s">
         <v>986</v>
-      </c>
-      <c r="I122" s="27" t="s">
-        <v>987</v>
       </c>
       <c r="J122" s="28" t="s">
         <v>488</v>
@@ -12879,13 +12889,13 @@
         <v>45014</v>
       </c>
       <c r="G123" s="27" t="s">
+        <v>987</v>
+      </c>
+      <c r="H123" s="27" t="s">
         <v>988</v>
       </c>
-      <c r="H123" s="27" t="s">
-        <v>989</v>
-      </c>
       <c r="I123" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J123" s="28" t="s">
         <v>488</v>
@@ -12898,13 +12908,13 @@
         <v>488</v>
       </c>
       <c r="N123" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O123" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P123" s="28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="Q123" s="28" t="s">
         <v>826</v>
@@ -12935,13 +12945,13 @@
         <v>45014</v>
       </c>
       <c r="G124" s="27" t="s">
+        <v>991</v>
+      </c>
+      <c r="H124" s="27" t="s">
         <v>992</v>
       </c>
-      <c r="H124" s="27" t="s">
-        <v>993</v>
-      </c>
       <c r="I124" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J124" s="28" t="s">
         <v>488</v>
@@ -12954,13 +12964,13 @@
         <v>488</v>
       </c>
       <c r="N124" s="28" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O124" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P124" s="28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="Q124" s="28" t="s">
         <v>826</v>
@@ -12991,13 +13001,13 @@
         <v>45014</v>
       </c>
       <c r="G125" s="27" t="s">
+        <v>994</v>
+      </c>
+      <c r="H125" s="27" t="s">
         <v>995</v>
       </c>
-      <c r="H125" s="27" t="s">
+      <c r="I125" s="27" t="s">
         <v>996</v>
-      </c>
-      <c r="I125" s="27" t="s">
-        <v>997</v>
       </c>
       <c r="J125" s="28" t="s">
         <v>488</v>
@@ -13014,7 +13024,7 @@
         <v>828</v>
       </c>
       <c r="P125" s="28" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="Q125" s="28" t="s">
         <v>826</v>
@@ -13045,13 +13055,13 @@
         <v>45014</v>
       </c>
       <c r="G126" s="27" t="s">
+        <v>997</v>
+      </c>
+      <c r="H126" s="27" t="s">
         <v>998</v>
       </c>
-      <c r="H126" s="27" t="s">
-        <v>999</v>
-      </c>
       <c r="I126" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J126" s="28" t="s">
         <v>488</v>
@@ -13064,13 +13074,13 @@
         <v>488</v>
       </c>
       <c r="N126" s="28" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O126" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P126" s="28" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="Q126" s="28" t="s">
         <v>826</v>
@@ -13101,13 +13111,13 @@
         <v>45014</v>
       </c>
       <c r="G127" s="27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H127" s="27" t="s">
         <v>1002</v>
       </c>
-      <c r="H127" s="27" t="s">
+      <c r="I127" s="27" t="s">
         <v>1003</v>
-      </c>
-      <c r="I127" s="27" t="s">
-        <v>1004</v>
       </c>
       <c r="J127" s="28" t="s">
         <v>488</v>
@@ -13120,13 +13130,13 @@
         <v>828</v>
       </c>
       <c r="N127" s="28" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="O127" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P127" s="28" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="Q127" s="28" t="s">
         <v>826</v>
@@ -13157,13 +13167,13 @@
         <v>45014</v>
       </c>
       <c r="G128" s="27" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H128" s="27" t="s">
         <v>1005</v>
       </c>
-      <c r="H128" s="27" t="s">
+      <c r="I128" s="27" t="s">
         <v>1006</v>
-      </c>
-      <c r="I128" s="27" t="s">
-        <v>1007</v>
       </c>
       <c r="J128" s="28" t="s">
         <v>488</v>
@@ -13176,13 +13186,13 @@
         <v>828</v>
       </c>
       <c r="N128" s="44" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="O128" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P128" s="28" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="Q128" s="28" t="s">
         <v>826</v>
@@ -13213,13 +13223,13 @@
         <v>45014</v>
       </c>
       <c r="G129" s="27" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H129" s="27" t="s">
         <v>1008</v>
       </c>
-      <c r="H129" s="27" t="s">
+      <c r="I129" s="27" t="s">
         <v>1009</v>
-      </c>
-      <c r="I129" s="27" t="s">
-        <v>1010</v>
       </c>
       <c r="J129" s="28" t="s">
         <v>488</v>
@@ -13232,13 +13242,13 @@
         <v>828</v>
       </c>
       <c r="N129" s="28" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="O129" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P129" s="28" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="Q129" s="28" t="s">
         <v>826</v>
@@ -13677,13 +13687,13 @@
         <v>45010</v>
       </c>
       <c r="G142" s="27" t="s">
+        <v>870</v>
+      </c>
+      <c r="H142" s="27" t="s">
         <v>871</v>
       </c>
-      <c r="H142" s="27" t="s">
+      <c r="I142" s="27" t="s">
         <v>872</v>
-      </c>
-      <c r="I142" s="27" t="s">
-        <v>873</v>
       </c>
       <c r="J142" s="32" t="s">
         <v>488</v>
@@ -13696,13 +13706,13 @@
         <v>488</v>
       </c>
       <c r="N142" s="32" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O142" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P142" s="28" t="s">
-        <v>1056</v>
+        <v>1115</v>
       </c>
       <c r="Q142" s="32" t="s">
         <v>826</v>
@@ -13733,13 +13743,13 @@
         <v>45010</v>
       </c>
       <c r="G143" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="H143" s="27" t="s">
         <v>874</v>
       </c>
-      <c r="H143" s="27" t="s">
+      <c r="I143" s="27" t="s">
         <v>875</v>
-      </c>
-      <c r="I143" s="27" t="s">
-        <v>876</v>
       </c>
       <c r="J143" s="28" t="s">
         <v>488</v>
@@ -13752,13 +13762,13 @@
         <v>488</v>
       </c>
       <c r="N143" s="32" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O143" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P143" s="28" t="s">
-        <v>1056</v>
+        <v>1115</v>
       </c>
       <c r="Q143" s="32" t="s">
         <v>826</v>
@@ -13993,13 +14003,13 @@
         <v>45014</v>
       </c>
       <c r="G150" s="27" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H150" s="27" t="s">
         <v>1011</v>
       </c>
-      <c r="H150" s="27" t="s">
-        <v>1012</v>
-      </c>
       <c r="I150" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J150" s="28" t="s">
         <v>488</v>
@@ -14012,13 +14022,13 @@
         <v>488</v>
       </c>
       <c r="N150" s="28" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="O150" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P150" s="28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="Q150" s="28" t="s">
         <v>826</v>
@@ -14049,13 +14059,13 @@
         <v>45014</v>
       </c>
       <c r="G151" s="27" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H151" s="27" t="s">
         <v>1014</v>
       </c>
-      <c r="H151" s="27" t="s">
-        <v>1015</v>
-      </c>
       <c r="I151" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J151" s="28" t="s">
         <v>488</v>
@@ -14068,13 +14078,13 @@
         <v>488</v>
       </c>
       <c r="N151" s="28" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O151" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P151" s="28" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="Q151" s="28" t="s">
         <v>826</v>
@@ -14313,7 +14323,7 @@
         <v>828</v>
       </c>
       <c r="K158" s="32" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L158" s="28"/>
       <c r="M158" s="28"/>
@@ -14351,7 +14361,7 @@
         <v>828</v>
       </c>
       <c r="K159" s="32" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L159" s="28"/>
       <c r="M159" s="28"/>
@@ -14589,13 +14599,13 @@
         <v>45014</v>
       </c>
       <c r="G166" s="27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H166" s="27" t="s">
         <v>1017</v>
       </c>
-      <c r="H166" s="27" t="s">
+      <c r="I166" s="27" t="s">
         <v>1018</v>
-      </c>
-      <c r="I166" s="27" t="s">
-        <v>1019</v>
       </c>
       <c r="J166" s="28" t="s">
         <v>488</v>
@@ -14615,7 +14625,7 @@
       </c>
       <c r="R166" s="29"/>
       <c r="S166" s="30" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="T166" s="31" t="s">
         <v>48</v>
@@ -14641,13 +14651,13 @@
         <v>45035</v>
       </c>
       <c r="G167" s="27" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="H167" s="27" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="I167" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J167" s="28" t="s">
         <v>488</v>
@@ -14660,13 +14670,13 @@
         <v>488</v>
       </c>
       <c r="N167" s="28" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="O167" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P167" s="28" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="Q167" s="28" t="s">
         <v>826</v>
@@ -14905,7 +14915,7 @@
         <v>828</v>
       </c>
       <c r="K174" s="32" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="L174" s="28"/>
       <c r="M174" s="28"/>
@@ -14943,7 +14953,7 @@
         <v>828</v>
       </c>
       <c r="K175" s="28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L175" s="28"/>
       <c r="M175" s="28"/>
@@ -15181,13 +15191,13 @@
         <v>45033</v>
       </c>
       <c r="G182" s="27" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="H182" s="34" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="I182" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J182" s="28" t="s">
         <v>488</v>
@@ -15200,13 +15210,13 @@
         <v>488</v>
       </c>
       <c r="N182" s="28" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="O182" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P182" s="28" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="Q182" s="28" t="s">
         <v>826</v>
@@ -15237,13 +15247,13 @@
         <v>45014</v>
       </c>
       <c r="G183" s="27" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H183" s="27" t="s">
         <v>1022</v>
       </c>
-      <c r="H183" s="27" t="s">
-        <v>1023</v>
-      </c>
       <c r="I183" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J183" s="28" t="s">
         <v>488</v>
@@ -15256,20 +15266,20 @@
         <v>488</v>
       </c>
       <c r="N183" s="28" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O183" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P183" s="28" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="Q183" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R183" s="29"/>
       <c r="S183" s="30" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="T183" s="31" t="s">
         <v>51</v>
@@ -15673,7 +15683,7 @@
         <v>828</v>
       </c>
       <c r="K195" s="32" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="L195" s="28"/>
       <c r="M195" s="28"/>
@@ -15711,7 +15721,7 @@
         <v>828</v>
       </c>
       <c r="K196" s="28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L196" s="28"/>
       <c r="M196" s="28"/>
@@ -15725,7 +15735,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:20" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="23">
         <v>92</v>
       </c>
@@ -15745,13 +15755,13 @@
         <v>45012</v>
       </c>
       <c r="G197" s="27" t="s">
+        <v>881</v>
+      </c>
+      <c r="H197" s="27" t="s">
         <v>882</v>
       </c>
-      <c r="H197" s="27" t="s">
+      <c r="I197" s="27" t="s">
         <v>883</v>
-      </c>
-      <c r="I197" s="27" t="s">
-        <v>884</v>
       </c>
       <c r="J197" s="28" t="s">
         <v>488</v>
@@ -15764,13 +15774,13 @@
         <v>488</v>
       </c>
       <c r="N197" s="32" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="O197" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P197" s="28" t="s">
-        <v>1057</v>
+        <v>1115</v>
       </c>
       <c r="Q197" s="28" t="s">
         <v>826</v>
@@ -15801,13 +15811,13 @@
         <v>45012</v>
       </c>
       <c r="G198" s="27" t="s">
+        <v>885</v>
+      </c>
+      <c r="H198" s="27" t="s">
         <v>886</v>
       </c>
-      <c r="H198" s="27" t="s">
+      <c r="I198" s="27" t="s">
         <v>887</v>
-      </c>
-      <c r="I198" s="27" t="s">
-        <v>888</v>
       </c>
       <c r="J198" s="28" t="s">
         <v>488</v>
@@ -15820,13 +15830,13 @@
         <v>488</v>
       </c>
       <c r="N198" s="32" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="O198" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P198" s="28" t="s">
-        <v>1057</v>
+        <v>1115</v>
       </c>
       <c r="Q198" s="28" t="s">
         <v>826</v>
@@ -16367,13 +16377,13 @@
         <v>45012</v>
       </c>
       <c r="G214" s="27" t="s">
+        <v>889</v>
+      </c>
+      <c r="H214" s="37" t="s">
         <v>890</v>
       </c>
-      <c r="H214" s="37" t="s">
+      <c r="I214" s="27" t="s">
         <v>891</v>
-      </c>
-      <c r="I214" s="27" t="s">
-        <v>892</v>
       </c>
       <c r="J214" s="28" t="s">
         <v>488</v>
@@ -16417,13 +16427,13 @@
         <v>45015</v>
       </c>
       <c r="G215" s="27" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H215" s="27" t="s">
         <v>1025</v>
       </c>
-      <c r="H215" s="27" t="s">
-        <v>1026</v>
-      </c>
       <c r="I215" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J215" s="28" t="s">
         <v>488</v>
@@ -16436,13 +16446,13 @@
         <v>488</v>
       </c>
       <c r="N215" s="26" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O215" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P215" s="28" t="s">
-        <v>1102</v>
+        <v>1114</v>
       </c>
       <c r="Q215" s="28" t="s">
         <v>826</v>
@@ -16677,13 +16687,13 @@
         <v>45012</v>
       </c>
       <c r="G222" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="H222" s="27" t="s">
         <v>893</v>
       </c>
-      <c r="H222" s="27" t="s">
+      <c r="I222" s="27" t="s">
         <v>894</v>
-      </c>
-      <c r="I222" s="27" t="s">
-        <v>895</v>
       </c>
       <c r="J222" s="28" t="s">
         <v>488</v>
@@ -16727,13 +16737,13 @@
         <v>45015</v>
       </c>
       <c r="G223" s="27" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H223" s="27" t="s">
         <v>1028</v>
       </c>
-      <c r="H223" s="27" t="s">
-        <v>1029</v>
-      </c>
       <c r="I223" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J223" s="28" t="s">
         <v>488</v>
@@ -16746,13 +16756,13 @@
         <v>488</v>
       </c>
       <c r="N223" s="28" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O223" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P223" s="28" t="s">
-        <v>1102</v>
+        <v>1116</v>
       </c>
       <c r="Q223" s="28" t="s">
         <v>826</v>
@@ -16993,13 +17003,13 @@
         <v>45022</v>
       </c>
       <c r="G230" s="27" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="H230" s="34" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="I230" s="34" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="J230" s="28" t="s">
         <v>488</v>
@@ -17022,7 +17032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="231" spans="1:20" s="21" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:20" s="21" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="23">
         <v>48</v>
       </c>
@@ -17051,7 +17061,7 @@
       <c r="N231" s="28"/>
       <c r="O231" s="28"/>
       <c r="P231" s="28" t="s">
-        <v>1061</v>
+        <v>1118</v>
       </c>
       <c r="Q231" s="28" t="s">
         <v>826</v>
@@ -17972,13 +17982,13 @@
         <v>45012</v>
       </c>
       <c r="G258" s="27" t="s">
+        <v>895</v>
+      </c>
+      <c r="H258" s="27" t="s">
         <v>896</v>
       </c>
-      <c r="H258" s="27" t="s">
+      <c r="I258" s="27" t="s">
         <v>897</v>
-      </c>
-      <c r="I258" s="27" t="s">
-        <v>898</v>
       </c>
       <c r="J258" s="28" t="s">
         <v>488</v>
@@ -18022,13 +18032,13 @@
         <v>45013</v>
       </c>
       <c r="G259" s="27" t="s">
+        <v>922</v>
+      </c>
+      <c r="H259" s="27" t="s">
         <v>923</v>
       </c>
-      <c r="H259" s="27" t="s">
+      <c r="I259" s="27" t="s">
         <v>924</v>
-      </c>
-      <c r="I259" s="27" t="s">
-        <v>925</v>
       </c>
       <c r="J259" s="28" t="s">
         <v>488</v>
@@ -18072,13 +18082,13 @@
         <v>45012</v>
       </c>
       <c r="G260" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="H260" s="34" t="s">
         <v>899</v>
       </c>
-      <c r="H260" s="34" t="s">
-        <v>900</v>
-      </c>
       <c r="I260" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J260" s="28" t="s">
         <v>488</v>
@@ -18091,13 +18101,13 @@
         <v>488</v>
       </c>
       <c r="N260" s="34" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="O260" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P260" s="28" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="Q260" s="28" t="s">
         <v>826</v>
@@ -18128,13 +18138,13 @@
         <v>45012</v>
       </c>
       <c r="G261" s="27" t="s">
+        <v>901</v>
+      </c>
+      <c r="H261" s="27" t="s">
         <v>902</v>
       </c>
-      <c r="H261" s="27" t="s">
-        <v>903</v>
-      </c>
       <c r="I261" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J261" s="28" t="s">
         <v>488</v>
@@ -18147,13 +18157,13 @@
         <v>488</v>
       </c>
       <c r="N261" s="28" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="O261" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P261" s="28" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="Q261" s="28" t="s">
         <v>826</v>
@@ -18184,13 +18194,13 @@
         <v>45012</v>
       </c>
       <c r="G262" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="H262" s="27" t="s">
         <v>904</v>
       </c>
-      <c r="H262" s="27" t="s">
+      <c r="I262" s="27" t="s">
         <v>905</v>
-      </c>
-      <c r="I262" s="27" t="s">
-        <v>906</v>
       </c>
       <c r="J262" s="28" t="s">
         <v>488</v>
@@ -18203,20 +18213,20 @@
         <v>828</v>
       </c>
       <c r="N262" s="28" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="O262" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P262" s="28" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="Q262" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R262" s="29"/>
       <c r="S262" s="38" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="T262" s="31" t="s">
         <v>51</v>
@@ -18242,13 +18252,13 @@
         <v>45012</v>
       </c>
       <c r="G263" s="27" t="s">
+        <v>907</v>
+      </c>
+      <c r="H263" s="27" t="s">
         <v>908</v>
       </c>
-      <c r="H263" s="27" t="s">
-        <v>909</v>
-      </c>
       <c r="I263" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J263" s="28" t="s">
         <v>488</v>
@@ -18261,13 +18271,13 @@
         <v>488</v>
       </c>
       <c r="N263" s="32" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O263" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P263" s="28" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="Q263" s="28" t="s">
         <v>826</v>
@@ -18298,13 +18308,13 @@
         <v>45012</v>
       </c>
       <c r="G264" s="27" t="s">
+        <v>910</v>
+      </c>
+      <c r="H264" s="27" t="s">
+        <v>914</v>
+      </c>
+      <c r="I264" s="27" t="s">
         <v>911</v>
-      </c>
-      <c r="H264" s="27" t="s">
-        <v>915</v>
-      </c>
-      <c r="I264" s="27" t="s">
-        <v>912</v>
       </c>
       <c r="J264" s="28" t="s">
         <v>488</v>
@@ -18317,20 +18327,20 @@
         <v>828</v>
       </c>
       <c r="N264" s="28" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="O264" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P264" s="28" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="Q264" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R264" s="29"/>
       <c r="S264" s="38" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T264" s="31" t="s">
         <v>51</v>
@@ -18356,13 +18366,13 @@
         <v>45013</v>
       </c>
       <c r="G265" s="27" t="s">
+        <v>925</v>
+      </c>
+      <c r="H265" s="27" t="s">
         <v>926</v>
       </c>
-      <c r="H265" s="27" t="s">
+      <c r="I265" s="27" t="s">
         <v>927</v>
-      </c>
-      <c r="I265" s="27" t="s">
-        <v>928</v>
       </c>
       <c r="J265" s="28" t="s">
         <v>488</v>
@@ -18375,20 +18385,20 @@
         <v>828</v>
       </c>
       <c r="N265" s="28" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="O265" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P265" s="28" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="Q265" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R265" s="29"/>
       <c r="S265" s="30" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T265" s="31" t="s">
         <v>51</v>
@@ -18414,13 +18424,13 @@
         <v>45013</v>
       </c>
       <c r="G266" s="27" t="s">
+        <v>928</v>
+      </c>
+      <c r="H266" s="27" t="s">
         <v>929</v>
       </c>
-      <c r="H266" s="27" t="s">
+      <c r="I266" s="27" t="s">
         <v>930</v>
-      </c>
-      <c r="I266" s="27" t="s">
-        <v>931</v>
       </c>
       <c r="J266" s="28" t="s">
         <v>488</v>
@@ -18433,20 +18443,20 @@
         <v>828</v>
       </c>
       <c r="N266" s="28" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="O266" s="28" t="s">
         <v>828</v>
       </c>
       <c r="P266" s="28" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="Q266" s="28" t="s">
         <v>826</v>
       </c>
       <c r="R266" s="29"/>
       <c r="S266" s="30" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="T266" s="31" t="s">
         <v>51</v>
@@ -18472,13 +18482,13 @@
         <v>45012</v>
       </c>
       <c r="G267" s="27" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H267" s="27" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I267" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J267" s="28" t="s">
         <v>488</v>
@@ -18491,13 +18501,13 @@
         <v>488</v>
       </c>
       <c r="N267" s="28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O267" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P267" s="28" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="Q267" s="28" t="s">
         <v>826</v>
@@ -18528,13 +18538,13 @@
         <v>45022</v>
       </c>
       <c r="G268" s="27" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="H268" s="34" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="I268" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J268" s="28" t="s">
         <v>488</v>
@@ -18547,13 +18557,13 @@
         <v>488</v>
       </c>
       <c r="N268" s="28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O268" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P268" s="28" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="Q268" s="28" t="s">
         <v>826</v>
@@ -18584,13 +18594,13 @@
         <v>45035</v>
       </c>
       <c r="G269" s="27" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="H269" s="34" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="I269" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J269" s="28" t="s">
         <v>488</v>
@@ -18603,13 +18613,13 @@
         <v>488</v>
       </c>
       <c r="N269" s="28" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="O269" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P269" s="28" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="Q269" s="28" t="s">
         <v>826</v>
@@ -18640,13 +18650,13 @@
         <v>45023</v>
       </c>
       <c r="G270" s="27" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="H270" s="34" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="I270" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J270" s="28" t="s">
         <v>488</v>
@@ -18659,13 +18669,13 @@
         <v>488</v>
       </c>
       <c r="N270" s="28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O270" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P270" s="28" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="Q270" s="28" t="s">
         <v>826</v>
@@ -18696,13 +18706,13 @@
         <v>45012</v>
       </c>
       <c r="G271" s="27" t="s">
+        <v>917</v>
+      </c>
+      <c r="H271" s="27" t="s">
         <v>918</v>
       </c>
-      <c r="H271" s="27" t="s">
-        <v>919</v>
-      </c>
       <c r="I271" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J271" s="28" t="s">
         <v>488</v>
@@ -18715,13 +18725,13 @@
         <v>488</v>
       </c>
       <c r="N271" s="28" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="O271" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P271" s="28" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="Q271" s="28" t="s">
         <v>826</v>
@@ -18752,13 +18762,13 @@
         <v>45023</v>
       </c>
       <c r="G272" s="27" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="H272" s="27" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="I272" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J272" s="28" t="s">
         <v>488</v>
@@ -18771,13 +18781,13 @@
         <v>488</v>
       </c>
       <c r="N272" s="28" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O272" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P272" s="28" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="Q272" s="28" t="s">
         <v>826</v>
@@ -18808,13 +18818,13 @@
         <v>45027</v>
       </c>
       <c r="G273" s="27" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="H273" s="43" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="I273" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J273" s="28" t="s">
         <v>488</v>
@@ -18827,13 +18837,13 @@
         <v>488</v>
       </c>
       <c r="N273" s="28" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="O273" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P273" s="28" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="Q273" s="28" t="s">
         <v>826</v>
@@ -18864,13 +18874,13 @@
         <v>45023</v>
       </c>
       <c r="G274" s="27" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="H274" s="27" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="I274" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J274" s="28" t="s">
         <v>488</v>
@@ -18883,13 +18893,13 @@
         <v>488</v>
       </c>
       <c r="N274" s="28" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O274" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P274" s="28" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="Q274" s="28" t="s">
         <v>826</v>
@@ -18920,13 +18930,13 @@
         <v>45033</v>
       </c>
       <c r="G275" s="27" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="H275" s="34" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="I275" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J275" s="28" t="s">
         <v>488</v>
@@ -18939,13 +18949,13 @@
         <v>488</v>
       </c>
       <c r="N275" s="28" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="O275" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P275" s="28" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="Q275" s="28" t="s">
         <v>826</v>
@@ -18976,13 +18986,13 @@
         <v>45031</v>
       </c>
       <c r="G276" s="27" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="H276" s="34" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="I276" s="27" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J276" s="28" t="s">
         <v>488</v>
@@ -18995,13 +19005,13 @@
         <v>488</v>
       </c>
       <c r="N276" s="28" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="O276" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P276" s="28" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="Q276" s="28" t="s">
         <v>826</v>
@@ -20834,13 +20844,13 @@
         <v>45062</v>
       </c>
       <c r="G330" s="27" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="H330" s="27" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="I330" s="27" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="J330" s="28" t="s">
         <v>488</v>
@@ -20884,7 +20894,7 @@
         <v>828</v>
       </c>
       <c r="K331" s="28" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L331" s="28"/>
       <c r="M331" s="28"/>
@@ -20922,7 +20932,7 @@
         <v>828</v>
       </c>
       <c r="K332" s="28" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L332" s="28"/>
       <c r="M332" s="28"/>
@@ -20960,7 +20970,7 @@
         <v>828</v>
       </c>
       <c r="K333" s="28" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L333" s="28"/>
       <c r="M333" s="28"/>
@@ -20974,7 +20984,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="334" spans="1:20" s="21" customFormat="1" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:20" s="21" customFormat="1" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A334" s="23">
         <v>151</v>
       </c>
@@ -20994,13 +21004,13 @@
         <v>45013</v>
       </c>
       <c r="G334" s="27" t="s">
+        <v>935</v>
+      </c>
+      <c r="H334" s="37" t="s">
         <v>936</v>
       </c>
-      <c r="H334" s="37" t="s">
+      <c r="I334" s="27" t="s">
         <v>937</v>
-      </c>
-      <c r="I334" s="27" t="s">
-        <v>938</v>
       </c>
       <c r="J334" s="28" t="s">
         <v>488</v>
@@ -21013,13 +21023,13 @@
         <v>488</v>
       </c>
       <c r="N334" s="28" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O334" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P334" s="28" t="s">
-        <v>1072</v>
+        <v>1119</v>
       </c>
       <c r="Q334" s="28" t="s">
         <v>826</v>
@@ -21030,7 +21040,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="335" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:20" s="21" customFormat="1" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A335" s="23">
         <v>152</v>
       </c>
@@ -21050,13 +21060,13 @@
         <v>45013</v>
       </c>
       <c r="G335" s="27" t="s">
+        <v>931</v>
+      </c>
+      <c r="H335" s="27" t="s">
         <v>932</v>
       </c>
-      <c r="H335" s="27" t="s">
+      <c r="I335" s="27" t="s">
         <v>933</v>
-      </c>
-      <c r="I335" s="27" t="s">
-        <v>934</v>
       </c>
       <c r="J335" s="28" t="s">
         <v>488</v>
@@ -21069,13 +21079,13 @@
         <v>488</v>
       </c>
       <c r="N335" s="28" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="O335" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P335" s="28" t="s">
-        <v>1072</v>
+        <v>1115</v>
       </c>
       <c r="Q335" s="28" t="s">
         <v>826</v>
@@ -21086,7 +21096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="336" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:20" s="21" customFormat="1" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A336" s="23">
         <v>153</v>
       </c>
@@ -21106,13 +21116,13 @@
         <v>45013</v>
       </c>
       <c r="G336" s="27" t="s">
+        <v>939</v>
+      </c>
+      <c r="H336" s="27" t="s">
         <v>940</v>
       </c>
-      <c r="H336" s="27" t="s">
-        <v>941</v>
-      </c>
       <c r="I336" s="27" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J336" s="28" t="s">
         <v>488</v>
@@ -21125,13 +21135,13 @@
         <v>488</v>
       </c>
       <c r="N336" s="28" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="O336" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P336" s="28" t="s">
-        <v>1072</v>
+        <v>1119</v>
       </c>
       <c r="Q336" s="28" t="s">
         <v>826</v>
@@ -21142,7 +21152,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="337" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:20" s="21" customFormat="1" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A337" s="23">
         <v>154</v>
       </c>
@@ -21162,13 +21172,13 @@
         <v>45013</v>
       </c>
       <c r="G337" s="27" t="s">
+        <v>943</v>
+      </c>
+      <c r="H337" s="27" t="s">
         <v>944</v>
       </c>
-      <c r="H337" s="27" t="s">
+      <c r="I337" s="27" t="s">
         <v>945</v>
-      </c>
-      <c r="I337" s="27" t="s">
-        <v>946</v>
       </c>
       <c r="J337" s="28" t="s">
         <v>488</v>
@@ -21181,13 +21191,13 @@
         <v>488</v>
       </c>
       <c r="N337" s="28" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O337" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P337" s="28" t="s">
-        <v>1072</v>
+        <v>1115</v>
       </c>
       <c r="Q337" s="28" t="s">
         <v>826</v>
@@ -21198,7 +21208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="338" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:20" s="21" customFormat="1" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A338" s="23">
         <v>155</v>
       </c>
@@ -21218,13 +21228,13 @@
         <v>45013</v>
       </c>
       <c r="G338" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="H338" s="27" t="s">
         <v>948</v>
       </c>
-      <c r="H338" s="27" t="s">
+      <c r="I338" s="27" t="s">
         <v>949</v>
-      </c>
-      <c r="I338" s="27" t="s">
-        <v>950</v>
       </c>
       <c r="J338" s="28" t="s">
         <v>488</v>
@@ -21237,13 +21247,13 @@
         <v>488</v>
       </c>
       <c r="N338" s="28" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O338" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P338" s="28" t="s">
-        <v>1072</v>
+        <v>1115</v>
       </c>
       <c r="Q338" s="28" t="s">
         <v>826</v>
@@ -21254,7 +21264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="339" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:20" s="21" customFormat="1" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A339" s="23">
         <v>156</v>
       </c>
@@ -21274,13 +21284,13 @@
         <v>45013</v>
       </c>
       <c r="G339" s="27" t="s">
+        <v>951</v>
+      </c>
+      <c r="H339" s="27" t="s">
         <v>952</v>
       </c>
-      <c r="H339" s="27" t="s">
+      <c r="I339" s="27" t="s">
         <v>953</v>
-      </c>
-      <c r="I339" s="27" t="s">
-        <v>954</v>
       </c>
       <c r="J339" s="28" t="s">
         <v>488</v>
@@ -21293,13 +21303,13 @@
         <v>488</v>
       </c>
       <c r="N339" s="28" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="O339" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P339" s="28" t="s">
-        <v>1072</v>
+        <v>1115</v>
       </c>
       <c r="Q339" s="28" t="s">
         <v>826</v>
@@ -21334,7 +21344,7 @@
         <v>828</v>
       </c>
       <c r="K340" s="32" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="L340" s="28"/>
       <c r="M340" s="28"/>
@@ -21348,7 +21358,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="341" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:20" s="21" customFormat="1" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A341" s="23">
         <v>158</v>
       </c>
@@ -21368,13 +21378,13 @@
         <v>45014</v>
       </c>
       <c r="G341" s="27" t="s">
+        <v>955</v>
+      </c>
+      <c r="H341" s="27" t="s">
         <v>956</v>
       </c>
-      <c r="H341" s="27" t="s">
+      <c r="I341" s="27" t="s">
         <v>957</v>
-      </c>
-      <c r="I341" s="27" t="s">
-        <v>958</v>
       </c>
       <c r="J341" s="28" t="s">
         <v>488</v>
@@ -21387,13 +21397,13 @@
         <v>488</v>
       </c>
       <c r="N341" s="28" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="O341" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P341" s="28" t="s">
-        <v>1072</v>
+        <v>1115</v>
       </c>
       <c r="Q341" s="28" t="s">
         <v>826</v>
@@ -21404,7 +21414,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="342" spans="1:20" s="21" customFormat="1" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:20" s="21" customFormat="1" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A342" s="23">
         <v>159</v>
       </c>
@@ -21424,13 +21434,13 @@
         <v>45014</v>
       </c>
       <c r="G342" s="27" t="s">
+        <v>959</v>
+      </c>
+      <c r="H342" s="27" t="s">
         <v>960</v>
       </c>
-      <c r="H342" s="27" t="s">
+      <c r="I342" s="27" t="s">
         <v>961</v>
-      </c>
-      <c r="I342" s="27" t="s">
-        <v>962</v>
       </c>
       <c r="J342" s="28" t="s">
         <v>488</v>
@@ -21443,13 +21453,13 @@
         <v>488</v>
       </c>
       <c r="N342" s="28" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O342" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P342" s="28" t="s">
-        <v>1072</v>
+        <v>1115</v>
       </c>
       <c r="Q342" s="28" t="s">
         <v>826</v>
@@ -21460,7 +21470,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="343" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:20" s="21" customFormat="1" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A343" s="23">
         <v>160</v>
       </c>
@@ -21480,13 +21490,13 @@
         <v>45014</v>
       </c>
       <c r="G343" s="27" t="s">
+        <v>964</v>
+      </c>
+      <c r="H343" s="27" t="s">
         <v>965</v>
       </c>
-      <c r="H343" s="27" t="s">
+      <c r="I343" s="27" t="s">
         <v>966</v>
-      </c>
-      <c r="I343" s="27" t="s">
-        <v>967</v>
       </c>
       <c r="J343" s="28" t="s">
         <v>488</v>
@@ -21499,13 +21509,13 @@
         <v>488</v>
       </c>
       <c r="N343" s="28" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O343" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P343" s="28" t="s">
-        <v>1072</v>
+        <v>1115</v>
       </c>
       <c r="Q343" s="28" t="s">
         <v>826</v>
@@ -21516,7 +21526,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="344" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:20" s="21" customFormat="1" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A344" s="23">
         <v>161</v>
       </c>
@@ -21536,13 +21546,13 @@
         <v>45014</v>
       </c>
       <c r="G344" s="27" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H344" s="27" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I344" s="27" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J344" s="28" t="s">
         <v>488</v>
@@ -21555,13 +21565,13 @@
         <v>488</v>
       </c>
       <c r="N344" s="28" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="O344" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P344" s="28" t="s">
-        <v>1072</v>
+        <v>1117</v>
       </c>
       <c r="Q344" s="28" t="s">
         <v>826</v>
@@ -21572,7 +21582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="345" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:20" s="21" customFormat="1" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A345" s="23">
         <v>162</v>
       </c>
@@ -21592,13 +21602,13 @@
         <v>45014</v>
       </c>
       <c r="G345" s="27" t="s">
+        <v>971</v>
+      </c>
+      <c r="H345" s="27" t="s">
         <v>972</v>
       </c>
-      <c r="H345" s="27" t="s">
+      <c r="I345" s="27" t="s">
         <v>973</v>
-      </c>
-      <c r="I345" s="27" t="s">
-        <v>974</v>
       </c>
       <c r="J345" s="28" t="s">
         <v>488</v>
@@ -21611,13 +21621,13 @@
         <v>488</v>
       </c>
       <c r="N345" s="28" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O345" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P345" s="28" t="s">
-        <v>1072</v>
+        <v>1117</v>
       </c>
       <c r="Q345" s="28" t="s">
         <v>826</v>
@@ -21652,7 +21662,7 @@
         <v>828</v>
       </c>
       <c r="K346" s="28" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L346" s="28"/>
       <c r="M346" s="28"/>
@@ -21690,7 +21700,7 @@
         <v>828</v>
       </c>
       <c r="K347" s="28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L347" s="28"/>
       <c r="M347" s="28"/>
@@ -21728,7 +21738,7 @@
         <v>828</v>
       </c>
       <c r="K348" s="28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L348" s="28"/>
       <c r="M348" s="28"/>
@@ -21766,7 +21776,7 @@
         <v>828</v>
       </c>
       <c r="K349" s="28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L349" s="28"/>
       <c r="M349" s="28"/>
@@ -21804,7 +21814,7 @@
         <v>828</v>
       </c>
       <c r="K350" s="28" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L350" s="28"/>
       <c r="M350" s="28"/>
@@ -21818,7 +21828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="351" spans="1:20" s="21" customFormat="1" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:20" s="21" customFormat="1" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A351" s="23">
         <v>168</v>
       </c>
@@ -21838,13 +21848,13 @@
         <v>45014</v>
       </c>
       <c r="G351" s="27" t="s">
+        <v>977</v>
+      </c>
+      <c r="H351" s="26" t="s">
         <v>978</v>
       </c>
-      <c r="H351" s="26" t="s">
-        <v>979</v>
-      </c>
       <c r="I351" s="26" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J351" s="26" t="s">
         <v>488</v>
@@ -21857,13 +21867,13 @@
         <v>488</v>
       </c>
       <c r="N351" s="26" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O351" s="28" t="s">
         <v>488</v>
       </c>
       <c r="P351" s="28" t="s">
-        <v>1072</v>
+        <v>1117</v>
       </c>
       <c r="Q351" s="28" t="s">
         <v>826</v>
@@ -21874,7 +21884,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="352" spans="1:20" s="21" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:20" s="21" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A352" s="23">
         <v>169</v>
       </c>
@@ -21894,13 +21904,13 @@
         <v>45014</v>
       </c>
       <c r="G352" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="H352" s="26" t="s">
         <v>981</v>
       </c>
-      <c r="H352" s="26" t="s">
+      <c r="I352" s="26" t="s">
         <v>982</v>
-      </c>
-      <c r="I352" s="26" t="s">
-        <v>983</v>
       </c>
       <c r="J352" s="26" t="s">
         <v>488</v>
@@ -21913,13 +21923,13 @@
         <v>488</v>
       </c>
       <c r="N352" s="26" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="O352" s="26" t="s">
         <v>488</v>
       </c>
-      <c r="P352" s="26" t="s">
-        <v>1072</v>
+      <c r="P352" s="28" t="s">
+        <v>1115</v>
       </c>
       <c r="Q352" s="26" t="s">
         <v>826</v>
@@ -32302,13 +32312,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O230:O374 L186:M212 O186:O212 J214 L214:M214 O214 J216:J220 L216:M220 O216:O220 J222 L222:M222 O222 J224:J228 L224:M228 O224:O228 J196:J212 J186:J194 L230:M374 J230:J339 J341:J346 J351:J374</xm:sqref>
+          <xm:sqref>O230:O374 L186:M212 O186:O212 J214 L214:M214 O214 J216:J220 L216:M220 O216:O220 J222 L222:M222 O222 J224:J228 L224:M228 O224:O228 J196:J212 J186:J194 L230:M374 J230:J339 J341:J346 J351:J374 J62</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q186:Q212 Q214 Q216:Q220 Q222 Q224:Q228 Q230:Q374</xm:sqref>
+          <xm:sqref>Q186:Q212 Q214 Q216:Q220 Q222 Q224:Q228 Q230:Q374 Q62</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
